--- a/Create_MappingXml_File.xlsx
+++ b/Create_MappingXml_File.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralf/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralf/Documents/GitHub/LocDbConverterConsole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE6733E-365A-834A-9E65-76E3240FDFED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF678707-46E0-724B-8B09-CCA6E9208CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="3520" windowWidth="35940" windowHeight="20780" xr2:uid="{DA64CF93-7AD7-5549-BC85-4B8B89C6C2C1}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="z21" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$234</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1246,16 +1246,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1582,7 +1587,7 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1592,24 +1597,24 @@
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="92" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="H1" s="5" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="H1" s="8" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="8" t="s">
         <v>329</v>
       </c>
     </row>
@@ -1632,7 +1637,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="8" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1653,10 +1658,10 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="8" t="str">
         <f>"&lt;mapping Id="""&amp;A4&amp;""" Shortname="""&amp;B4&amp;""" Duration="""&amp;C4&amp;""" FunctionTypeCS2="""&amp;E4&amp;""" FunctionTypeZ21="""&amp;F4&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="1" Shortname="Lchtwchsl" Duration="0" FunctionTypeCS2="Lichtwechsel" FunctionTypeZ21="main_beam2" /&gt;</v>
       </c>
@@ -1678,10 +1683,10 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="5" t="str">
+      <c r="H5" s="8" t="str">
         <f t="shared" ref="H5:H68" si="1">"&lt;mapping Id="""&amp;A5&amp;""" Shortname="""&amp;B5&amp;""" Duration="""&amp;C5&amp;""" FunctionTypeCS2="""&amp;E5&amp;""" FunctionTypeZ21="""&amp;F5&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="2" Shortname="Innnblchtn" Duration="0" FunctionTypeCS2="Innenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
@@ -1703,10 +1708,10 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="5" t="str">
+      <c r="H6" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="3" Shortname="Assnblchtn" Duration="0" FunctionTypeCS2="Aussenbeleuchtung_Schlusslicht" FunctionTypeZ21="back_light" /&gt;</v>
       </c>
@@ -1728,10 +1733,10 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="5" t="str">
+      <c r="H7" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="4" Shortname="Fernlicht" Duration="0" FunctionTypeCS2="Fernlicht" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -1753,10 +1758,10 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="str">
+      <c r="H8" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="5" Shortname="Btrbsgrsch" Duration="0" FunctionTypeCS2="Betriebsgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -1778,10 +1783,10 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="5" t="str">
+      <c r="H9" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="6" Shortname="Pantograph" Duration="0" FunctionTypeCS2="Pantograph" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
@@ -1803,10 +1808,10 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="5" t="str">
+      <c r="H10" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="7" Shortname="Rchgnrtr" Duration="0" FunctionTypeCS2="Rauchgenerator" FunctionTypeZ21="steam" /&gt;</v>
       </c>
@@ -1828,10 +1833,10 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="5" t="str">
+      <c r="H11" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="8" Shortname="Rngrgng_n" Duration="0" FunctionTypeCS2="Rangiergang_ein" FunctionTypeZ21="hump_gear" /&gt;</v>
       </c>
@@ -1853,10 +1858,10 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="5" t="str">
+      <c r="H12" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="9" Shortname="Tlxkpplng" Duration="0" FunctionTypeCS2="Telexkupplung" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -1878,10 +1883,10 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="5" t="str">
+      <c r="H13" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="10" Shortname="Hrn_Typhn" Duration="0" FunctionTypeCS2="Horn_Typhon" FunctionTypeZ21="bugle" /&gt;</v>
       </c>
@@ -1903,10 +1908,10 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="5" t="str">
+      <c r="H14" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="11" Shortname="Schffnrpff" Duration="0" FunctionTypeCS2="Schaffnerpfiff" FunctionTypeZ21="sound5" /&gt;</v>
       </c>
@@ -1928,10 +1933,10 @@
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="5" t="str">
+      <c r="H15" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="12" Shortname="Pfeife" Duration="0" FunctionTypeCS2="Pfeife" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
@@ -1953,10 +1958,10 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="H16" s="5" t="str">
+      <c r="H16" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="13" Shortname="Glocke" Duration="0" FunctionTypeCS2="Glocke" FunctionTypeZ21="bell" /&gt;</v>
       </c>
@@ -1978,7 +1983,8 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="H17" s="5" t="str">
+      <c r="F17" s="7"/>
+      <c r="H17" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="14" Shortname="KrnBhn_vrf" Duration="0" FunctionTypeCS2="KranBuehne_verfahren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2000,7 +2006,8 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="H18" s="5" t="str">
+      <c r="F18" s="7"/>
+      <c r="H18" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="15" Shortname="KrnBhn_hbn" Duration="0" FunctionTypeCS2="KranBuehne_heben_senken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2022,7 +2029,8 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="5" t="str">
+      <c r="F19" s="7"/>
+      <c r="H19" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="16" Shortname="KrnBhn_drh" Duration="0" FunctionTypeCS2="KranBuehne_drehen_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2044,7 +2052,8 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="H20" s="5" t="str">
+      <c r="F20" s="7"/>
+      <c r="H20" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="17" Shortname="KrnBhn_ngn" Duration="0" FunctionTypeCS2="KranBuehne_neigen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2066,10 +2075,10 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H21" s="5" t="str">
+      <c r="H21" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="18" Shortname="Anfhr_Brms" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_aus" FunctionTypeZ21="acc_delay" /&gt;</v>
       </c>
@@ -2091,10 +2100,10 @@
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="5" t="str">
+      <c r="H22" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="19" Shortname="Pumpe" Duration="0" FunctionTypeCS2="Pumpe" FunctionTypeZ21="feed_pump" /&gt;</v>
       </c>
@@ -2116,10 +2125,10 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="H23" s="5" t="str">
+      <c r="H23" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="20" Shortname="Brmsnqtsch" Duration="0" FunctionTypeCS2="Bremsenquietschen_aus" FunctionTypeZ21="sound_brake" /&gt;</v>
       </c>
@@ -2141,10 +2150,10 @@
       <c r="E24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="5" t="str">
+      <c r="H24" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="21" Shortname="Schltstfn" Duration="0" FunctionTypeCS2="Schaltstufen" FunctionTypeZ21="diesel_regulation_step_up" /&gt;</v>
       </c>
@@ -2166,10 +2175,10 @@
       <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="5" t="str">
+      <c r="H25" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="22" Shortname="Generator" Duration="0" FunctionTypeCS2="Generator" FunctionTypeZ21="generator" /&gt;</v>
       </c>
@@ -2191,10 +2200,10 @@
       <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="str">
+      <c r="H26" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="23" Shortname="Fhrgrsch" Duration="0" FunctionTypeCS2="Fahrgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -2216,7 +2225,8 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="5" t="str">
+      <c r="F27" s="7"/>
+      <c r="H27" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="24" Shortname="Mschn_vrsc" Duration="0" FunctionTypeCS2="Maschine_vorschmieren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2238,10 +2248,10 @@
       <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="5" t="str">
+      <c r="H28" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="25" Shortname="Bhnhfsnsg" Duration="0" FunctionTypeCS2="Bahnhofsansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -2263,10 +2273,10 @@
       <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H29" s="5" t="str">
+      <c r="H29" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="26" Shortname="Khln_schfl" Duration="0" FunctionTypeCS2="Kohlen_schaufeln" FunctionTypeZ21="scoop_coal" /&gt;</v>
       </c>
@@ -2288,7 +2298,8 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="H30" s="5" t="str">
+      <c r="F30" s="7"/>
+      <c r="H30" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="27" Shortname="Trn_schlss" Duration="0" FunctionTypeCS2="Tueren_schliessen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2310,10 +2321,10 @@
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H31" s="5" t="str">
+      <c r="H31" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="28" Shortname="Trn_schlss" Duration="0" FunctionTypeCS2="Tueren_schliessen_Geraeusch" FunctionTypeZ21="door_close" /&gt;</v>
       </c>
@@ -2335,10 +2346,10 @@
       <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="H32" s="5" t="str">
+      <c r="H32" s="8" t="str">
         <f>"&lt;mapping Id="""&amp;A32&amp;""" Shortname="""&amp;B32&amp;""" Duration="""&amp;C32&amp;""" FunctionTypeCS2="""&amp;E32&amp;""" FunctionTypeZ21="""&amp;F32&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="29" Shortname="Lftrgrsch" Duration="0" FunctionTypeCS2="Lueftergeraeusch" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
@@ -2360,7 +2371,8 @@
       <c r="E33" t="s">
         <v>40</v>
       </c>
-      <c r="H33" s="5" t="str">
+      <c r="F33" s="7"/>
+      <c r="H33" s="8" t="str">
         <f>"&lt;mapping Id="""&amp;A33&amp;""" Shortname="""&amp;B33&amp;""" Duration="""&amp;C33&amp;""" FunctionTypeCS2="""&amp;E33&amp;""" FunctionTypeZ21="""&amp;F33&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="30" Shortname="Luefter" Duration="0" FunctionTypeCS2="Luefter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2382,7 +2394,8 @@
       <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="H34" s="5" t="str">
+      <c r="F34" s="7"/>
+      <c r="H34" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="31" Shortname="Frbchsnblc" Duration="0" FunctionTypeCS2="Feuerbuechsenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2404,10 +2417,10 @@
       <c r="E35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H35" s="5" t="str">
+      <c r="H35" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="32" Shortname="Dcknblchtn" Duration="0" FunctionTypeCS2="Deckenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
@@ -2429,10 +2442,10 @@
       <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="5" t="str">
+      <c r="H36" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="33" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP4" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2454,10 +2467,10 @@
       <c r="E37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H37" s="5" t="str">
+      <c r="H37" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="34" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP3" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2479,10 +2492,10 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="H38" s="5" t="str">
+      <c r="H38" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="35" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP2" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2504,10 +2517,10 @@
       <c r="E39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="5" t="str">
+      <c r="H39" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="36" Shortname="Schttlrst" Duration="0" FunctionTypeCS2="Schuettelrost" FunctionTypeZ21="shaking_grates" /&gt;</v>
       </c>
@@ -2529,10 +2542,10 @@
       <c r="E40" t="s">
         <v>333</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="H40" s="5" t="str">
+      <c r="H40" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="37" Shortname="Schnnstss" Duration="0" FunctionTypeCS2="Schienenstoss" FunctionTypeZ21="rail_kick" /&gt;</v>
       </c>
@@ -2554,10 +2567,10 @@
       <c r="E41" t="s">
         <v>47</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="H41" s="5" t="str">
+      <c r="H41" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="38" Shortname="Nmmrnschld" Duration="0" FunctionTypeCS2="Nummernschildbeleuchtung" FunctionTypeZ21="licence_plate_light" /&gt;</v>
       </c>
@@ -2579,10 +2592,10 @@
       <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H42" s="5" t="str">
+      <c r="H42" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="39" Shortname="Hntrgrndms" Duration="0" FunctionTypeCS2="Hintergrundmusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
@@ -2604,10 +2617,10 @@
       <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="H43" s="5" t="str">
+      <c r="H43" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="40" Shortname="Zglfschldb" Duration="0" FunctionTypeCS2="Zuglaufschildbeleuchtung" FunctionTypeZ21="destination_plate_light" /&gt;</v>
       </c>
@@ -2629,10 +2642,10 @@
       <c r="E44" t="s">
         <v>50</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="5" t="str">
+      <c r="H44" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="41" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeCS2="Licht_an_Fuehrerstand_hinten_aus" FunctionTypeZ21="cockpit_light_right" /&gt;</v>
       </c>
@@ -2654,10 +2667,10 @@
       <c r="E45" t="s">
         <v>51</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F45" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H45" s="5" t="str">
+      <c r="H45" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="42" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeCS2="Licht_an_Fuehrerstand_vorne_aus" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
@@ -2679,10 +2692,10 @@
       <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F46" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="5" t="str">
+      <c r="H46" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="43" Shortname="Kpplng_An_" Duration="0" FunctionTypeCS2="Kupplung_An_Abkuppelgeraeusch" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -2704,10 +2717,10 @@
       <c r="E47" t="s">
         <v>53</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F47" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="5" t="str">
+      <c r="H47" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="44" Shortname="Pffrstss" Duration="0" FunctionTypeCS2="Pufferstoss" FunctionTypeZ21="puffer_kick" /&gt;</v>
       </c>
@@ -2729,10 +2742,10 @@
       <c r="E48" t="s">
         <v>54</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="5" t="str">
+      <c r="H48" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="45" Shortname="Sprchsgb" Duration="0" FunctionTypeCS2="Sprachausgabe" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -2754,7 +2767,8 @@
       <c r="E49" t="s">
         <v>55</v>
       </c>
-      <c r="H49" s="5" t="str">
+      <c r="F49" s="7"/>
+      <c r="H49" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="46" Shortname="Krn_Dpplhk" Duration="0" FunctionTypeCS2="Kran_Doppelhaken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2776,10 +2790,10 @@
       <c r="E50" t="s">
         <v>56</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F50" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H50" s="5" t="str">
+      <c r="H50" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="47" Shortname="Warnlicht" Duration="0" FunctionTypeCS2="Warnlicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
@@ -2801,10 +2815,10 @@
       <c r="E51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F51" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="H51" s="5" t="str">
+      <c r="H51" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="48" Shortname="Fhrrstndsb" Duration="0" FunctionTypeCS2="Fuehrerstandsbeleuchtung" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
@@ -2826,10 +2840,10 @@
       <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F52" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="H52" s="5" t="str">
+      <c r="H52" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="49" Shortname="Injektor" Duration="0" FunctionTypeCS2="Injektor" FunctionTypeZ21="injector" /&gt;</v>
       </c>
@@ -2851,10 +2865,10 @@
       <c r="E53" t="s">
         <v>59</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F53" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H53" s="5" t="str">
+      <c r="H53" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="50" Shortname="Funktion_0" Duration="0" FunctionTypeCS2="Funktion_0" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2876,10 +2890,10 @@
       <c r="E54" t="s">
         <v>60</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F54" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H54" s="5" t="str">
+      <c r="H54" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="51" Shortname="Funktion_1" Duration="0" FunctionTypeCS2="Funktion_1" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2901,10 +2915,10 @@
       <c r="E55" t="s">
         <v>61</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H55" s="5" t="str">
+      <c r="H55" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="52" Shortname="Funktion_2" Duration="0" FunctionTypeCS2="Funktion_2" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2926,10 +2940,10 @@
       <c r="E56" t="s">
         <v>62</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H56" s="5" t="str">
+      <c r="H56" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="53" Shortname="Funktion_3" Duration="0" FunctionTypeCS2="Funktion_3" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2951,10 +2965,10 @@
       <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H57" s="5" t="str">
+      <c r="H57" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="54" Shortname="Funktion_4" Duration="0" FunctionTypeCS2="Funktion_4" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2976,10 +2990,10 @@
       <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="5" t="str">
+      <c r="H58" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="55" Shortname="Funktion_5" Duration="0" FunctionTypeCS2="Funktion_5" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3001,10 +3015,10 @@
       <c r="E59" t="s">
         <v>65</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H59" s="5" t="str">
+      <c r="H59" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="56" Shortname="Funktion_6" Duration="0" FunctionTypeCS2="Funktion_6" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3026,10 +3040,10 @@
       <c r="E60" t="s">
         <v>66</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H60" s="5" t="str">
+      <c r="H60" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="57" Shortname="Funktion_7" Duration="0" FunctionTypeCS2="Funktion_7" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3051,10 +3065,10 @@
       <c r="E61" t="s">
         <v>67</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H61" s="5" t="str">
+      <c r="H61" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="58" Shortname="Funktion_8" Duration="0" FunctionTypeCS2="Funktion_8" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3076,10 +3090,10 @@
       <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H62" s="5" t="str">
+      <c r="H62" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="59" Shortname="Funktion_9" Duration="0" FunctionTypeCS2="Funktion_9" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3101,10 +3115,10 @@
       <c r="E63" t="s">
         <v>69</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H63" s="5" t="str">
+      <c r="H63" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="60" Shortname="Fnktn_10" Duration="0" FunctionTypeCS2="Funktion_10" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3126,10 +3140,10 @@
       <c r="E64" t="s">
         <v>70</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H64" s="5" t="str">
+      <c r="H64" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="61" Shortname="Fnktn_11" Duration="0" FunctionTypeCS2="Funktion_11" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3151,10 +3165,10 @@
       <c r="E65" t="s">
         <v>71</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H65" s="5" t="str">
+      <c r="H65" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="62" Shortname="Fnktn_12" Duration="0" FunctionTypeCS2="Funktion_12" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3176,10 +3190,10 @@
       <c r="E66" t="s">
         <v>72</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H66" s="5" t="str">
+      <c r="H66" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="63" Shortname="Fnktn_13" Duration="0" FunctionTypeCS2="Funktion_13" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3201,10 +3215,10 @@
       <c r="E67" t="s">
         <v>73</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H67" s="5" t="str">
+      <c r="H67" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="64" Shortname="Fnktn_14" Duration="0" FunctionTypeCS2="Funktion_14" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3226,10 +3240,10 @@
       <c r="E68" t="s">
         <v>74</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F68" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H68" s="5" t="str">
+      <c r="H68" s="8" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="65" Shortname="Fnktn_15" Duration="0" FunctionTypeCS2="Funktion_15" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3251,10 +3265,10 @@
       <c r="E69" t="s">
         <v>75</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F69" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H69" s="5" t="str">
+      <c r="H69" s="8" t="str">
         <f t="shared" ref="H69:H132" si="3">"&lt;mapping Id="""&amp;A69&amp;""" Shortname="""&amp;B69&amp;""" Duration="""&amp;C69&amp;""" FunctionTypeCS2="""&amp;E69&amp;""" FunctionTypeZ21="""&amp;F69&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="66" Shortname="Fnktn_16" Duration="0" FunctionTypeCS2="Funktion_16" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3276,10 +3290,10 @@
       <c r="E70" t="s">
         <v>76</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F70" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H70" s="5" t="str">
+      <c r="H70" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="67" Shortname="Fnktn_17" Duration="0" FunctionTypeCS2="Funktion_17" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3301,10 +3315,10 @@
       <c r="E71" t="s">
         <v>77</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F71" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H71" s="5" t="str">
+      <c r="H71" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="68" Shortname="Fnktn_18" Duration="0" FunctionTypeCS2="Funktion_18" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3326,10 +3340,10 @@
       <c r="E72" t="s">
         <v>78</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F72" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H72" s="5" t="str">
+      <c r="H72" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="69" Shortname="Fnktn_19" Duration="0" FunctionTypeCS2="Funktion_19" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3351,10 +3365,10 @@
       <c r="E73" t="s">
         <v>79</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F73" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="5" t="str">
+      <c r="H73" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="70" Shortname="Fnktn_20" Duration="0" FunctionTypeCS2="Funktion_20" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3376,10 +3390,10 @@
       <c r="E74" t="s">
         <v>80</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F74" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H74" s="5" t="str">
+      <c r="H74" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="71" Shortname="Fnktn_21" Duration="0" FunctionTypeCS2="Funktion_21" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3401,10 +3415,10 @@
       <c r="E75" t="s">
         <v>81</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F75" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H75" s="5" t="str">
+      <c r="H75" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="72" Shortname="Fnktn_22" Duration="0" FunctionTypeCS2="Funktion_22" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3426,10 +3440,10 @@
       <c r="E76" t="s">
         <v>82</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F76" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H76" s="5" t="str">
+      <c r="H76" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="73" Shortname="Fnktn_23" Duration="0" FunctionTypeCS2="Funktion_23" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3451,10 +3465,10 @@
       <c r="E77" t="s">
         <v>83</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F77" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H77" s="5" t="str">
+      <c r="H77" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="74" Shortname="Fnktn_24" Duration="0" FunctionTypeCS2="Funktion_24" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3476,10 +3490,10 @@
       <c r="E78" t="s">
         <v>84</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F78" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H78" s="5" t="str">
+      <c r="H78" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="75" Shortname="Fnktn_25" Duration="0" FunctionTypeCS2="Funktion_25" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3501,10 +3515,10 @@
       <c r="E79" t="s">
         <v>85</v>
       </c>
-      <c r="F79" t="s">
+      <c r="F79" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H79" s="5" t="str">
+      <c r="H79" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="76" Shortname="Fnktn_26" Duration="0" FunctionTypeCS2="Funktion_26" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3526,10 +3540,10 @@
       <c r="E80" t="s">
         <v>86</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F80" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H80" s="5" t="str">
+      <c r="H80" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="77" Shortname="Fnktn_27" Duration="0" FunctionTypeCS2="Funktion_27" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3551,10 +3565,10 @@
       <c r="E81" t="s">
         <v>87</v>
       </c>
-      <c r="F81" t="s">
+      <c r="F81" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H81" s="5" t="str">
+      <c r="H81" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="78" Shortname="Fnktn_28" Duration="0" FunctionTypeCS2="Funktion_28" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3576,10 +3590,10 @@
       <c r="E82" t="s">
         <v>88</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H82" s="5" t="str">
+      <c r="H82" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="79" Shortname="Fnktn_29" Duration="0" FunctionTypeCS2="Funktion_29" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3601,10 +3615,10 @@
       <c r="E83" t="s">
         <v>89</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F83" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H83" s="5" t="str">
+      <c r="H83" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="80" Shortname="Fnktn_30" Duration="0" FunctionTypeCS2="Funktion_30" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3626,10 +3640,10 @@
       <c r="E84" t="s">
         <v>90</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F84" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="H84" s="5" t="str">
+      <c r="H84" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="81" Shortname="Fnktn_31" Duration="0" FunctionTypeCS2="Funktion_31" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3651,10 +3665,10 @@
       <c r="E85" t="s">
         <v>91</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H85" s="5" t="str">
+      <c r="H85" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="82" Shortname="Tlxkpplng_" Duration="0" FunctionTypeCS2="Telexkupplung_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -3676,10 +3690,10 @@
       <c r="E86" t="s">
         <v>92</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F86" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H86" s="5" t="str">
+      <c r="H86" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="83" Shortname="Tlxkpplng_" Duration="0" FunctionTypeCS2="Telexkupplung_vorn" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -3701,10 +3715,10 @@
       <c r="E87" t="s">
         <v>93</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F87" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="H87" s="5" t="str">
+      <c r="H87" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="84" Shortname="Pntgrph_hn" Duration="0" FunctionTypeCS2="Pantograph_hinten" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
@@ -3726,10 +3740,10 @@
       <c r="E88" t="s">
         <v>94</v>
       </c>
-      <c r="F88" t="s">
+      <c r="F88" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="H88" s="5" t="str">
+      <c r="H88" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="85" Shortname="Pntgrph_vr" Duration="0" FunctionTypeCS2="Pantograph_vorne" FunctionTypeZ21="forward_take_power" /&gt;</v>
       </c>
@@ -3751,10 +3765,10 @@
       <c r="E89" t="s">
         <v>95</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F89" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H89" s="5" t="str">
+      <c r="H89" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="86" Shortname="Frnlcht_hn" Duration="0" FunctionTypeCS2="Fernlicht_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -3776,10 +3790,10 @@
       <c r="E90" t="s">
         <v>96</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F90" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H90" s="5" t="str">
+      <c r="H90" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="87" Shortname="Frnlcht_vr" Duration="0" FunctionTypeCS2="Fernlicht_vorn" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -3801,7 +3815,8 @@
       <c r="E91" t="s">
         <v>97</v>
       </c>
-      <c r="H91" s="5" t="str">
+      <c r="F91" s="7"/>
+      <c r="H91" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="88" Shortname="Shift" Duration="0" FunctionTypeCS2="Shift" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3823,7 +3838,8 @@
       <c r="E92" t="s">
         <v>98</v>
       </c>
-      <c r="H92" s="5" t="str">
+      <c r="F92" s="7"/>
+      <c r="H92" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="89" Shortname="Vkmpmp" Duration="0" FunctionTypeCS2="Vakuumpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3845,7 +3861,8 @@
       <c r="E93" t="s">
         <v>99</v>
       </c>
-      <c r="H93" s="5" t="str">
+      <c r="F93" s="7"/>
+      <c r="H93" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="90" Shortname="Trbwrksblc" Duration="0" FunctionTypeCS2="Triebwerksbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3867,10 +3884,10 @@
       <c r="E94" t="s">
         <v>100</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H94" s="5" t="str">
+      <c r="H94" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="91" Shortname="Zylndr_sbl" Duration="0" FunctionTypeCS2="Zylinder_ausblasen_Dampf_ablassen" FunctionTypeZ21="dump_steam" /&gt;</v>
       </c>
@@ -3892,7 +3909,8 @@
       <c r="E95" t="s">
         <v>101</v>
       </c>
-      <c r="H95" s="5" t="str">
+      <c r="F95" s="7"/>
+      <c r="H95" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="92" Shortname="Drcklft_bl" Duration="0" FunctionTypeCS2="Druckluft_ablassen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3914,7 +3932,8 @@
       <c r="E96" t="s">
         <v>102</v>
       </c>
-      <c r="H96" s="5" t="str">
+      <c r="F96" s="7"/>
+      <c r="H96" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="93" Shortname="Kran" Duration="0" FunctionTypeCS2="Kran" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3936,7 +3955,8 @@
       <c r="E97" t="s">
         <v>103</v>
       </c>
-      <c r="H97" s="5" t="str">
+      <c r="F97" s="7"/>
+      <c r="H97" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="94" Shortname="KrnBhn_f" Duration="0" FunctionTypeCS2="KranBuehne_auf" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3958,7 +3978,8 @@
       <c r="E98" t="s">
         <v>104</v>
       </c>
-      <c r="H98" s="5" t="str">
+      <c r="F98" s="7"/>
+      <c r="H98" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="95" Shortname="KrnBhn_b" Duration="0" FunctionTypeCS2="KranBuehne_ab" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3980,7 +4001,8 @@
       <c r="E99" t="s">
         <v>105</v>
       </c>
-      <c r="H99" s="5" t="str">
+      <c r="F99" s="7"/>
+      <c r="H99" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="96" Shortname="KrnBhn_lnk" Duration="0" FunctionTypeCS2="KranBuehne_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4002,7 +4024,8 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="5" t="str">
+      <c r="F100" s="7"/>
+      <c r="H100" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="97" Shortname="KrnBhn_rch" Duration="0" FunctionTypeCS2="KranBuehne_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4024,7 +4047,8 @@
       <c r="E101" t="s">
         <v>107</v>
       </c>
-      <c r="H101" s="5" t="str">
+      <c r="F101" s="7"/>
+      <c r="H101" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="98" Shortname="KrnBhn_drh" Duration="0" FunctionTypeCS2="KranBuehne_drehen_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4046,7 +4070,8 @@
       <c r="E102" t="s">
         <v>108</v>
       </c>
-      <c r="H102" s="5" t="str">
+      <c r="F102" s="7"/>
+      <c r="H102" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="99" Shortname="Krn_Mgnt" Duration="0" FunctionTypeCS2="Kran_Magnet" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4068,7 +4093,8 @@
       <c r="E103" t="s">
         <v>109</v>
       </c>
-      <c r="H103" s="5" t="str">
+      <c r="F103" s="7"/>
+      <c r="H103" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="100" Shortname="Fhrtfrgb" Duration="0" FunctionTypeCS2="Fahrtfreigabe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4090,7 +4116,8 @@
       <c r="E104" t="s">
         <v>110</v>
       </c>
-      <c r="H104" s="5" t="str">
+      <c r="F104" s="7"/>
+      <c r="H104" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="101" Shortname="Pntgrph_Af" Duration="0" FunctionTypeCS2="Pantograph_Auf_Abbuegelgeraeusch" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4112,7 +4139,8 @@
       <c r="E105" t="s">
         <v>111</v>
       </c>
-      <c r="H105" s="5" t="str">
+      <c r="F105" s="7"/>
+      <c r="H105" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="102" Shortname="Anfhr_Brms" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_ein" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4134,10 +4162,10 @@
       <c r="E106" t="s">
         <v>112</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F106" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="H106" s="5" t="str">
+      <c r="H106" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="103" Shortname="Fnkgsprch" Duration="0" FunctionTypeCS2="Funkgespraech" FunctionTypeZ21="hump_funk" /&gt;</v>
       </c>
@@ -4159,10 +4187,10 @@
       <c r="E107" t="s">
         <v>113</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F107" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H107" s="5" t="str">
+      <c r="H107" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="104" Shortname="Abfhrtsdrc" Duration="0" FunctionTypeCS2="Abfahrtsdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -4184,7 +4212,8 @@
       <c r="E108" t="s">
         <v>114</v>
       </c>
-      <c r="H108" s="5" t="str">
+      <c r="F108" s="7"/>
+      <c r="H108" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="105" Shortname="Assnblchtn" Duration="0" FunctionTypeCS2="Aussenbeleuchtung_Frontlicht" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4206,10 +4235,10 @@
       <c r="E109" t="s">
         <v>115</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F109" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="H109" s="5" t="str">
+      <c r="H109" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="106" Shortname="Luftpumpe" Duration="0" FunctionTypeCS2="Luftpumpe" FunctionTypeZ21="air_pump" /&gt;</v>
       </c>
@@ -4231,7 +4260,8 @@
       <c r="E110" t="s">
         <v>116</v>
       </c>
-      <c r="H110" s="5" t="str">
+      <c r="F110" s="7"/>
+      <c r="H110" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="107" Shortname="Untrhltng_" Duration="0" FunctionTypeCS2="Unterhaltung_Allgemein" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4253,10 +4283,10 @@
       <c r="E111" t="s">
         <v>117</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F111" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="H111" s="5" t="str">
+      <c r="H111" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="108" Shortname="Sanden" Duration="0" FunctionTypeCS2="Sanden" FunctionTypeZ21="sanden" /&gt;</v>
       </c>
@@ -4278,10 +4308,10 @@
       <c r="E112" t="s">
         <v>118</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F112" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="H112" s="5" t="str">
+      <c r="H112" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="109" Shortname="Mute_Fade" Duration="0" FunctionTypeCS2="Mute_Fade" FunctionTypeZ21="mute" /&gt;</v>
       </c>
@@ -4303,7 +4333,8 @@
       <c r="E113" t="s">
         <v>119</v>
       </c>
-      <c r="H113" s="5" t="str">
+      <c r="F113" s="7"/>
+      <c r="H113" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="110" Shortname="Trttstfnbl" Duration="0" FunctionTypeCS2="Trittstufenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4325,7 +4356,8 @@
       <c r="E114" t="s">
         <v>120</v>
       </c>
-      <c r="H114" s="5" t="str">
+      <c r="F114" s="7"/>
+      <c r="H114" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="111" Shortname="Spswssrpmp" Duration="0" FunctionTypeCS2="Speisewasserpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4347,7 +4379,8 @@
       <c r="E115" t="s">
         <v>121</v>
       </c>
-      <c r="H115" s="5" t="str">
+      <c r="F115" s="7"/>
+      <c r="H115" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="112" Shortname="Brmsnqtsch" Duration="0" FunctionTypeCS2="Bremsenquietschen_ein" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4369,7 +4402,8 @@
       <c r="E116" t="s">
         <v>122</v>
       </c>
-      <c r="H116" s="5" t="str">
+      <c r="F116" s="7"/>
+      <c r="H116" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="113" Shortname="Oelpumpe" Duration="0" FunctionTypeCS2="Oelpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4391,7 +4425,8 @@
       <c r="E117" t="s">
         <v>123</v>
       </c>
-      <c r="H117" s="5" t="str">
+      <c r="F117" s="7"/>
+      <c r="H117" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="114" Shortname="Schmrpmp" Duration="0" FunctionTypeCS2="Schmierpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4413,7 +4448,8 @@
       <c r="E118" t="s">
         <v>124</v>
       </c>
-      <c r="H118" s="5" t="str">
+      <c r="F118" s="7"/>
+      <c r="H118" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="115" Shortname="Dslpmp" Duration="0" FunctionTypeCS2="Dieselpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4435,10 +4471,10 @@
       <c r="E119" t="s">
         <v>125</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F119" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H119" s="5" t="str">
+      <c r="H119" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="116" Shortname="Kompressor" Duration="0" FunctionTypeCS2="Kompressor" FunctionTypeZ21="compressor" /&gt;</v>
       </c>
@@ -4460,7 +4496,8 @@
       <c r="E120" t="s">
         <v>126</v>
       </c>
-      <c r="H120" s="5" t="str">
+      <c r="F120" s="7"/>
+      <c r="H120" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="117" Shortname="Knslnblcht" Duration="0" FunctionTypeCS2="Konsolenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4482,10 +4519,10 @@
       <c r="E121" t="s">
         <v>127</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F121" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="H121" s="5" t="str">
+      <c r="H121" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="118" Shortname="Rngrblchtn" Duration="0" FunctionTypeCS2="Rangierbeleuchtung" FunctionTypeZ21="sidelights" /&gt;</v>
       </c>
@@ -4507,7 +4544,8 @@
       <c r="E122" t="s">
         <v>128</v>
       </c>
-      <c r="H122" s="5" t="str">
+      <c r="F122" s="7"/>
+      <c r="H122" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="119" Shortname="Prtyblchtn" Duration="0" FunctionTypeCS2="Partybeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4529,7 +4567,8 @@
       <c r="E123" t="s">
         <v>129</v>
       </c>
-      <c r="H123" s="5" t="str">
+      <c r="F123" s="7"/>
+      <c r="H123" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="120" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeCS2="Wartende_Passagiere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4551,10 +4590,10 @@
       <c r="E124" t="s">
         <v>130</v>
       </c>
-      <c r="F124" t="s">
+      <c r="F124" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H124" s="5" t="str">
+      <c r="H124" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="121" Shortname="Anknft_Zln" Duration="0" FunctionTypeCS2="Ankunft_Zielansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -4576,10 +4615,10 @@
       <c r="E125" t="s">
         <v>131</v>
       </c>
-      <c r="F125" t="s">
+      <c r="F125" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="5" t="str">
+      <c r="H125" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="122" Shortname="Zgnsg_Schf" Duration="0" FunctionTypeCS2="Zugansage_Schaffener" FunctionTypeZ21="sound3" /&gt;</v>
       </c>
@@ -4601,7 +4640,8 @@
       <c r="E126" t="s">
         <v>132</v>
       </c>
-      <c r="H126" s="5" t="str">
+      <c r="F126" s="7"/>
+      <c r="H126" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="123" Shortname="Schrhtsvnt" Duration="0" FunctionTypeCS2="Sicherheitsventil" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4623,7 +4663,8 @@
       <c r="E127" t="s">
         <v>133</v>
       </c>
-      <c r="H127" s="5" t="str">
+      <c r="F127" s="7"/>
+      <c r="H127" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="124" Shortname="Ksslhzng" Duration="0" FunctionTypeCS2="Kesselheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4645,7 +4686,8 @@
       <c r="E128" t="s">
         <v>134</v>
       </c>
-      <c r="H128" s="5" t="str">
+      <c r="F128" s="7"/>
+      <c r="H128" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="125" Shortname="Hlfsggrgt_" Duration="0" FunctionTypeCS2="Hilfsaggregat_Hilfsdiesel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4667,10 +4709,10 @@
       <c r="E129" t="s">
         <v>135</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F129" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="5" t="str">
+      <c r="H129" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="126" Shortname="Mschnnrmbl" Duration="0" FunctionTypeCS2="Maschinenraumbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
       </c>
@@ -4692,10 +4734,10 @@
       <c r="E130" t="s">
         <v>136</v>
       </c>
-      <c r="F130" t="s">
+      <c r="F130" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="H130" s="5" t="str">
+      <c r="H130" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="127" Shortname="Partymusik" Duration="0" FunctionTypeCS2="Partymusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
@@ -4717,10 +4759,10 @@
       <c r="E131" t="s">
         <v>137</v>
       </c>
-      <c r="F131" t="s">
+      <c r="F131" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="H131" s="5" t="str">
+      <c r="H131" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="128" Shortname="Krvngrsch" Duration="0" FunctionTypeCS2="Kurvengeraeusch" FunctionTypeZ21="curve_sound" /&gt;</v>
       </c>
@@ -4742,7 +4784,8 @@
       <c r="E132" t="s">
         <v>138</v>
       </c>
-      <c r="H132" s="5" t="str">
+      <c r="F132" s="7"/>
+      <c r="H132" s="8" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="129" Shortname="Blinker" Duration="0" FunctionTypeCS2="Blinker" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4764,10 +4807,10 @@
       <c r="E133" t="s">
         <v>139</v>
       </c>
-      <c r="F133" t="s">
+      <c r="F133" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="H133" s="5" t="str">
+      <c r="H133" s="8" t="str">
         <f t="shared" ref="H133:H196" si="5">"&lt;mapping Id="""&amp;A133&amp;""" Shortname="""&amp;B133&amp;""" Duration="""&amp;C133&amp;""" FunctionTypeCS2="""&amp;E133&amp;""" FunctionTypeZ21="""&amp;F133&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="130" Shortname="Ablssvntl" Duration="0" FunctionTypeCS2="Ablassventil" FunctionTypeZ21="drain_valve" /&gt;</v>
       </c>
@@ -4789,7 +4832,8 @@
       <c r="E134" t="s">
         <v>140</v>
       </c>
-      <c r="H134" s="5" t="str">
+      <c r="F134" s="7"/>
+      <c r="H134" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="131" Shortname="Wrnmldngn" Duration="0" FunctionTypeCS2="Warnmeldungen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4811,7 +4855,8 @@
       <c r="E135" t="s">
         <v>141</v>
       </c>
-      <c r="H135" s="5" t="str">
+      <c r="F135" s="7"/>
+      <c r="H135" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="132" Shortname="Fhrrstndsg" Duration="0" FunctionTypeCS2="Fuehrerstandsgespraech" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4833,7 +4878,8 @@
       <c r="E136" t="s">
         <v>142</v>
       </c>
-      <c r="H136" s="5" t="str">
+      <c r="F136" s="7"/>
+      <c r="H136" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="133" Shortname="Infrmtnsdr" Duration="0" FunctionTypeCS2="Informationsdurchsage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4855,7 +4901,8 @@
       <c r="E137" t="s">
         <v>143</v>
       </c>
-      <c r="H137" s="5" t="str">
+      <c r="F137" s="7"/>
+      <c r="H137" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="134" Shortname="Snstg_Pmp" Duration="0" FunctionTypeCS2="Sonstige_Pumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4877,7 +4924,8 @@
       <c r="E138" t="s">
         <v>144</v>
       </c>
-      <c r="H138" s="5" t="str">
+      <c r="F138" s="7"/>
+      <c r="H138" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="135" Shortname="Kmbntn_sch" Duration="0" FunctionTypeCS2="Kombination_schaufeln_Feuerbuechse" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4899,7 +4947,8 @@
       <c r="E139" t="s">
         <v>145</v>
       </c>
-      <c r="H139" s="5" t="str">
+      <c r="F139" s="7"/>
+      <c r="H139" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="136" Shortname="Bwglchr_Sc" Duration="0" FunctionTypeCS2="Beweglicher_Schaffner" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4921,7 +4970,8 @@
       <c r="E140" t="s">
         <v>146</v>
       </c>
-      <c r="H140" s="5" t="str">
+      <c r="F140" s="7"/>
+      <c r="H140" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="137" Shortname="Fnstr_f_z" Duration="0" FunctionTypeCS2="Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4943,7 +4993,8 @@
       <c r="E141" t="s">
         <v>147</v>
       </c>
-      <c r="H141" s="5" t="str">
+      <c r="F141" s="7"/>
+      <c r="H141" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="138" Shortname="Grsch_Fnst" Duration="0" FunctionTypeCS2="Geraeusch_Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4965,7 +5016,8 @@
       <c r="E142" t="s">
         <v>148</v>
       </c>
-      <c r="H142" s="5" t="str">
+      <c r="F142" s="7"/>
+      <c r="H142" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="139" Shortname="Drchsg_Trn" Duration="0" FunctionTypeCS2="Durchsage_Tueren_schlissen_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4987,7 +5039,8 @@
       <c r="E143" t="s">
         <v>149</v>
       </c>
-      <c r="H143" s="5" t="str">
+      <c r="F143" s="7"/>
+      <c r="H143" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="140" Shortname="Ambnt_Stdt" Duration="0" FunctionTypeCS2="Ambiente_Stadt" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5009,7 +5062,8 @@
       <c r="E144" t="s">
         <v>150</v>
       </c>
-      <c r="H144" s="5" t="str">
+      <c r="F144" s="7"/>
+      <c r="H144" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="141" Shortname="Ambnt_Tnnl" Duration="0" FunctionTypeCS2="Ambiente_Tunnel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5031,7 +5085,8 @@
       <c r="E145" t="s">
         <v>151</v>
       </c>
-      <c r="H145" s="5" t="str">
+      <c r="F145" s="7"/>
+      <c r="H145" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="142" Shortname="Ambnt_Sthl" Duration="0" FunctionTypeCS2="Ambiente_Stahlbruecke" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5053,7 +5108,8 @@
       <c r="E146" t="s">
         <v>152</v>
       </c>
-      <c r="H146" s="5" t="str">
+      <c r="F146" s="7"/>
+      <c r="H146" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="143" Shortname="Ambnt_Btnb" Duration="0" FunctionTypeCS2="Ambiente_Betonbruecke" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5075,7 +5131,8 @@
       <c r="E147" t="s">
         <v>153</v>
       </c>
-      <c r="H147" s="5" t="str">
+      <c r="F147" s="7"/>
+      <c r="H147" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="144" Shortname="Grsch_Klpp" Duration="0" FunctionTypeCS2="Geraeusch_Klapptuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5097,7 +5154,8 @@
       <c r="E148" t="s">
         <v>154</v>
       </c>
-      <c r="H148" s="5" t="str">
+      <c r="F148" s="7"/>
+      <c r="H148" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="145" Shortname="Grsch_Tr" Duration="0" FunctionTypeCS2="Geraeusch_Tuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5119,7 +5177,8 @@
       <c r="E149" t="s">
         <v>155</v>
       </c>
-      <c r="H149" s="5" t="str">
+      <c r="F149" s="7"/>
+      <c r="H149" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="146" Shortname="Grsch_Fllt" Duration="0" FunctionTypeCS2="Geraeusch_Falltuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5141,7 +5200,8 @@
       <c r="E150" t="s">
         <v>156</v>
       </c>
-      <c r="H150" s="5" t="str">
+      <c r="F150" s="7"/>
+      <c r="H150" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="147" Shortname="Glck_krz" Duration="0" FunctionTypeCS2="Glocke_kurz" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5163,7 +5223,8 @@
       <c r="E151" t="s">
         <v>157</v>
       </c>
-      <c r="H151" s="5" t="str">
+      <c r="F151" s="7"/>
+      <c r="H151" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="148" Shortname="Grsch_Rllt" Duration="0" FunctionTypeCS2="Geraeusch_Rolltor" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5185,7 +5246,8 @@
       <c r="E152" t="s">
         <v>158</v>
       </c>
-      <c r="H152" s="5" t="str">
+      <c r="F152" s="7"/>
+      <c r="H152" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="149" Shortname="Grsch_Schb" Duration="0" FunctionTypeCS2="Geraeusch_Schiebetuer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5207,7 +5269,8 @@
       <c r="E153" t="s">
         <v>159</v>
       </c>
-      <c r="H153" s="5" t="str">
+      <c r="F153" s="7"/>
+      <c r="H153" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="150" Shortname="Dampfstoss" Duration="0" FunctionTypeCS2="Dampfstoss" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5229,7 +5292,8 @@
       <c r="E154" t="s">
         <v>160</v>
       </c>
-      <c r="H154" s="5" t="str">
+      <c r="F154" s="7"/>
+      <c r="H154" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="151" Shortname="Dslhzng" Duration="0" FunctionTypeCS2="Dieselheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5251,7 +5315,8 @@
       <c r="E155" t="s">
         <v>161</v>
       </c>
-      <c r="H155" s="5" t="str">
+      <c r="F155" s="7"/>
+      <c r="H155" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="152" Shortname="Zugheizung" Duration="0" FunctionTypeCS2="Zugheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5273,7 +5338,8 @@
       <c r="E156" t="s">
         <v>162</v>
       </c>
-      <c r="H156" s="5" t="str">
+      <c r="F156" s="7"/>
+      <c r="H156" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="153" Shortname="Segeln" Duration="0" FunctionTypeCS2="Segeln" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5295,10 +5361,10 @@
       <c r="E157" t="s">
         <v>163</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F157" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="H157" s="5" t="str">
+      <c r="H157" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="154" Shortname="Zg_Infnsg" Duration="0" FunctionTypeCS2="Zug_Infoansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -5320,7 +5386,8 @@
       <c r="E158" t="s">
         <v>164</v>
       </c>
-      <c r="H158" s="5" t="str">
+      <c r="F158" s="7"/>
+      <c r="H158" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="155" Shortname="Sndrnsg" Duration="0" FunctionTypeCS2="Sonderansage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5342,7 +5409,8 @@
       <c r="E159" t="s">
         <v>165</v>
       </c>
-      <c r="H159" s="5" t="str">
+      <c r="F159" s="7"/>
+      <c r="H159" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="156" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeCS2="Wartende_Passagiere_am_Bahnhof" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5364,7 +5432,8 @@
       <c r="E160" t="s">
         <v>166</v>
       </c>
-      <c r="H160" s="5" t="str">
+      <c r="F160" s="7"/>
+      <c r="H160" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="157" Shortname="Bocksprung" Duration="0" FunctionTypeCS2="Bocksprung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5386,7 +5455,8 @@
       <c r="E161" t="s">
         <v>167</v>
       </c>
-      <c r="H161" s="5" t="str">
+      <c r="F161" s="7"/>
+      <c r="H161" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="158" Shortname="Drchsg_Trn" Duration="0" FunctionTypeCS2="Durchsage_Tueren_schlissen_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5408,7 +5478,8 @@
       <c r="E162" t="s">
         <v>168</v>
       </c>
-      <c r="H162" s="5" t="str">
+      <c r="F162" s="7"/>
+      <c r="H162" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="159" Shortname="Zuggattung" Duration="0" FunctionTypeCS2="Zuggattung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5430,7 +5501,8 @@
       <c r="E163" t="s">
         <v>169</v>
       </c>
-      <c r="H163" s="5" t="str">
+      <c r="F163" s="7"/>
+      <c r="H163" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="160" Shortname="Zgdrchsg" Duration="0" FunctionTypeCS2="Zugdurchsage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5452,10 +5524,10 @@
       <c r="E164" t="s">
         <v>170</v>
       </c>
-      <c r="F164" t="s">
+      <c r="F164" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H164" s="5" t="str">
+      <c r="H164" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="161" Shortname="Wrnblnklch" Duration="0" FunctionTypeCS2="Warnblinklicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
@@ -5477,7 +5549,8 @@
       <c r="E165" t="s">
         <v>171</v>
       </c>
-      <c r="H165" s="5" t="str">
+      <c r="F165" s="7"/>
+      <c r="H165" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="162" Shortname="Play" Duration="0" FunctionTypeCS2="Play" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5499,7 +5572,8 @@
       <c r="E166" t="s">
         <v>172</v>
       </c>
-      <c r="H166" s="5" t="str">
+      <c r="F166" s="7"/>
+      <c r="H166" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="163" Shortname="Pause" Duration="0" FunctionTypeCS2="Pause" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5521,7 +5595,8 @@
       <c r="E167" t="s">
         <v>173</v>
       </c>
-      <c r="H167" s="5" t="str">
+      <c r="F167" s="7"/>
+      <c r="H167" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="164" Shortname="Vor" Duration="0" FunctionTypeCS2="Vor" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5543,7 +5618,8 @@
       <c r="E168" t="s">
         <v>174</v>
       </c>
-      <c r="H168" s="5" t="str">
+      <c r="F168" s="7"/>
+      <c r="H168" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="165" Shortname="Zurueck" Duration="0" FunctionTypeCS2="Zurueck" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5565,10 +5641,10 @@
       <c r="E169" t="s">
         <v>175</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F169" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="H169" s="5" t="str">
+      <c r="H169" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="166" Shortname="Laut" Duration="0" FunctionTypeCS2="Laut" FunctionTypeZ21="louder" /&gt;</v>
       </c>
@@ -5590,10 +5666,10 @@
       <c r="E170" t="s">
         <v>176</v>
       </c>
-      <c r="F170" t="s">
+      <c r="F170" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="H170" s="5" t="str">
+      <c r="H170" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="167" Shortname="Leise" Duration="0" FunctionTypeCS2="Leise" FunctionTypeZ21="quieter" /&gt;</v>
       </c>
@@ -5615,7 +5691,8 @@
       <c r="E171" t="s">
         <v>177</v>
       </c>
-      <c r="H171" s="5" t="str">
+      <c r="F171" s="7"/>
+      <c r="H171" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="168" Shortname="Lcht_Abtl" Duration="0" FunctionTypeCS2="Licht_Abteile" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5637,7 +5714,8 @@
       <c r="E172" t="s">
         <v>178</v>
       </c>
-      <c r="H172" s="5" t="str">
+      <c r="F172" s="7"/>
+      <c r="H172" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="169" Shortname="Licht_Gang" Duration="0" FunctionTypeCS2="Licht_Gang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5659,7 +5737,8 @@
       <c r="E173" t="s">
         <v>179</v>
       </c>
-      <c r="H173" s="5" t="str">
+      <c r="F173" s="7"/>
+      <c r="H173" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="170" Shortname="Lcht_Kch" Duration="0" FunctionTypeCS2="Licht_Kueche" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5681,7 +5760,8 @@
       <c r="E174" t="s">
         <v>180</v>
       </c>
-      <c r="H174" s="5" t="str">
+      <c r="F174" s="7"/>
+      <c r="H174" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="171" Shortname="Lcht_Gpck" Duration="0" FunctionTypeCS2="Licht_Gepaeck" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5703,7 +5783,8 @@
       <c r="E175" t="s">
         <v>181</v>
       </c>
-      <c r="H175" s="5" t="str">
+      <c r="F175" s="7"/>
+      <c r="H175" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="172" Shortname="Licht_Bar" Duration="0" FunctionTypeCS2="Licht_Bar" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5725,7 +5806,8 @@
       <c r="E176" t="s">
         <v>182</v>
       </c>
-      <c r="H176" s="5" t="str">
+      <c r="F176" s="7"/>
+      <c r="H176" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="173" Shortname="Tanken" Duration="0" FunctionTypeCS2="Tanken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5747,7 +5829,8 @@
       <c r="E177" t="s">
         <v>183</v>
       </c>
-      <c r="H177" s="5" t="str">
+      <c r="F177" s="7"/>
+      <c r="H177" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="174" Shortname="Wasser" Duration="0" FunctionTypeCS2="Wasser" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5769,7 +5852,8 @@
       <c r="E178" t="s">
         <v>184</v>
       </c>
-      <c r="H178" s="5" t="str">
+      <c r="F178" s="7"/>
+      <c r="H178" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="175" Shortname="Diesel" Duration="0" FunctionTypeCS2="Diesel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5791,7 +5875,8 @@
       <c r="E179" t="s">
         <v>185</v>
       </c>
-      <c r="H179" s="5" t="str">
+      <c r="F179" s="7"/>
+      <c r="H179" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="176" Shortname="Kohle" Duration="0" FunctionTypeCS2="Kohle" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5813,7 +5898,8 @@
       <c r="E180" t="s">
         <v>186</v>
       </c>
-      <c r="H180" s="5" t="str">
+      <c r="F180" s="7"/>
+      <c r="H180" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="177" Shortname="Khlstb_2" Duration="0" FunctionTypeCS2="Kohlestaub_2" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5835,7 +5921,8 @@
       <c r="E181" t="s">
         <v>187</v>
       </c>
-      <c r="H181" s="5" t="str">
+      <c r="F181" s="7"/>
+      <c r="H181" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="178" Shortname="Oel" Duration="0" FunctionTypeCS2="Oel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5857,7 +5944,8 @@
       <c r="E182" t="s">
         <v>188</v>
       </c>
-      <c r="H182" s="5" t="str">
+      <c r="F182" s="7"/>
+      <c r="H182" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="179" Shortname="Sand" Duration="0" FunctionTypeCS2="Sand" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5879,10 +5967,10 @@
       <c r="E183" t="s">
         <v>189</v>
       </c>
-      <c r="F183" t="s">
+      <c r="F183" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="H183" s="5" t="str">
+      <c r="H183" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="180" Shortname="Schwzr_Lch" Duration="0" FunctionTypeCS2="Schweizer_Lichtwechsel" FunctionTypeZ21="coach_side_light_off" /&gt;</v>
       </c>
@@ -5904,7 +5992,8 @@
       <c r="E184" t="s">
         <v>190</v>
       </c>
-      <c r="H184" s="5" t="str">
+      <c r="F184" s="7"/>
+      <c r="H184" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="181" Shortname="Ansg_Pfff_" Duration="0" FunctionTypeCS2="Ansage_Pfiff_mit_Tuerschliessen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5926,7 +6015,8 @@
       <c r="E185" t="s">
         <v>191</v>
       </c>
-      <c r="H185" s="5" t="str">
+      <c r="F185" s="7"/>
+      <c r="H185" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="182" Shortname="Zufall_Aus" Duration="0" FunctionTypeCS2="Zufall_Aus" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5948,7 +6038,8 @@
       <c r="E186" t="s">
         <v>192</v>
       </c>
-      <c r="H186" s="5" t="str">
+      <c r="F186" s="7"/>
+      <c r="H186" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="183" Shortname="Sifataster" Duration="0" FunctionTypeCS2="Sifataster" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5970,7 +6061,8 @@
       <c r="E187" t="s">
         <v>193</v>
       </c>
-      <c r="H187" s="5" t="str">
+      <c r="F187" s="7"/>
+      <c r="H187" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="184" Shortname="Not_Aus" Duration="0" FunctionTypeCS2="Not_Aus" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5992,7 +6084,8 @@
       <c r="E188" t="s">
         <v>194</v>
       </c>
-      <c r="H188" s="5" t="str">
+      <c r="F188" s="7"/>
+      <c r="H188" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="185" Shortname="Schalter" Duration="0" FunctionTypeCS2="Schalter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6014,7 +6107,8 @@
       <c r="E189" t="s">
         <v>195</v>
       </c>
-      <c r="H189" s="5" t="str">
+      <c r="F189" s="7"/>
+      <c r="H189" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="186" Shortname="Kppschltr" Duration="0" FunctionTypeCS2="Kippschlater" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6036,7 +6130,8 @@
       <c r="E190" t="s">
         <v>196</v>
       </c>
-      <c r="H190" s="5" t="str">
+      <c r="F190" s="7"/>
+      <c r="H190" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="187" Shortname="Drhschltr" Duration="0" FunctionTypeCS2="Drehschalter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6058,7 +6153,8 @@
       <c r="E191" t="s">
         <v>197</v>
       </c>
-      <c r="H191" s="5" t="str">
+      <c r="F191" s="7"/>
+      <c r="H191" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="188" Shortname="Not_Halt" Duration="0" FunctionTypeCS2="Not_Halt" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6080,7 +6176,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="H192" s="5" t="str">
+      <c r="F192" s="7"/>
+      <c r="H192" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="189" Shortname="Snd_Zhnrd" Duration="0" FunctionTypeCS2="Sound_Zahnrad" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6102,7 +6199,8 @@
       <c r="E193" t="s">
         <v>199</v>
       </c>
-      <c r="H193" s="5" t="str">
+      <c r="F193" s="7"/>
+      <c r="H193" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="190" Shortname="Klckrn_Tch" Duration="0" FunctionTypeCS2="Klackern_Tacho" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6124,7 +6222,8 @@
       <c r="E194" t="s">
         <v>200</v>
       </c>
-      <c r="H194" s="5" t="str">
+      <c r="F194" s="7"/>
+      <c r="H194" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="191" Shortname="Snd_Wschr" Duration="0" FunctionTypeCS2="Sound_Wischer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6146,7 +6245,8 @@
       <c r="E195" t="s">
         <v>201</v>
       </c>
-      <c r="H195" s="5" t="str">
+      <c r="F195" s="7"/>
+      <c r="H195" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="192" Shortname="Zhnrd_Antr" Duration="0" FunctionTypeCS2="Zahnrad_Antrieb" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6168,7 +6268,8 @@
       <c r="E196" t="s">
         <v>202</v>
       </c>
-      <c r="H196" s="5" t="str">
+      <c r="F196" s="7"/>
+      <c r="H196" s="8" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="193" Shortname="Wischer" Duration="0" FunctionTypeCS2="Wischer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6190,7 +6291,8 @@
       <c r="E197" t="s">
         <v>203</v>
       </c>
-      <c r="H197" s="5" t="str">
+      <c r="F197" s="7"/>
+      <c r="H197" s="8" t="str">
         <f t="shared" ref="H197:H234" si="7">"&lt;mapping Id="""&amp;A197&amp;""" Shortname="""&amp;B197&amp;""" Duration="""&amp;C197&amp;""" FunctionTypeCS2="""&amp;E197&amp;""" FunctionTypeZ21="""&amp;F197&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="194" Shortname="Abschlmmn_" Duration="0" FunctionTypeCS2="Abschlammen_Schlaemmen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6212,7 +6314,8 @@
       <c r="E198" t="s">
         <v>204</v>
       </c>
-      <c r="H198" s="5" t="str">
+      <c r="F198" s="7"/>
+      <c r="H198" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="195" Shortname="Glck_lng" Duration="0" FunctionTypeCS2="Glocke_lang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6234,10 +6337,10 @@
       <c r="E199" t="s">
         <v>205</v>
       </c>
-      <c r="F199" t="s">
+      <c r="F199" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="H199" s="5" t="str">
+      <c r="H199" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="196" Shortname="Horn_kurz" Duration="0" FunctionTypeCS2="Horn_kurz" FunctionTypeZ21="horn_high" /&gt;</v>
       </c>
@@ -6259,10 +6362,10 @@
       <c r="E200" t="s">
         <v>206</v>
       </c>
-      <c r="F200" t="s">
+      <c r="F200" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H200" s="5" t="str">
+      <c r="H200" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="197" Shortname="Horn_lang" Duration="0" FunctionTypeCS2="Horn_lang" FunctionTypeZ21="horn_low" /&gt;</v>
       </c>
@@ -6284,10 +6387,10 @@
       <c r="E201" t="s">
         <v>207</v>
       </c>
-      <c r="F201" t="s">
+      <c r="F201" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="H201" s="5" t="str">
+      <c r="H201" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="198" Shortname="Pff_krz" Duration="0" FunctionTypeCS2="Pfeife_kurz" FunctionTypeZ21="whistle_short" /&gt;</v>
       </c>
@@ -6309,10 +6412,10 @@
       <c r="E202" t="s">
         <v>208</v>
       </c>
-      <c r="F202" t="s">
+      <c r="F202" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="H202" s="5" t="str">
+      <c r="H202" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="199" Shortname="Pff_lng" Duration="0" FunctionTypeCS2="Pfeife_lang" FunctionTypeZ21="whistle_long" /&gt;</v>
       </c>
@@ -6334,7 +6437,8 @@
       <c r="E203" t="s">
         <v>209</v>
       </c>
-      <c r="H203" s="5" t="str">
+      <c r="F203" s="7"/>
+      <c r="H203" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="200" Shortname="Krn_En_Ums" Duration="0" FunctionTypeCS2="Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6356,7 +6460,8 @@
       <c r="E204" t="s">
         <v>210</v>
       </c>
-      <c r="H204" s="5" t="str">
+      <c r="F204" s="7"/>
+      <c r="H204" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="201" Shortname="Krn_As_Grn" Duration="0" FunctionTypeCS2="Kran_Aus_Grundstellung_anfahren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6378,7 +6483,8 @@
       <c r="E205" t="s">
         <v>211</v>
       </c>
-      <c r="H205" s="5" t="str">
+      <c r="F205" s="7"/>
+      <c r="H205" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="202" Shortname="Kran_Haken" Duration="0" FunctionTypeCS2="Kran_Haken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6400,7 +6506,8 @@
       <c r="E206" t="s">
         <v>212</v>
       </c>
-      <c r="H206" s="5" t="str">
+      <c r="F206" s="7"/>
+      <c r="H206" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="203" Shortname="Hammer" Duration="0" FunctionTypeCS2="Hammer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6422,7 +6529,8 @@
       <c r="E207" t="s">
         <v>213</v>
       </c>
-      <c r="H207" s="5" t="str">
+      <c r="F207" s="7"/>
+      <c r="H207" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="204" Shortname="Saege" Duration="0" FunctionTypeCS2="Saege" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6444,7 +6552,8 @@
       <c r="E208" t="s">
         <v>214</v>
       </c>
-      <c r="H208" s="5" t="str">
+      <c r="F208" s="7"/>
+      <c r="H208" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="205" Shortname="Bhrmschn_B" Duration="0" FunctionTypeCS2="Bohrmaschine_Bohrer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6466,7 +6575,8 @@
       <c r="E209" t="s">
         <v>215</v>
       </c>
-      <c r="H209" s="5" t="str">
+      <c r="F209" s="7"/>
+      <c r="H209" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="206" Shortname="Schwssgrt_" Duration="0" FunctionTypeCS2="Schweissgeraet_Schweissen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6488,7 +6598,8 @@
       <c r="E210" t="s">
         <v>216</v>
       </c>
-      <c r="H210" s="5" t="str">
+      <c r="F210" s="7"/>
+      <c r="H210" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="207" Shortname="Schlfblck_" Duration="0" FunctionTypeCS2="Schleifblock_Schleifen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6510,7 +6621,8 @@
       <c r="E211" t="s">
         <v>217</v>
       </c>
-      <c r="H211" s="5" t="str">
+      <c r="F211" s="7"/>
+      <c r="H211" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="208" Shortname="Drhtbrst_B" Duration="0" FunctionTypeCS2="Drahtbuerste_Buersten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6532,7 +6644,8 @@
       <c r="E212" t="s">
         <v>218</v>
       </c>
-      <c r="H212" s="5" t="str">
+      <c r="F212" s="7"/>
+      <c r="H212" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="209" Shortname="Kettenzug" Duration="0" FunctionTypeCS2="Kettenzug" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6554,7 +6667,8 @@
       <c r="E213" t="s">
         <v>219</v>
       </c>
-      <c r="H213" s="5" t="str">
+      <c r="F213" s="7"/>
+      <c r="H213" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="210" Shortname="Trnnschlfr" Duration="0" FunctionTypeCS2="Trennschleifer_Flex" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6576,7 +6690,8 @@
       <c r="E214" t="s">
         <v>220</v>
       </c>
-      <c r="H214" s="5" t="str">
+      <c r="F214" s="7"/>
+      <c r="H214" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="211" Shortname="Schaufel" Duration="0" FunctionTypeCS2="Schaufel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6598,7 +6713,8 @@
       <c r="E215" t="s">
         <v>221</v>
       </c>
-      <c r="H215" s="5" t="str">
+      <c r="F215" s="7"/>
+      <c r="H215" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="212" Shortname="Ldn_Enldn_" Duration="0" FunctionTypeCS2="Laden_Einladen_Ausladen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6620,7 +6736,8 @@
       <c r="E216" t="s">
         <v>222</v>
       </c>
-      <c r="H216" s="5" t="str">
+      <c r="F216" s="7"/>
+      <c r="H216" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="213" Shortname="Prsslfthmm" Duration="0" FunctionTypeCS2="Presslufthammer_Hämmern" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6642,7 +6759,8 @@
       <c r="E217" t="s">
         <v>223</v>
       </c>
-      <c r="H217" s="5" t="str">
+      <c r="F217" s="7"/>
+      <c r="H217" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="214" Shortname="Stop" Duration="0" FunctionTypeCS2="Stop" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6664,7 +6782,8 @@
       <c r="E218" t="s">
         <v>224</v>
       </c>
-      <c r="H218" s="5" t="str">
+      <c r="F218" s="7"/>
+      <c r="H218" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="215" Shortname="Naechstes" Duration="0" FunctionTypeCS2="Naechstes" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6686,7 +6805,8 @@
       <c r="E219" t="s">
         <v>225</v>
       </c>
-      <c r="H219" s="5" t="str">
+      <c r="F219" s="7"/>
+      <c r="H219" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="216" Shortname="Letztes" Duration="0" FunctionTypeCS2="Letztes" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6708,7 +6828,8 @@
       <c r="E220" t="s">
         <v>226</v>
       </c>
-      <c r="H220" s="5" t="str">
+      <c r="F220" s="7"/>
+      <c r="H220" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="217" Shortname="Bhnbrgng" Duration="0" FunctionTypeCS2="Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6730,7 +6851,8 @@
       <c r="E221" t="s">
         <v>227</v>
       </c>
-      <c r="H221" s="5" t="str">
+      <c r="F221" s="7"/>
+      <c r="H221" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="218" Shortname="Glck_Bhnbr" Duration="0" FunctionTypeCS2="Glocke_Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6752,10 +6874,10 @@
       <c r="E222" t="s">
         <v>228</v>
       </c>
-      <c r="F222" t="s">
+      <c r="F222" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="H222" s="5" t="str">
+      <c r="H222" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="219" Shortname="Strklftn" Duration="0" FunctionTypeCS2="Starklueften" FunctionTypeZ21="fan_strong" /&gt;</v>
       </c>
@@ -6777,10 +6899,10 @@
       <c r="E223" t="s">
         <v>229</v>
       </c>
-      <c r="F223" t="s">
+      <c r="F223" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="H223" s="5" t="str">
+      <c r="H223" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="220" Shortname="Schwchlftn" Duration="0" FunctionTypeCS2="Schwachlueften" FunctionTypeZ21="fan" /&gt;</v>
       </c>
@@ -6802,10 +6924,10 @@
       <c r="E224" t="s">
         <v>230</v>
       </c>
-      <c r="F224" t="s">
+      <c r="F224" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H224" s="5" t="str">
+      <c r="H224" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="221" Shortname="Tlx_Wlzr" Duration="0" FunctionTypeCS2="Telex_Walzer" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -6827,10 +6949,10 @@
       <c r="E225" t="s">
         <v>231</v>
       </c>
-      <c r="F225" t="s">
+      <c r="F225" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="H225" s="5" t="str">
+      <c r="H225" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="222" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound" FunctionTypeZ21="alternator" /&gt;</v>
       </c>
@@ -6852,7 +6974,8 @@
       <c r="E226" t="s">
         <v>232</v>
       </c>
-      <c r="H226" s="5" t="str">
+      <c r="F226" s="7"/>
+      <c r="H226" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="223" Shortname="Rchkmmr" Duration="0" FunctionTypeCS2="Rauchkammer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6874,7 +6997,8 @@
       <c r="E227" t="s">
         <v>233</v>
       </c>
-      <c r="H227" s="5" t="str">
+      <c r="F227" s="7"/>
+      <c r="H227" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="224" Shortname="Kohlestaub" Duration="0" FunctionTypeCS2="Kohlestaub" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6896,7 +7020,8 @@
       <c r="E228" t="s">
         <v>234</v>
       </c>
-      <c r="H228" s="5" t="str">
+      <c r="F228" s="7"/>
+      <c r="H228" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="225" Shortname="Frnlcht_vr" Duration="0" FunctionTypeCS2="Fernlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6918,7 +7043,8 @@
       <c r="E229" t="s">
         <v>235</v>
       </c>
-      <c r="H229" s="5" t="str">
+      <c r="F229" s="7"/>
+      <c r="H229" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="226" Shortname="Strnlcht_v" Duration="0" FunctionTypeCS2="Stirnlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6940,7 +7066,8 @@
       <c r="E230" t="s">
         <v>236</v>
       </c>
-      <c r="H230" s="5" t="str">
+      <c r="F230" s="7"/>
+      <c r="H230" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="227" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6962,10 +7089,10 @@
       <c r="E231" t="s">
         <v>237</v>
       </c>
-      <c r="F231" t="s">
+      <c r="F231" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H231" s="5" t="str">
+      <c r="H231" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="228" Shortname="Tlx_Wlzr_v" Duration="0" FunctionTypeCS2="Telex_Walzer_vorne" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -6987,10 +7114,10 @@
       <c r="E232" t="s">
         <v>238</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F232" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="H232" s="5" t="str">
+      <c r="H232" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="229" Shortname="Tlx_Wlzr_h" Duration="0" FunctionTypeCS2="Telex_Walzer_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -7012,7 +7139,8 @@
       <c r="E233" t="s">
         <v>239</v>
       </c>
-      <c r="H233" s="5" t="str">
+      <c r="F233" s="7"/>
+      <c r="H233" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="230" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound_vorne" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7034,18 +7162,20 @@
       <c r="E234" t="s">
         <v>240</v>
       </c>
-      <c r="H234" s="5" t="str">
+      <c r="F234" s="7"/>
+      <c r="H234" s="8" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="231" Shortname="Krbln_Snd" Duration="0" FunctionTypeCS2="Kurbeln_Sound" FunctionTypeZ21="" /&gt;</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H235" s="5" t="s">
+      <c r="H235" s="8" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:H234" xr:uid="{6998C7BB-3F10-8F46-AE0B-DDB5392E341E}"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" selectLockedCells="1" sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:F3" xr:uid="{6998C7BB-3F10-8F46-AE0B-DDB5392E341E}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
@@ -7085,13 +7215,13 @@
       <c r="A1" t="s">
         <v>241</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">

--- a/Create_MappingXml_File.xlsx
+++ b/Create_MappingXml_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralf/Documents/GitHub/LocDbConverterConsole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF678707-46E0-724B-8B09-CCA6E9208CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C379B28-3C56-AE4B-91FD-38699DAF7966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="3520" windowWidth="35940" windowHeight="20780" xr2:uid="{DA64CF93-7AD7-5549-BC85-4B8B89C6C2C1}"/>
   </bookViews>
@@ -136,7 +136,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="341">
   <si>
     <t>FunctionTypeCS2</t>
   </si>
@@ -1144,6 +1144,21 @@
   </si>
   <si>
     <t>Howto: Adapt "FunctionTypeZ21" and then simply copy-paste column H to your Mapping.xml file</t>
+  </si>
+  <si>
+    <t>ABV_Ein</t>
+  </si>
+  <si>
+    <t>ABV_Aus</t>
+  </si>
+  <si>
+    <t>Rauch</t>
+  </si>
+  <si>
+    <t>Aussenbel</t>
+  </si>
+  <si>
+    <t>Lichtwsl</t>
   </si>
 </sst>
 </file>
@@ -1253,14 +1268,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1587,7 +1602,7 @@
   <dimension ref="A1:H235"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1597,24 +1612,24 @@
     <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="92" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="92" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="H1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="H1" s="7" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F2" s="1"/>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="7" t="s">
         <v>329</v>
       </c>
     </row>
@@ -1637,7 +1652,7 @@
       <c r="F3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="7" t="s">
         <v>331</v>
       </c>
     </row>
@@ -1645,11 +1660,10 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="str">
-        <f>IF(LEN(E4)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E4,"a",""),"e",""),"i",""),"o",""),"u",""),10),E4)</f>
-        <v>Lchtwchsl</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="C4" s="6">
         <v>0</v>
       </c>
       <c r="D4" s="4">
@@ -1658,23 +1672,23 @@
       <c r="E4" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="H4" s="8" t="str">
+      <c r="H4" s="7" t="str">
         <f>"&lt;mapping Id="""&amp;A4&amp;""" Shortname="""&amp;B4&amp;""" Duration="""&amp;C4&amp;""" FunctionTypeCS2="""&amp;E4&amp;""" FunctionTypeZ21="""&amp;F4&amp;""" /&gt;"</f>
-        <v>&lt;mapping Id="1" Shortname="Lchtwchsl" Duration="0" FunctionTypeCS2="Lichtwechsel" FunctionTypeZ21="main_beam2" /&gt;</v>
+        <v>&lt;mapping Id="1" Shortname="Lichtwsl" Duration="0" FunctionTypeCS2="Lichtwechsel" FunctionTypeZ21="main_beam2" /&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="6" t="str">
         <f t="shared" ref="B5:B68" si="0">IF(LEN(E5)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E5,"a",""),"e",""),"i",""),"o",""),"u",""),10),E5)</f>
         <v>Innnblchtn</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
       <c r="D5" s="4">
@@ -1683,10 +1697,10 @@
       <c r="E5" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="H5" s="8" t="str">
+      <c r="H5" s="7" t="str">
         <f t="shared" ref="H5:H68" si="1">"&lt;mapping Id="""&amp;A5&amp;""" Shortname="""&amp;B5&amp;""" Duration="""&amp;C5&amp;""" FunctionTypeCS2="""&amp;E5&amp;""" FunctionTypeZ21="""&amp;F5&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="2" Shortname="Innnblchtn" Duration="0" FunctionTypeCS2="Innenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
@@ -1695,11 +1709,10 @@
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" t="str">
-        <f t="shared" si="0"/>
-        <v>Assnblchtn</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="C6" s="6">
         <v>0</v>
       </c>
       <c r="D6" s="4">
@@ -1708,23 +1721,23 @@
       <c r="E6" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="H6" s="8" t="str">
+      <c r="H6" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;mapping Id="3" Shortname="Assnblchtn" Duration="0" FunctionTypeCS2="Aussenbeleuchtung_Schlusslicht" FunctionTypeZ21="back_light" /&gt;</v>
+        <v>&lt;mapping Id="3" Shortname="Aussenbel" Duration="0" FunctionTypeCS2="Aussenbeleuchtung_Schlusslicht" FunctionTypeZ21="back_light" /&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" t="str">
+      <c r="B7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fernlicht</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
       <c r="D7" s="4">
@@ -1733,10 +1746,10 @@
       <c r="E7" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="8" t="str">
+      <c r="H7" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="4" Shortname="Fernlicht" Duration="0" FunctionTypeCS2="Fernlicht" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -1745,11 +1758,11 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" t="str">
+      <c r="B8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Btrbsgrsch</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
       <c r="D8" s="4">
@@ -1758,10 +1771,10 @@
       <c r="E8" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="8" t="str">
+      <c r="H8" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="5" Shortname="Btrbsgrsch" Duration="0" FunctionTypeCS2="Betriebsgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -1770,11 +1783,11 @@
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" t="str">
+      <c r="B9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Pantograph</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>0</v>
       </c>
       <c r="D9" s="4">
@@ -1783,10 +1796,10 @@
       <c r="E9" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H9" s="8" t="str">
+      <c r="H9" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="6" Shortname="Pantograph" Duration="0" FunctionTypeCS2="Pantograph" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
@@ -1795,11 +1808,10 @@
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>Rchgnrtr</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="4">
@@ -1808,23 +1820,23 @@
       <c r="E10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="8" t="str">
+      <c r="H10" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;mapping Id="7" Shortname="Rchgnrtr" Duration="0" FunctionTypeCS2="Rauchgenerator" FunctionTypeZ21="steam" /&gt;</v>
+        <v>&lt;mapping Id="7" Shortname="Rauch" Duration="0" FunctionTypeCS2="Rauchgenerator" FunctionTypeZ21="steam" /&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" t="str">
+      <c r="B11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Rngrgng_n</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>0</v>
       </c>
       <c r="D11" s="4">
@@ -1833,10 +1845,10 @@
       <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="8" t="str">
+      <c r="H11" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="8" Shortname="Rngrgng_n" Duration="0" FunctionTypeCS2="Rangiergang_ein" FunctionTypeZ21="hump_gear" /&gt;</v>
       </c>
@@ -1845,11 +1857,11 @@
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" t="str">
+      <c r="B12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tlxkpplng</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="6">
         <v>0</v>
       </c>
       <c r="D12" s="4">
@@ -1858,10 +1870,10 @@
       <c r="E12" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H12" s="8" t="str">
+      <c r="H12" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="9" Shortname="Tlxkpplng" Duration="0" FunctionTypeCS2="Telexkupplung" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -1870,11 +1882,11 @@
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" t="str">
+      <c r="B13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Hrn_Typhn</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="6">
         <v>0</v>
       </c>
       <c r="D13" s="4">
@@ -1883,10 +1895,10 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="H13" s="8" t="str">
+      <c r="H13" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="10" Shortname="Hrn_Typhn" Duration="0" FunctionTypeCS2="Horn_Typhon" FunctionTypeZ21="bugle" /&gt;</v>
       </c>
@@ -1895,11 +1907,11 @@
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" t="str">
+      <c r="B14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Schffnrpff</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="6">
         <v>0</v>
       </c>
       <c r="D14" s="4">
@@ -1908,10 +1920,10 @@
       <c r="E14" t="s">
         <v>21</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="H14" s="8" t="str">
+      <c r="H14" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="11" Shortname="Schffnrpff" Duration="0" FunctionTypeCS2="Schaffnerpfiff" FunctionTypeZ21="sound5" /&gt;</v>
       </c>
@@ -1920,11 +1932,11 @@
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" t="str">
+      <c r="B15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Pfeife</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="6">
         <v>0</v>
       </c>
       <c r="D15" s="4">
@@ -1933,10 +1945,10 @@
       <c r="E15" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H15" s="8" t="str">
+      <c r="H15" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="12" Shortname="Pfeife" Duration="0" FunctionTypeCS2="Pfeife" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
@@ -1945,11 +1957,11 @@
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" t="str">
+      <c r="B16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Glocke</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="6">
         <v>0</v>
       </c>
       <c r="D16" s="4">
@@ -1958,10 +1970,10 @@
       <c r="E16" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="H16" s="8" t="str">
+      <c r="H16" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="13" Shortname="Glocke" Duration="0" FunctionTypeCS2="Glocke" FunctionTypeZ21="bell" /&gt;</v>
       </c>
@@ -1970,11 +1982,11 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" t="str">
+      <c r="B17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KrnBhn_vrf</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="6">
         <v>0</v>
       </c>
       <c r="D17" s="4">
@@ -1983,8 +1995,8 @@
       <c r="E17" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="H17" s="8" t="str">
+      <c r="F17" s="6"/>
+      <c r="H17" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="14" Shortname="KrnBhn_vrf" Duration="0" FunctionTypeCS2="KranBuehne_verfahren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -1993,11 +2005,11 @@
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" t="str">
+      <c r="B18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KrnBhn_hbn</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="6">
         <v>0</v>
       </c>
       <c r="D18" s="4">
@@ -2006,8 +2018,8 @@
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="H18" s="8" t="str">
+      <c r="F18" s="6"/>
+      <c r="H18" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="15" Shortname="KrnBhn_hbn" Duration="0" FunctionTypeCS2="KranBuehne_heben_senken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2016,11 +2028,11 @@
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" t="str">
+      <c r="B19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KrnBhn_drh</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="6">
         <v>0</v>
       </c>
       <c r="D19" s="4">
@@ -2029,8 +2041,8 @@
       <c r="E19" t="s">
         <v>26</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="H19" s="8" t="str">
+      <c r="F19" s="6"/>
+      <c r="H19" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="16" Shortname="KrnBhn_drh" Duration="0" FunctionTypeCS2="KranBuehne_drehen_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2039,11 +2051,11 @@
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" t="str">
+      <c r="B20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>KrnBhn_ngn</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="6">
         <v>0</v>
       </c>
       <c r="D20" s="4">
@@ -2052,8 +2064,8 @@
       <c r="E20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="H20" s="8" t="str">
+      <c r="F20" s="6"/>
+      <c r="H20" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="17" Shortname="KrnBhn_ngn" Duration="0" FunctionTypeCS2="KranBuehne_neigen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2062,11 +2074,10 @@
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>Anfhr_Brms</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="C21" s="6">
         <v>0</v>
       </c>
       <c r="D21" s="4">
@@ -2075,23 +2086,23 @@
       <c r="E21" t="s">
         <v>28</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="H21" s="8" t="str">
+      <c r="H21" s="7" t="str">
         <f t="shared" si="1"/>
-        <v>&lt;mapping Id="18" Shortname="Anfhr_Brms" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_aus" FunctionTypeZ21="acc_delay" /&gt;</v>
+        <v>&lt;mapping Id="18" Shortname="ABV_Aus" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_aus" FunctionTypeZ21="acc_delay" /&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" t="str">
+      <c r="B22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Pumpe</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
         <v>0</v>
       </c>
       <c r="D22" s="4">
@@ -2100,10 +2111,10 @@
       <c r="E22" t="s">
         <v>29</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="H22" s="8" t="str">
+      <c r="H22" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="19" Shortname="Pumpe" Duration="0" FunctionTypeCS2="Pumpe" FunctionTypeZ21="feed_pump" /&gt;</v>
       </c>
@@ -2112,11 +2123,11 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Brmsnqtsch</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
         <v>0</v>
       </c>
       <c r="D23" s="4">
@@ -2125,10 +2136,10 @@
       <c r="E23" t="s">
         <v>30</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="H23" s="8" t="str">
+      <c r="H23" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="20" Shortname="Brmsnqtsch" Duration="0" FunctionTypeCS2="Bremsenquietschen_aus" FunctionTypeZ21="sound_brake" /&gt;</v>
       </c>
@@ -2137,11 +2148,11 @@
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" t="str">
+      <c r="B24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Schltstfn</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
         <v>0</v>
       </c>
       <c r="D24" s="4">
@@ -2150,10 +2161,10 @@
       <c r="E24" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="H24" s="8" t="str">
+      <c r="H24" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="21" Shortname="Schltstfn" Duration="0" FunctionTypeCS2="Schaltstufen" FunctionTypeZ21="diesel_regulation_step_up" /&gt;</v>
       </c>
@@ -2162,11 +2173,11 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" t="str">
+      <c r="B25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Generator</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="6">
         <v>0</v>
       </c>
       <c r="D25" s="4">
@@ -2175,10 +2186,10 @@
       <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="H25" s="8" t="str">
+      <c r="H25" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="22" Shortname="Generator" Duration="0" FunctionTypeCS2="Generator" FunctionTypeZ21="generator" /&gt;</v>
       </c>
@@ -2187,11 +2198,11 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" t="str">
+      <c r="B26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fhrgrsch</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
         <v>0</v>
       </c>
       <c r="D26" s="4">
@@ -2200,10 +2211,10 @@
       <c r="E26" t="s">
         <v>33</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="8" t="str">
+      <c r="H26" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="23" Shortname="Fhrgrsch" Duration="0" FunctionTypeCS2="Fahrgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -2212,11 +2223,11 @@
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" t="str">
+      <c r="B27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Mschn_vrsc</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="6">
         <v>0</v>
       </c>
       <c r="D27" s="4">
@@ -2225,8 +2236,8 @@
       <c r="E27" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="H27" s="8" t="str">
+      <c r="F27" s="6"/>
+      <c r="H27" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="24" Shortname="Mschn_vrsc" Duration="0" FunctionTypeCS2="Maschine_vorschmieren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2235,11 +2246,11 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Bhnhfsnsg</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="6">
         <v>0</v>
       </c>
       <c r="D28" s="4">
@@ -2248,10 +2259,10 @@
       <c r="E28" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H28" s="8" t="str">
+      <c r="H28" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="25" Shortname="Bhnhfsnsg" Duration="0" FunctionTypeCS2="Bahnhofsansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -2260,11 +2271,11 @@
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" t="str">
+      <c r="B29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Khln_schfl</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="6">
         <v>0</v>
       </c>
       <c r="D29" s="4">
@@ -2273,10 +2284,10 @@
       <c r="E29" t="s">
         <v>36</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="H29" s="8" t="str">
+      <c r="H29" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="26" Shortname="Khln_schfl" Duration="0" FunctionTypeCS2="Kohlen_schaufeln" FunctionTypeZ21="scoop_coal" /&gt;</v>
       </c>
@@ -2285,11 +2296,11 @@
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Trn_schlss</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="6">
         <v>0</v>
       </c>
       <c r="D30" s="4">
@@ -2298,8 +2309,8 @@
       <c r="E30" t="s">
         <v>37</v>
       </c>
-      <c r="F30" s="7"/>
-      <c r="H30" s="8" t="str">
+      <c r="F30" s="6"/>
+      <c r="H30" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="27" Shortname="Trn_schlss" Duration="0" FunctionTypeCS2="Tueren_schliessen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2308,11 +2319,11 @@
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" t="str">
+      <c r="B31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Trn_schlss</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="6">
         <v>0</v>
       </c>
       <c r="D31" s="4">
@@ -2321,10 +2332,10 @@
       <c r="E31" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="H31" s="8" t="str">
+      <c r="H31" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="28" Shortname="Trn_schlss" Duration="0" FunctionTypeCS2="Tueren_schliessen_Geraeusch" FunctionTypeZ21="door_close" /&gt;</v>
       </c>
@@ -2333,11 +2344,11 @@
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" t="str">
+      <c r="B32" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Lftrgrsch</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="6">
         <v>0</v>
       </c>
       <c r="D32" s="4">
@@ -2346,10 +2357,10 @@
       <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="H32" s="8" t="str">
+      <c r="H32" s="7" t="str">
         <f>"&lt;mapping Id="""&amp;A32&amp;""" Shortname="""&amp;B32&amp;""" Duration="""&amp;C32&amp;""" FunctionTypeCS2="""&amp;E32&amp;""" FunctionTypeZ21="""&amp;F32&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="29" Shortname="Lftrgrsch" Duration="0" FunctionTypeCS2="Lueftergeraeusch" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
@@ -2358,11 +2369,11 @@
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" t="str">
+      <c r="B33" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Luefter</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="6">
         <v>0</v>
       </c>
       <c r="D33" s="4">
@@ -2371,8 +2382,8 @@
       <c r="E33" t="s">
         <v>40</v>
       </c>
-      <c r="F33" s="7"/>
-      <c r="H33" s="8" t="str">
+      <c r="F33" s="6"/>
+      <c r="H33" s="7" t="str">
         <f>"&lt;mapping Id="""&amp;A33&amp;""" Shortname="""&amp;B33&amp;""" Duration="""&amp;C33&amp;""" FunctionTypeCS2="""&amp;E33&amp;""" FunctionTypeZ21="""&amp;F33&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="30" Shortname="Luefter" Duration="0" FunctionTypeCS2="Luefter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2381,11 +2392,11 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" t="str">
+      <c r="B34" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Frbchsnblc</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="6">
         <v>0</v>
       </c>
       <c r="D34" s="4">
@@ -2394,8 +2405,8 @@
       <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="7"/>
-      <c r="H34" s="8" t="str">
+      <c r="F34" s="6"/>
+      <c r="H34" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="31" Shortname="Frbchsnblc" Duration="0" FunctionTypeCS2="Feuerbuechsenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2404,11 +2415,11 @@
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B35" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Dcknblchtn</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="6">
         <v>0</v>
       </c>
       <c r="D35" s="4">
@@ -2417,10 +2428,10 @@
       <c r="E35" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="H35" s="8" t="str">
+      <c r="H35" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="32" Shortname="Dcknblchtn" Duration="0" FunctionTypeCS2="Deckenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
@@ -2429,11 +2440,11 @@
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" t="str">
+      <c r="B36" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tschblchtn</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="6">
         <v>0</v>
       </c>
       <c r="D36" s="4">
@@ -2442,10 +2453,10 @@
       <c r="E36" t="s">
         <v>43</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H36" s="8" t="str">
+      <c r="H36" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="33" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP4" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2454,11 +2465,11 @@
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" t="str">
+      <c r="B37" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tschblchtn</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="6">
         <v>0</v>
       </c>
       <c r="D37" s="4">
@@ -2467,10 +2478,10 @@
       <c r="E37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H37" s="8" t="str">
+      <c r="H37" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="34" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP3" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2479,11 +2490,11 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" t="str">
+      <c r="B38" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Tschblchtn</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="6">
         <v>0</v>
       </c>
       <c r="D38" s="4">
@@ -2492,10 +2503,10 @@
       <c r="E38" t="s">
         <v>45</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="H38" s="8" t="str">
+      <c r="H38" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="35" Shortname="Tschblchtn" Duration="0" FunctionTypeCS2="Tischbeleuchtung_EP2" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
@@ -2504,11 +2515,11 @@
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" t="str">
+      <c r="B39" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Schttlrst</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="6">
         <v>0</v>
       </c>
       <c r="D39" s="4">
@@ -2517,10 +2528,10 @@
       <c r="E39" t="s">
         <v>46</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="H39" s="8" t="str">
+      <c r="H39" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="36" Shortname="Schttlrst" Duration="0" FunctionTypeCS2="Schuettelrost" FunctionTypeZ21="shaking_grates" /&gt;</v>
       </c>
@@ -2529,11 +2540,11 @@
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" t="str">
+      <c r="B40" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Schnnstss</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="6">
         <v>0</v>
       </c>
       <c r="D40" s="4">
@@ -2542,10 +2553,10 @@
       <c r="E40" t="s">
         <v>333</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="H40" s="8" t="str">
+      <c r="H40" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="37" Shortname="Schnnstss" Duration="0" FunctionTypeCS2="Schienenstoss" FunctionTypeZ21="rail_kick" /&gt;</v>
       </c>
@@ -2554,11 +2565,11 @@
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" t="str">
+      <c r="B41" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Nmmrnschld</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="6">
         <v>0</v>
       </c>
       <c r="D41" s="4">
@@ -2567,10 +2578,10 @@
       <c r="E41" t="s">
         <v>47</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="H41" s="8" t="str">
+      <c r="H41" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="38" Shortname="Nmmrnschld" Duration="0" FunctionTypeCS2="Nummernschildbeleuchtung" FunctionTypeZ21="licence_plate_light" /&gt;</v>
       </c>
@@ -2579,11 +2590,11 @@
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" t="str">
+      <c r="B42" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Hntrgrndms</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="6">
         <v>0</v>
       </c>
       <c r="D42" s="4">
@@ -2592,10 +2603,10 @@
       <c r="E42" t="s">
         <v>48</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H42" s="8" t="str">
+      <c r="H42" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="39" Shortname="Hntrgrndms" Duration="0" FunctionTypeCS2="Hintergrundmusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
@@ -2604,11 +2615,11 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" t="str">
+      <c r="B43" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Zglfschldb</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="6">
         <v>0</v>
       </c>
       <c r="D43" s="4">
@@ -2617,10 +2628,10 @@
       <c r="E43" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="H43" s="8" t="str">
+      <c r="H43" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="40" Shortname="Zglfschldb" Duration="0" FunctionTypeCS2="Zuglaufschildbeleuchtung" FunctionTypeZ21="destination_plate_light" /&gt;</v>
       </c>
@@ -2629,11 +2640,11 @@
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" t="str">
+      <c r="B44" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Lcht_n_Fhr</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="6">
         <v>0</v>
       </c>
       <c r="D44" s="4">
@@ -2642,10 +2653,10 @@
       <c r="E44" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="H44" s="8" t="str">
+      <c r="H44" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="41" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeCS2="Licht_an_Fuehrerstand_hinten_aus" FunctionTypeZ21="cockpit_light_right" /&gt;</v>
       </c>
@@ -2654,11 +2665,11 @@
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" t="str">
+      <c r="B45" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Lcht_n_Fhr</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="6">
         <v>0</v>
       </c>
       <c r="D45" s="4">
@@ -2667,10 +2678,10 @@
       <c r="E45" t="s">
         <v>51</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H45" s="8" t="str">
+      <c r="H45" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="42" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeCS2="Licht_an_Fuehrerstand_vorne_aus" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
@@ -2679,11 +2690,11 @@
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" t="str">
+      <c r="B46" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Kpplng_An_</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="6">
         <v>0</v>
       </c>
       <c r="D46" s="4">
@@ -2692,10 +2703,10 @@
       <c r="E46" t="s">
         <v>52</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H46" s="8" t="str">
+      <c r="H46" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="43" Shortname="Kpplng_An_" Duration="0" FunctionTypeCS2="Kupplung_An_Abkuppelgeraeusch" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -2704,11 +2715,11 @@
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" t="str">
+      <c r="B47" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Pffrstss</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="6">
         <v>0</v>
       </c>
       <c r="D47" s="4">
@@ -2717,10 +2728,10 @@
       <c r="E47" t="s">
         <v>53</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="H47" s="8" t="str">
+      <c r="H47" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="44" Shortname="Pffrstss" Duration="0" FunctionTypeCS2="Pufferstoss" FunctionTypeZ21="puffer_kick" /&gt;</v>
       </c>
@@ -2729,11 +2740,11 @@
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" t="str">
+      <c r="B48" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Sprchsgb</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="6">
         <v>0</v>
       </c>
       <c r="D48" s="4">
@@ -2742,10 +2753,10 @@
       <c r="E48" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H48" s="8" t="str">
+      <c r="H48" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="45" Shortname="Sprchsgb" Duration="0" FunctionTypeCS2="Sprachausgabe" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
@@ -2754,11 +2765,11 @@
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" t="str">
+      <c r="B49" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Krn_Dpplhk</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="6">
         <v>0</v>
       </c>
       <c r="D49" s="4">
@@ -2767,8 +2778,8 @@
       <c r="E49" t="s">
         <v>55</v>
       </c>
-      <c r="F49" s="7"/>
-      <c r="H49" s="8" t="str">
+      <c r="F49" s="6"/>
+      <c r="H49" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="46" Shortname="Krn_Dpplhk" Duration="0" FunctionTypeCS2="Kran_Doppelhaken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -2777,11 +2788,11 @@
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" t="str">
+      <c r="B50" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Warnlicht</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="6">
         <v>0</v>
       </c>
       <c r="D50" s="4">
@@ -2790,10 +2801,10 @@
       <c r="E50" t="s">
         <v>56</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="H50" s="8" t="str">
+      <c r="H50" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="47" Shortname="Warnlicht" Duration="0" FunctionTypeCS2="Warnlicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
@@ -2802,11 +2813,11 @@
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" t="str">
+      <c r="B51" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fhrrstndsb</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="6">
         <v>0</v>
       </c>
       <c r="D51" s="4">
@@ -2815,10 +2826,10 @@
       <c r="E51" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="H51" s="8" t="str">
+      <c r="H51" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="48" Shortname="Fhrrstndsb" Duration="0" FunctionTypeCS2="Fuehrerstandsbeleuchtung" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
@@ -2827,11 +2838,11 @@
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" t="str">
+      <c r="B52" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Injektor</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="6">
         <v>0</v>
       </c>
       <c r="D52" s="4">
@@ -2840,10 +2851,10 @@
       <c r="E52" t="s">
         <v>58</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="H52" s="8" t="str">
+      <c r="H52" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="49" Shortname="Injektor" Duration="0" FunctionTypeCS2="Injektor" FunctionTypeZ21="injector" /&gt;</v>
       </c>
@@ -2852,11 +2863,11 @@
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" t="str">
+      <c r="B53" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_0</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="6">
         <v>0</v>
       </c>
       <c r="D53" s="4">
@@ -2865,10 +2876,10 @@
       <c r="E53" t="s">
         <v>59</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H53" s="8" t="str">
+      <c r="H53" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="50" Shortname="Funktion_0" Duration="0" FunctionTypeCS2="Funktion_0" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2877,11 +2888,11 @@
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" t="str">
+      <c r="B54" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_1</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="6">
         <v>0</v>
       </c>
       <c r="D54" s="4">
@@ -2890,10 +2901,10 @@
       <c r="E54" t="s">
         <v>60</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H54" s="8" t="str">
+      <c r="H54" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="51" Shortname="Funktion_1" Duration="0" FunctionTypeCS2="Funktion_1" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2902,11 +2913,11 @@
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" t="str">
+      <c r="B55" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_2</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="6">
         <v>0</v>
       </c>
       <c r="D55" s="4">
@@ -2915,10 +2926,10 @@
       <c r="E55" t="s">
         <v>61</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H55" s="8" t="str">
+      <c r="H55" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="52" Shortname="Funktion_2" Duration="0" FunctionTypeCS2="Funktion_2" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2927,11 +2938,11 @@
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="B56" t="str">
+      <c r="B56" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_3</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="6">
         <v>0</v>
       </c>
       <c r="D56" s="4">
@@ -2940,10 +2951,10 @@
       <c r="E56" t="s">
         <v>62</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H56" s="8" t="str">
+      <c r="H56" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="53" Shortname="Funktion_3" Duration="0" FunctionTypeCS2="Funktion_3" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2952,11 +2963,11 @@
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" t="str">
+      <c r="B57" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_4</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="6">
         <v>0</v>
       </c>
       <c r="D57" s="4">
@@ -2965,10 +2976,10 @@
       <c r="E57" t="s">
         <v>63</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H57" s="8" t="str">
+      <c r="H57" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="54" Shortname="Funktion_4" Duration="0" FunctionTypeCS2="Funktion_4" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -2977,11 +2988,11 @@
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" t="str">
+      <c r="B58" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_5</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="6">
         <v>0</v>
       </c>
       <c r="D58" s="4">
@@ -2990,10 +3001,10 @@
       <c r="E58" t="s">
         <v>64</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H58" s="8" t="str">
+      <c r="H58" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="55" Shortname="Funktion_5" Duration="0" FunctionTypeCS2="Funktion_5" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3002,11 +3013,11 @@
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" t="str">
+      <c r="B59" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_6</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="6">
         <v>0</v>
       </c>
       <c r="D59" s="4">
@@ -3015,10 +3026,10 @@
       <c r="E59" t="s">
         <v>65</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H59" s="8" t="str">
+      <c r="H59" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="56" Shortname="Funktion_6" Duration="0" FunctionTypeCS2="Funktion_6" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3027,11 +3038,11 @@
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" t="str">
+      <c r="B60" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_7</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="6">
         <v>0</v>
       </c>
       <c r="D60" s="4">
@@ -3040,10 +3051,10 @@
       <c r="E60" t="s">
         <v>66</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H60" s="8" t="str">
+      <c r="H60" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="57" Shortname="Funktion_7" Duration="0" FunctionTypeCS2="Funktion_7" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3052,11 +3063,11 @@
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" t="str">
+      <c r="B61" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_8</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="6">
         <v>0</v>
       </c>
       <c r="D61" s="4">
@@ -3065,10 +3076,10 @@
       <c r="E61" t="s">
         <v>67</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H61" s="8" t="str">
+      <c r="H61" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="58" Shortname="Funktion_8" Duration="0" FunctionTypeCS2="Funktion_8" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3077,11 +3088,11 @@
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" t="str">
+      <c r="B62" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Funktion_9</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="6">
         <v>0</v>
       </c>
       <c r="D62" s="4">
@@ -3090,10 +3101,10 @@
       <c r="E62" t="s">
         <v>68</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H62" s="8" t="str">
+      <c r="H62" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="59" Shortname="Funktion_9" Duration="0" FunctionTypeCS2="Funktion_9" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3102,11 +3113,11 @@
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" t="str">
+      <c r="B63" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_10</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="6">
         <v>0</v>
       </c>
       <c r="D63" s="4">
@@ -3115,10 +3126,10 @@
       <c r="E63" t="s">
         <v>69</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H63" s="8" t="str">
+      <c r="H63" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="60" Shortname="Fnktn_10" Duration="0" FunctionTypeCS2="Funktion_10" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3127,11 +3138,11 @@
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" t="str">
+      <c r="B64" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_11</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="6">
         <v>0</v>
       </c>
       <c r="D64" s="4">
@@ -3140,10 +3151,10 @@
       <c r="E64" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H64" s="8" t="str">
+      <c r="H64" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="61" Shortname="Fnktn_11" Duration="0" FunctionTypeCS2="Funktion_11" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3152,11 +3163,11 @@
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" t="str">
+      <c r="B65" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_12</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="6">
         <v>0</v>
       </c>
       <c r="D65" s="4">
@@ -3165,10 +3176,10 @@
       <c r="E65" t="s">
         <v>71</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H65" s="8" t="str">
+      <c r="H65" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="62" Shortname="Fnktn_12" Duration="0" FunctionTypeCS2="Funktion_12" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3177,11 +3188,11 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" t="str">
+      <c r="B66" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_13</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="6">
         <v>0</v>
       </c>
       <c r="D66" s="4">
@@ -3190,10 +3201,10 @@
       <c r="E66" t="s">
         <v>72</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H66" s="8" t="str">
+      <c r="H66" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="63" Shortname="Fnktn_13" Duration="0" FunctionTypeCS2="Funktion_13" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3202,11 +3213,11 @@
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" t="str">
+      <c r="B67" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_14</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="6">
         <v>0</v>
       </c>
       <c r="D67" s="4">
@@ -3215,10 +3226,10 @@
       <c r="E67" t="s">
         <v>73</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H67" s="8" t="str">
+      <c r="H67" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="64" Shortname="Fnktn_14" Duration="0" FunctionTypeCS2="Funktion_14" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3227,11 +3238,11 @@
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" t="str">
+      <c r="B68" s="6" t="str">
         <f t="shared" si="0"/>
         <v>Fnktn_15</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="6">
         <v>0</v>
       </c>
       <c r="D68" s="4">
@@ -3240,10 +3251,10 @@
       <c r="E68" t="s">
         <v>74</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H68" s="8" t="str">
+      <c r="H68" s="7" t="str">
         <f t="shared" si="1"/>
         <v>&lt;mapping Id="65" Shortname="Fnktn_15" Duration="0" FunctionTypeCS2="Funktion_15" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3252,11 +3263,11 @@
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" t="str">
+      <c r="B69" s="6" t="str">
         <f t="shared" ref="B69:B132" si="2">IF(LEN(E69)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E69,"a",""),"e",""),"i",""),"o",""),"u",""),10),E69)</f>
         <v>Fnktn_16</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="6">
         <v>0</v>
       </c>
       <c r="D69" s="4">
@@ -3265,10 +3276,10 @@
       <c r="E69" t="s">
         <v>75</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H69" s="8" t="str">
+      <c r="H69" s="7" t="str">
         <f t="shared" ref="H69:H132" si="3">"&lt;mapping Id="""&amp;A69&amp;""" Shortname="""&amp;B69&amp;""" Duration="""&amp;C69&amp;""" FunctionTypeCS2="""&amp;E69&amp;""" FunctionTypeZ21="""&amp;F69&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="66" Shortname="Fnktn_16" Duration="0" FunctionTypeCS2="Funktion_16" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3277,11 +3288,11 @@
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" t="str">
+      <c r="B70" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_17</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="6">
         <v>0</v>
       </c>
       <c r="D70" s="4">
@@ -3290,10 +3301,10 @@
       <c r="E70" t="s">
         <v>76</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H70" s="8" t="str">
+      <c r="H70" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="67" Shortname="Fnktn_17" Duration="0" FunctionTypeCS2="Funktion_17" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3302,11 +3313,11 @@
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" t="str">
+      <c r="B71" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_18</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="6">
         <v>0</v>
       </c>
       <c r="D71" s="4">
@@ -3315,10 +3326,10 @@
       <c r="E71" t="s">
         <v>77</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H71" s="8" t="str">
+      <c r="H71" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="68" Shortname="Fnktn_18" Duration="0" FunctionTypeCS2="Funktion_18" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3327,11 +3338,11 @@
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" t="str">
+      <c r="B72" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_19</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="6">
         <v>0</v>
       </c>
       <c r="D72" s="4">
@@ -3340,10 +3351,10 @@
       <c r="E72" t="s">
         <v>78</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H72" s="8" t="str">
+      <c r="H72" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="69" Shortname="Fnktn_19" Duration="0" FunctionTypeCS2="Funktion_19" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3352,11 +3363,11 @@
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" t="str">
+      <c r="B73" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_20</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="6">
         <v>0</v>
       </c>
       <c r="D73" s="4">
@@ -3365,10 +3376,10 @@
       <c r="E73" t="s">
         <v>79</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H73" s="8" t="str">
+      <c r="H73" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="70" Shortname="Fnktn_20" Duration="0" FunctionTypeCS2="Funktion_20" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3377,11 +3388,11 @@
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" t="str">
+      <c r="B74" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_21</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="6">
         <v>0</v>
       </c>
       <c r="D74" s="4">
@@ -3390,10 +3401,10 @@
       <c r="E74" t="s">
         <v>80</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H74" s="8" t="str">
+      <c r="H74" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="71" Shortname="Fnktn_21" Duration="0" FunctionTypeCS2="Funktion_21" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3402,11 +3413,11 @@
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" t="str">
+      <c r="B75" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_22</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="6">
         <v>0</v>
       </c>
       <c r="D75" s="4">
@@ -3415,10 +3426,10 @@
       <c r="E75" t="s">
         <v>81</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H75" s="8" t="str">
+      <c r="H75" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="72" Shortname="Fnktn_22" Duration="0" FunctionTypeCS2="Funktion_22" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3427,11 +3438,11 @@
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" t="str">
+      <c r="B76" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_23</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="6">
         <v>0</v>
       </c>
       <c r="D76" s="4">
@@ -3440,10 +3451,10 @@
       <c r="E76" t="s">
         <v>82</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H76" s="8" t="str">
+      <c r="H76" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="73" Shortname="Fnktn_23" Duration="0" FunctionTypeCS2="Funktion_23" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3452,11 +3463,11 @@
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" t="str">
+      <c r="B77" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_24</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="6">
         <v>0</v>
       </c>
       <c r="D77" s="4">
@@ -3465,10 +3476,10 @@
       <c r="E77" t="s">
         <v>83</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H77" s="8" t="str">
+      <c r="H77" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="74" Shortname="Fnktn_24" Duration="0" FunctionTypeCS2="Funktion_24" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3477,11 +3488,11 @@
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B78" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_25</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="6">
         <v>0</v>
       </c>
       <c r="D78" s="4">
@@ -3490,10 +3501,10 @@
       <c r="E78" t="s">
         <v>84</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H78" s="8" t="str">
+      <c r="H78" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="75" Shortname="Fnktn_25" Duration="0" FunctionTypeCS2="Funktion_25" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3502,11 +3513,11 @@
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" t="str">
+      <c r="B79" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_26</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="6">
         <v>0</v>
       </c>
       <c r="D79" s="4">
@@ -3515,10 +3526,10 @@
       <c r="E79" t="s">
         <v>85</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H79" s="8" t="str">
+      <c r="H79" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="76" Shortname="Fnktn_26" Duration="0" FunctionTypeCS2="Funktion_26" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3527,11 +3538,11 @@
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" t="str">
+      <c r="B80" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_27</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="6">
         <v>0</v>
       </c>
       <c r="D80" s="4">
@@ -3540,10 +3551,10 @@
       <c r="E80" t="s">
         <v>86</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H80" s="8" t="str">
+      <c r="H80" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="77" Shortname="Fnktn_27" Duration="0" FunctionTypeCS2="Funktion_27" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3552,11 +3563,11 @@
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" t="str">
+      <c r="B81" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_28</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="6">
         <v>0</v>
       </c>
       <c r="D81" s="4">
@@ -3565,10 +3576,10 @@
       <c r="E81" t="s">
         <v>87</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H81" s="8" t="str">
+      <c r="H81" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="78" Shortname="Fnktn_28" Duration="0" FunctionTypeCS2="Funktion_28" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3577,11 +3588,11 @@
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" t="str">
+      <c r="B82" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_29</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="6">
         <v>0</v>
       </c>
       <c r="D82" s="4">
@@ -3590,10 +3601,10 @@
       <c r="E82" t="s">
         <v>88</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H82" s="8" t="str">
+      <c r="H82" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="79" Shortname="Fnktn_29" Duration="0" FunctionTypeCS2="Funktion_29" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3602,11 +3613,11 @@
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" t="str">
+      <c r="B83" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_30</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="6">
         <v>0</v>
       </c>
       <c r="D83" s="4">
@@ -3615,10 +3626,10 @@
       <c r="E83" t="s">
         <v>89</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H83" s="8" t="str">
+      <c r="H83" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="80" Shortname="Fnktn_30" Duration="0" FunctionTypeCS2="Funktion_30" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3627,11 +3638,11 @@
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" t="str">
+      <c r="B84" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnktn_31</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="6">
         <v>0</v>
       </c>
       <c r="D84" s="4">
@@ -3640,10 +3651,10 @@
       <c r="E84" t="s">
         <v>90</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="H84" s="8" t="str">
+      <c r="H84" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="81" Shortname="Fnktn_31" Duration="0" FunctionTypeCS2="Funktion_31" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
@@ -3652,11 +3663,11 @@
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" t="str">
+      <c r="B85" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Tlxkpplng_</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="6">
         <v>0</v>
       </c>
       <c r="D85" s="4">
@@ -3665,10 +3676,10 @@
       <c r="E85" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H85" s="8" t="str">
+      <c r="H85" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="82" Shortname="Tlxkpplng_" Duration="0" FunctionTypeCS2="Telexkupplung_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -3677,11 +3688,11 @@
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" t="str">
+      <c r="B86" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Tlxkpplng_</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="6">
         <v>0</v>
       </c>
       <c r="D86" s="4">
@@ -3690,10 +3701,10 @@
       <c r="E86" t="s">
         <v>92</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H86" s="8" t="str">
+      <c r="H86" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="83" Shortname="Tlxkpplng_" Duration="0" FunctionTypeCS2="Telexkupplung_vorn" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -3702,11 +3713,11 @@
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" t="str">
+      <c r="B87" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Pntgrph_hn</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="6">
         <v>0</v>
       </c>
       <c r="D87" s="4">
@@ -3715,10 +3726,10 @@
       <c r="E87" t="s">
         <v>93</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="H87" s="8" t="str">
+      <c r="H87" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="84" Shortname="Pntgrph_hn" Duration="0" FunctionTypeCS2="Pantograph_hinten" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
@@ -3727,11 +3738,11 @@
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" t="str">
+      <c r="B88" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Pntgrph_vr</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="6">
         <v>0</v>
       </c>
       <c r="D88" s="4">
@@ -3740,10 +3751,10 @@
       <c r="E88" t="s">
         <v>94</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="H88" s="8" t="str">
+      <c r="H88" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="85" Shortname="Pntgrph_vr" Duration="0" FunctionTypeCS2="Pantograph_vorne" FunctionTypeZ21="forward_take_power" /&gt;</v>
       </c>
@@ -3752,11 +3763,11 @@
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" t="str">
+      <c r="B89" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Frnlcht_hn</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="6">
         <v>0</v>
       </c>
       <c r="D89" s="4">
@@ -3765,10 +3776,10 @@
       <c r="E89" t="s">
         <v>95</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H89" s="8" t="str">
+      <c r="H89" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="86" Shortname="Frnlcht_hn" Duration="0" FunctionTypeCS2="Fernlicht_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -3777,11 +3788,11 @@
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" t="str">
+      <c r="B90" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Frnlcht_vr</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="6">
         <v>0</v>
       </c>
       <c r="D90" s="4">
@@ -3790,10 +3801,10 @@
       <c r="E90" t="s">
         <v>96</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="H90" s="8" t="str">
+      <c r="H90" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="87" Shortname="Frnlcht_vr" Duration="0" FunctionTypeCS2="Fernlicht_vorn" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
@@ -3802,11 +3813,11 @@
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" t="str">
+      <c r="B91" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Shift</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="6">
         <v>0</v>
       </c>
       <c r="D91" s="4">
@@ -3815,8 +3826,8 @@
       <c r="E91" t="s">
         <v>97</v>
       </c>
-      <c r="F91" s="7"/>
-      <c r="H91" s="8" t="str">
+      <c r="F91" s="6"/>
+      <c r="H91" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="88" Shortname="Shift" Duration="0" FunctionTypeCS2="Shift" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3825,11 +3836,11 @@
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" t="str">
+      <c r="B92" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Vkmpmp</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="6">
         <v>0</v>
       </c>
       <c r="D92" s="4">
@@ -3838,8 +3849,8 @@
       <c r="E92" t="s">
         <v>98</v>
       </c>
-      <c r="F92" s="7"/>
-      <c r="H92" s="8" t="str">
+      <c r="F92" s="6"/>
+      <c r="H92" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="89" Shortname="Vkmpmp" Duration="0" FunctionTypeCS2="Vakuumpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3848,11 +3859,11 @@
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" t="str">
+      <c r="B93" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Trbwrksblc</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="6">
         <v>0</v>
       </c>
       <c r="D93" s="4">
@@ -3861,8 +3872,8 @@
       <c r="E93" t="s">
         <v>99</v>
       </c>
-      <c r="F93" s="7"/>
-      <c r="H93" s="8" t="str">
+      <c r="F93" s="6"/>
+      <c r="H93" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="90" Shortname="Trbwrksblc" Duration="0" FunctionTypeCS2="Triebwerksbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3871,11 +3882,11 @@
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" t="str">
+      <c r="B94" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Zylndr_sbl</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="6">
         <v>0</v>
       </c>
       <c r="D94" s="4">
@@ -3884,10 +3895,10 @@
       <c r="E94" t="s">
         <v>100</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="H94" s="8" t="str">
+      <c r="H94" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="91" Shortname="Zylndr_sbl" Duration="0" FunctionTypeCS2="Zylinder_ausblasen_Dampf_ablassen" FunctionTypeZ21="dump_steam" /&gt;</v>
       </c>
@@ -3896,11 +3907,11 @@
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" t="str">
+      <c r="B95" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Drcklft_bl</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="6">
         <v>0</v>
       </c>
       <c r="D95" s="4">
@@ -3909,8 +3920,8 @@
       <c r="E95" t="s">
         <v>101</v>
       </c>
-      <c r="F95" s="7"/>
-      <c r="H95" s="8" t="str">
+      <c r="F95" s="6"/>
+      <c r="H95" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="92" Shortname="Drcklft_bl" Duration="0" FunctionTypeCS2="Druckluft_ablassen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3919,11 +3930,11 @@
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" t="str">
+      <c r="B96" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Kran</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="6">
         <v>0</v>
       </c>
       <c r="D96" s="4">
@@ -3932,8 +3943,8 @@
       <c r="E96" t="s">
         <v>102</v>
       </c>
-      <c r="F96" s="7"/>
-      <c r="H96" s="8" t="str">
+      <c r="F96" s="6"/>
+      <c r="H96" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="93" Shortname="Kran" Duration="0" FunctionTypeCS2="Kran" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3942,11 +3953,11 @@
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" t="str">
+      <c r="B97" s="6" t="str">
         <f t="shared" si="2"/>
         <v>KrnBhn_f</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="6">
         <v>0</v>
       </c>
       <c r="D97" s="4">
@@ -3955,8 +3966,8 @@
       <c r="E97" t="s">
         <v>103</v>
       </c>
-      <c r="F97" s="7"/>
-      <c r="H97" s="8" t="str">
+      <c r="F97" s="6"/>
+      <c r="H97" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="94" Shortname="KrnBhn_f" Duration="0" FunctionTypeCS2="KranBuehne_auf" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3965,11 +3976,11 @@
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" t="str">
+      <c r="B98" s="6" t="str">
         <f t="shared" si="2"/>
         <v>KrnBhn_b</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="6">
         <v>0</v>
       </c>
       <c r="D98" s="4">
@@ -3978,8 +3989,8 @@
       <c r="E98" t="s">
         <v>104</v>
       </c>
-      <c r="F98" s="7"/>
-      <c r="H98" s="8" t="str">
+      <c r="F98" s="6"/>
+      <c r="H98" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="95" Shortname="KrnBhn_b" Duration="0" FunctionTypeCS2="KranBuehne_ab" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -3988,11 +3999,11 @@
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" t="str">
+      <c r="B99" s="6" t="str">
         <f t="shared" si="2"/>
         <v>KrnBhn_lnk</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="6">
         <v>0</v>
       </c>
       <c r="D99" s="4">
@@ -4001,8 +4012,8 @@
       <c r="E99" t="s">
         <v>105</v>
       </c>
-      <c r="F99" s="7"/>
-      <c r="H99" s="8" t="str">
+      <c r="F99" s="6"/>
+      <c r="H99" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="96" Shortname="KrnBhn_lnk" Duration="0" FunctionTypeCS2="KranBuehne_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4011,11 +4022,11 @@
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" t="str">
+      <c r="B100" s="6" t="str">
         <f t="shared" si="2"/>
         <v>KrnBhn_rch</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="6">
         <v>0</v>
       </c>
       <c r="D100" s="4">
@@ -4024,8 +4035,8 @@
       <c r="E100" t="s">
         <v>106</v>
       </c>
-      <c r="F100" s="7"/>
-      <c r="H100" s="8" t="str">
+      <c r="F100" s="6"/>
+      <c r="H100" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="97" Shortname="KrnBhn_rch" Duration="0" FunctionTypeCS2="KranBuehne_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4034,11 +4045,11 @@
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" t="str">
+      <c r="B101" s="6" t="str">
         <f t="shared" si="2"/>
         <v>KrnBhn_drh</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="6">
         <v>0</v>
       </c>
       <c r="D101" s="4">
@@ -4047,8 +4058,8 @@
       <c r="E101" t="s">
         <v>107</v>
       </c>
-      <c r="F101" s="7"/>
-      <c r="H101" s="8" t="str">
+      <c r="F101" s="6"/>
+      <c r="H101" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="98" Shortname="KrnBhn_drh" Duration="0" FunctionTypeCS2="KranBuehne_drehen_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4057,11 +4068,11 @@
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" t="str">
+      <c r="B102" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Krn_Mgnt</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="6">
         <v>0</v>
       </c>
       <c r="D102" s="4">
@@ -4070,8 +4081,8 @@
       <c r="E102" t="s">
         <v>108</v>
       </c>
-      <c r="F102" s="7"/>
-      <c r="H102" s="8" t="str">
+      <c r="F102" s="6"/>
+      <c r="H102" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="99" Shortname="Krn_Mgnt" Duration="0" FunctionTypeCS2="Kran_Magnet" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4080,11 +4091,11 @@
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" t="str">
+      <c r="B103" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fhrtfrgb</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="6">
         <v>0</v>
       </c>
       <c r="D103" s="4">
@@ -4093,8 +4104,8 @@
       <c r="E103" t="s">
         <v>109</v>
       </c>
-      <c r="F103" s="7"/>
-      <c r="H103" s="8" t="str">
+      <c r="F103" s="6"/>
+      <c r="H103" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="100" Shortname="Fhrtfrgb" Duration="0" FunctionTypeCS2="Fahrtfreigabe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4103,11 +4114,11 @@
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="B104" t="str">
+      <c r="B104" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Pntgrph_Af</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="6">
         <v>0</v>
       </c>
       <c r="D104" s="4">
@@ -4116,8 +4127,8 @@
       <c r="E104" t="s">
         <v>110</v>
       </c>
-      <c r="F104" s="7"/>
-      <c r="H104" s="8" t="str">
+      <c r="F104" s="6"/>
+      <c r="H104" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="101" Shortname="Pntgrph_Af" Duration="0" FunctionTypeCS2="Pantograph_Auf_Abbuegelgeraeusch" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4126,11 +4137,10 @@
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="B105" t="str">
-        <f t="shared" si="2"/>
-        <v>Anfhr_Brms</v>
-      </c>
-      <c r="C105">
+      <c r="B105" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="C105" s="6">
         <v>0</v>
       </c>
       <c r="D105" s="4">
@@ -4139,21 +4149,21 @@
       <c r="E105" t="s">
         <v>111</v>
       </c>
-      <c r="F105" s="7"/>
-      <c r="H105" s="8" t="str">
+      <c r="F105" s="6"/>
+      <c r="H105" s="7" t="str">
         <f t="shared" si="3"/>
-        <v>&lt;mapping Id="102" Shortname="Anfhr_Brms" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_ein" FunctionTypeZ21="" /&gt;</v>
+        <v>&lt;mapping Id="102" Shortname="ABV_Ein" Duration="0" FunctionTypeCS2="Anfahr_Bremsverzoegerung_ein" FunctionTypeZ21="" /&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" t="str">
+      <c r="B106" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Fnkgsprch</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="6">
         <v>0</v>
       </c>
       <c r="D106" s="4">
@@ -4162,10 +4172,10 @@
       <c r="E106" t="s">
         <v>112</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="H106" s="8" t="str">
+      <c r="H106" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="103" Shortname="Fnkgsprch" Duration="0" FunctionTypeCS2="Funkgespraech" FunctionTypeZ21="hump_funk" /&gt;</v>
       </c>
@@ -4174,11 +4184,11 @@
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" t="str">
+      <c r="B107" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Abfhrtsdrc</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="6">
         <v>0</v>
       </c>
       <c r="D107" s="4">
@@ -4187,10 +4197,10 @@
       <c r="E107" t="s">
         <v>113</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H107" s="8" t="str">
+      <c r="H107" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="104" Shortname="Abfhrtsdrc" Duration="0" FunctionTypeCS2="Abfahrtsdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -4199,11 +4209,11 @@
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B108" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Assnblchtn</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="6">
         <v>0</v>
       </c>
       <c r="D108" s="4">
@@ -4212,8 +4222,8 @@
       <c r="E108" t="s">
         <v>114</v>
       </c>
-      <c r="F108" s="7"/>
-      <c r="H108" s="8" t="str">
+      <c r="F108" s="6"/>
+      <c r="H108" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="105" Shortname="Assnblchtn" Duration="0" FunctionTypeCS2="Aussenbeleuchtung_Frontlicht" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4222,11 +4232,11 @@
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" t="str">
+      <c r="B109" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Luftpumpe</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="6">
         <v>0</v>
       </c>
       <c r="D109" s="4">
@@ -4235,10 +4245,10 @@
       <c r="E109" t="s">
         <v>115</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="H109" s="8" t="str">
+      <c r="H109" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="106" Shortname="Luftpumpe" Duration="0" FunctionTypeCS2="Luftpumpe" FunctionTypeZ21="air_pump" /&gt;</v>
       </c>
@@ -4247,11 +4257,11 @@
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" t="str">
+      <c r="B110" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Untrhltng_</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="6">
         <v>0</v>
       </c>
       <c r="D110" s="4">
@@ -4260,8 +4270,8 @@
       <c r="E110" t="s">
         <v>116</v>
       </c>
-      <c r="F110" s="7"/>
-      <c r="H110" s="8" t="str">
+      <c r="F110" s="6"/>
+      <c r="H110" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="107" Shortname="Untrhltng_" Duration="0" FunctionTypeCS2="Unterhaltung_Allgemein" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4270,11 +4280,11 @@
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" t="str">
+      <c r="B111" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Sanden</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="6">
         <v>0</v>
       </c>
       <c r="D111" s="4">
@@ -4283,10 +4293,10 @@
       <c r="E111" t="s">
         <v>117</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="H111" s="8" t="str">
+      <c r="H111" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="108" Shortname="Sanden" Duration="0" FunctionTypeCS2="Sanden" FunctionTypeZ21="sanden" /&gt;</v>
       </c>
@@ -4295,11 +4305,11 @@
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" t="str">
+      <c r="B112" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Mute_Fade</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="6">
         <v>0</v>
       </c>
       <c r="D112" s="4">
@@ -4308,10 +4318,10 @@
       <c r="E112" t="s">
         <v>118</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="H112" s="8" t="str">
+      <c r="H112" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="109" Shortname="Mute_Fade" Duration="0" FunctionTypeCS2="Mute_Fade" FunctionTypeZ21="mute" /&gt;</v>
       </c>
@@ -4320,11 +4330,11 @@
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B113" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Trttstfnbl</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="6">
         <v>0</v>
       </c>
       <c r="D113" s="4">
@@ -4333,8 +4343,8 @@
       <c r="E113" t="s">
         <v>119</v>
       </c>
-      <c r="F113" s="7"/>
-      <c r="H113" s="8" t="str">
+      <c r="F113" s="6"/>
+      <c r="H113" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="110" Shortname="Trttstfnbl" Duration="0" FunctionTypeCS2="Trittstufenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4343,11 +4353,11 @@
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B114" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Spswssrpmp</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="6">
         <v>0</v>
       </c>
       <c r="D114" s="4">
@@ -4356,8 +4366,8 @@
       <c r="E114" t="s">
         <v>120</v>
       </c>
-      <c r="F114" s="7"/>
-      <c r="H114" s="8" t="str">
+      <c r="F114" s="6"/>
+      <c r="H114" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="111" Shortname="Spswssrpmp" Duration="0" FunctionTypeCS2="Speisewasserpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4366,11 +4376,11 @@
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" t="str">
+      <c r="B115" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Brmsnqtsch</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="6">
         <v>0</v>
       </c>
       <c r="D115" s="4">
@@ -4379,8 +4389,8 @@
       <c r="E115" t="s">
         <v>121</v>
       </c>
-      <c r="F115" s="7"/>
-      <c r="H115" s="8" t="str">
+      <c r="F115" s="6"/>
+      <c r="H115" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="112" Shortname="Brmsnqtsch" Duration="0" FunctionTypeCS2="Bremsenquietschen_ein" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4389,11 +4399,11 @@
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" t="str">
+      <c r="B116" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Oelpumpe</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="6">
         <v>0</v>
       </c>
       <c r="D116" s="4">
@@ -4402,8 +4412,8 @@
       <c r="E116" t="s">
         <v>122</v>
       </c>
-      <c r="F116" s="7"/>
-      <c r="H116" s="8" t="str">
+      <c r="F116" s="6"/>
+      <c r="H116" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="113" Shortname="Oelpumpe" Duration="0" FunctionTypeCS2="Oelpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4412,11 +4422,11 @@
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" t="str">
+      <c r="B117" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Schmrpmp</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="6">
         <v>0</v>
       </c>
       <c r="D117" s="4">
@@ -4425,8 +4435,8 @@
       <c r="E117" t="s">
         <v>123</v>
       </c>
-      <c r="F117" s="7"/>
-      <c r="H117" s="8" t="str">
+      <c r="F117" s="6"/>
+      <c r="H117" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="114" Shortname="Schmrpmp" Duration="0" FunctionTypeCS2="Schmierpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4435,11 +4445,11 @@
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" t="str">
+      <c r="B118" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Dslpmp</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="6">
         <v>0</v>
       </c>
       <c r="D118" s="4">
@@ -4448,8 +4458,8 @@
       <c r="E118" t="s">
         <v>124</v>
       </c>
-      <c r="F118" s="7"/>
-      <c r="H118" s="8" t="str">
+      <c r="F118" s="6"/>
+      <c r="H118" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="115" Shortname="Dslpmp" Duration="0" FunctionTypeCS2="Dieselpumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4458,11 +4468,11 @@
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" t="str">
+      <c r="B119" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Kompressor</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="6">
         <v>0</v>
       </c>
       <c r="D119" s="4">
@@ -4471,10 +4481,10 @@
       <c r="E119" t="s">
         <v>125</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="H119" s="8" t="str">
+      <c r="H119" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="116" Shortname="Kompressor" Duration="0" FunctionTypeCS2="Kompressor" FunctionTypeZ21="compressor" /&gt;</v>
       </c>
@@ -4483,11 +4493,11 @@
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" t="str">
+      <c r="B120" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Knslnblcht</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="6">
         <v>0</v>
       </c>
       <c r="D120" s="4">
@@ -4496,8 +4506,8 @@
       <c r="E120" t="s">
         <v>126</v>
       </c>
-      <c r="F120" s="7"/>
-      <c r="H120" s="8" t="str">
+      <c r="F120" s="6"/>
+      <c r="H120" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="117" Shortname="Knslnblcht" Duration="0" FunctionTypeCS2="Konsolenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4506,11 +4516,11 @@
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" t="str">
+      <c r="B121" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Rngrblchtn</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="6">
         <v>0</v>
       </c>
       <c r="D121" s="4">
@@ -4519,10 +4529,10 @@
       <c r="E121" t="s">
         <v>127</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="H121" s="8" t="str">
+      <c r="H121" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="118" Shortname="Rngrblchtn" Duration="0" FunctionTypeCS2="Rangierbeleuchtung" FunctionTypeZ21="sidelights" /&gt;</v>
       </c>
@@ -4531,11 +4541,11 @@
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="B122" t="str">
+      <c r="B122" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Prtyblchtn</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="6">
         <v>0</v>
       </c>
       <c r="D122" s="4">
@@ -4544,8 +4554,8 @@
       <c r="E122" t="s">
         <v>128</v>
       </c>
-      <c r="F122" s="7"/>
-      <c r="H122" s="8" t="str">
+      <c r="F122" s="6"/>
+      <c r="H122" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="119" Shortname="Prtyblchtn" Duration="0" FunctionTypeCS2="Partybeleuchtung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4554,11 +4564,11 @@
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="B123" t="str">
+      <c r="B123" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Wrtnd_Pssg</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="6">
         <v>0</v>
       </c>
       <c r="D123" s="4">
@@ -4567,8 +4577,8 @@
       <c r="E123" t="s">
         <v>129</v>
       </c>
-      <c r="F123" s="7"/>
-      <c r="H123" s="8" t="str">
+      <c r="F123" s="6"/>
+      <c r="H123" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="120" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeCS2="Wartende_Passagiere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4577,11 +4587,11 @@
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B124" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Anknft_Zln</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="6">
         <v>0</v>
       </c>
       <c r="D124" s="4">
@@ -4590,10 +4600,10 @@
       <c r="E124" t="s">
         <v>130</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H124" s="8" t="str">
+      <c r="H124" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="121" Shortname="Anknft_Zln" Duration="0" FunctionTypeCS2="Ankunft_Zielansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -4602,11 +4612,11 @@
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" t="str">
+      <c r="B125" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Zgnsg_Schf</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="6">
         <v>0</v>
       </c>
       <c r="D125" s="4">
@@ -4615,10 +4625,10 @@
       <c r="E125" t="s">
         <v>131</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="H125" s="8" t="str">
+      <c r="H125" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="122" Shortname="Zgnsg_Schf" Duration="0" FunctionTypeCS2="Zugansage_Schaffener" FunctionTypeZ21="sound3" /&gt;</v>
       </c>
@@ -4627,11 +4637,11 @@
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" t="str">
+      <c r="B126" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Schrhtsvnt</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="6">
         <v>0</v>
       </c>
       <c r="D126" s="4">
@@ -4640,8 +4650,8 @@
       <c r="E126" t="s">
         <v>132</v>
       </c>
-      <c r="F126" s="7"/>
-      <c r="H126" s="8" t="str">
+      <c r="F126" s="6"/>
+      <c r="H126" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="123" Shortname="Schrhtsvnt" Duration="0" FunctionTypeCS2="Sicherheitsventil" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4650,11 +4660,11 @@
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" t="str">
+      <c r="B127" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Ksslhzng</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="6">
         <v>0</v>
       </c>
       <c r="D127" s="4">
@@ -4663,8 +4673,8 @@
       <c r="E127" t="s">
         <v>133</v>
       </c>
-      <c r="F127" s="7"/>
-      <c r="H127" s="8" t="str">
+      <c r="F127" s="6"/>
+      <c r="H127" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="124" Shortname="Ksslhzng" Duration="0" FunctionTypeCS2="Kesselheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4673,11 +4683,11 @@
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="B128" t="str">
+      <c r="B128" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Hlfsggrgt_</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="6">
         <v>0</v>
       </c>
       <c r="D128" s="4">
@@ -4686,8 +4696,8 @@
       <c r="E128" t="s">
         <v>134</v>
       </c>
-      <c r="F128" s="7"/>
-      <c r="H128" s="8" t="str">
+      <c r="F128" s="6"/>
+      <c r="H128" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="125" Shortname="Hlfsggrgt_" Duration="0" FunctionTypeCS2="Hilfsaggregat_Hilfsdiesel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4696,11 +4706,11 @@
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" t="str">
+      <c r="B129" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Mschnnrmbl</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="6">
         <v>0</v>
       </c>
       <c r="D129" s="4">
@@ -4709,10 +4719,10 @@
       <c r="E129" t="s">
         <v>135</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="H129" s="8" t="str">
+      <c r="H129" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="126" Shortname="Mschnnrmbl" Duration="0" FunctionTypeCS2="Maschinenraumbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
       </c>
@@ -4721,11 +4731,11 @@
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" t="str">
+      <c r="B130" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Partymusik</v>
       </c>
-      <c r="C130">
+      <c r="C130" s="6">
         <v>0</v>
       </c>
       <c r="D130" s="4">
@@ -4734,10 +4744,10 @@
       <c r="E130" t="s">
         <v>136</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="H130" s="8" t="str">
+      <c r="H130" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="127" Shortname="Partymusik" Duration="0" FunctionTypeCS2="Partymusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
@@ -4746,11 +4756,11 @@
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" t="str">
+      <c r="B131" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Krvngrsch</v>
       </c>
-      <c r="C131">
+      <c r="C131" s="6">
         <v>0</v>
       </c>
       <c r="D131" s="4">
@@ -4759,10 +4769,10 @@
       <c r="E131" t="s">
         <v>137</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="H131" s="8" t="str">
+      <c r="H131" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="128" Shortname="Krvngrsch" Duration="0" FunctionTypeCS2="Kurvengeraeusch" FunctionTypeZ21="curve_sound" /&gt;</v>
       </c>
@@ -4771,11 +4781,11 @@
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" t="str">
+      <c r="B132" s="6" t="str">
         <f t="shared" si="2"/>
         <v>Blinker</v>
       </c>
-      <c r="C132">
+      <c r="C132" s="6">
         <v>0</v>
       </c>
       <c r="D132" s="4">
@@ -4784,8 +4794,8 @@
       <c r="E132" t="s">
         <v>138</v>
       </c>
-      <c r="F132" s="7"/>
-      <c r="H132" s="8" t="str">
+      <c r="F132" s="6"/>
+      <c r="H132" s="7" t="str">
         <f t="shared" si="3"/>
         <v>&lt;mapping Id="129" Shortname="Blinker" Duration="0" FunctionTypeCS2="Blinker" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4794,11 +4804,11 @@
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="B133" t="str">
+      <c r="B133" s="6" t="str">
         <f t="shared" ref="B133:B196" si="4">IF(LEN(E133)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E133,"a",""),"e",""),"i",""),"o",""),"u",""),10),E133)</f>
         <v>Ablssvntl</v>
       </c>
-      <c r="C133">
+      <c r="C133" s="6">
         <v>0</v>
       </c>
       <c r="D133" s="4">
@@ -4807,10 +4817,10 @@
       <c r="E133" t="s">
         <v>139</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="H133" s="8" t="str">
+      <c r="H133" s="7" t="str">
         <f t="shared" ref="H133:H196" si="5">"&lt;mapping Id="""&amp;A133&amp;""" Shortname="""&amp;B133&amp;""" Duration="""&amp;C133&amp;""" FunctionTypeCS2="""&amp;E133&amp;""" FunctionTypeZ21="""&amp;F133&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="130" Shortname="Ablssvntl" Duration="0" FunctionTypeCS2="Ablassventil" FunctionTypeZ21="drain_valve" /&gt;</v>
       </c>
@@ -4819,11 +4829,11 @@
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="B134" t="str">
+      <c r="B134" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Wrnmldngn</v>
       </c>
-      <c r="C134">
+      <c r="C134" s="6">
         <v>0</v>
       </c>
       <c r="D134" s="4">
@@ -4832,8 +4842,8 @@
       <c r="E134" t="s">
         <v>140</v>
       </c>
-      <c r="F134" s="7"/>
-      <c r="H134" s="8" t="str">
+      <c r="F134" s="6"/>
+      <c r="H134" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="131" Shortname="Wrnmldngn" Duration="0" FunctionTypeCS2="Warnmeldungen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4842,11 +4852,11 @@
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="B135" t="str">
+      <c r="B135" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Fhrrstndsg</v>
       </c>
-      <c r="C135">
+      <c r="C135" s="6">
         <v>0</v>
       </c>
       <c r="D135" s="4">
@@ -4855,8 +4865,8 @@
       <c r="E135" t="s">
         <v>141</v>
       </c>
-      <c r="F135" s="7"/>
-      <c r="H135" s="8" t="str">
+      <c r="F135" s="6"/>
+      <c r="H135" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="132" Shortname="Fhrrstndsg" Duration="0" FunctionTypeCS2="Fuehrerstandsgespraech" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4865,11 +4875,11 @@
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="B136" t="str">
+      <c r="B136" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Infrmtnsdr</v>
       </c>
-      <c r="C136">
+      <c r="C136" s="6">
         <v>0</v>
       </c>
       <c r="D136" s="4">
@@ -4878,8 +4888,8 @@
       <c r="E136" t="s">
         <v>142</v>
       </c>
-      <c r="F136" s="7"/>
-      <c r="H136" s="8" t="str">
+      <c r="F136" s="6"/>
+      <c r="H136" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="133" Shortname="Infrmtnsdr" Duration="0" FunctionTypeCS2="Informationsdurchsage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4888,11 +4898,11 @@
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="B137" t="str">
+      <c r="B137" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Snstg_Pmp</v>
       </c>
-      <c r="C137">
+      <c r="C137" s="6">
         <v>0</v>
       </c>
       <c r="D137" s="4">
@@ -4901,8 +4911,8 @@
       <c r="E137" t="s">
         <v>143</v>
       </c>
-      <c r="F137" s="7"/>
-      <c r="H137" s="8" t="str">
+      <c r="F137" s="6"/>
+      <c r="H137" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="134" Shortname="Snstg_Pmp" Duration="0" FunctionTypeCS2="Sonstige_Pumpe" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4911,11 +4921,11 @@
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="B138" t="str">
+      <c r="B138" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Kmbntn_sch</v>
       </c>
-      <c r="C138">
+      <c r="C138" s="6">
         <v>0</v>
       </c>
       <c r="D138" s="4">
@@ -4924,8 +4934,8 @@
       <c r="E138" t="s">
         <v>144</v>
       </c>
-      <c r="F138" s="7"/>
-      <c r="H138" s="8" t="str">
+      <c r="F138" s="6"/>
+      <c r="H138" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="135" Shortname="Kmbntn_sch" Duration="0" FunctionTypeCS2="Kombination_schaufeln_Feuerbuechse" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4934,11 +4944,11 @@
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="B139" t="str">
+      <c r="B139" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bwglchr_Sc</v>
       </c>
-      <c r="C139">
+      <c r="C139" s="6">
         <v>0</v>
       </c>
       <c r="D139" s="4">
@@ -4947,8 +4957,8 @@
       <c r="E139" t="s">
         <v>145</v>
       </c>
-      <c r="F139" s="7"/>
-      <c r="H139" s="8" t="str">
+      <c r="F139" s="6"/>
+      <c r="H139" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="136" Shortname="Bwglchr_Sc" Duration="0" FunctionTypeCS2="Beweglicher_Schaffner" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4957,11 +4967,11 @@
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="B140" t="str">
+      <c r="B140" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Fnstr_f_z</v>
       </c>
-      <c r="C140">
+      <c r="C140" s="6">
         <v>0</v>
       </c>
       <c r="D140" s="4">
@@ -4970,8 +4980,8 @@
       <c r="E140" t="s">
         <v>146</v>
       </c>
-      <c r="F140" s="7"/>
-      <c r="H140" s="8" t="str">
+      <c r="F140" s="6"/>
+      <c r="H140" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="137" Shortname="Fnstr_f_z" Duration="0" FunctionTypeCS2="Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -4980,11 +4990,11 @@
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="B141" t="str">
+      <c r="B141" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Fnst</v>
       </c>
-      <c r="C141">
+      <c r="C141" s="6">
         <v>0</v>
       </c>
       <c r="D141" s="4">
@@ -4993,8 +5003,8 @@
       <c r="E141" t="s">
         <v>147</v>
       </c>
-      <c r="F141" s="7"/>
-      <c r="H141" s="8" t="str">
+      <c r="F141" s="6"/>
+      <c r="H141" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="138" Shortname="Grsch_Fnst" Duration="0" FunctionTypeCS2="Geraeusch_Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5003,11 +5013,11 @@
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" t="str">
+      <c r="B142" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Drchsg_Trn</v>
       </c>
-      <c r="C142">
+      <c r="C142" s="6">
         <v>0</v>
       </c>
       <c r="D142" s="4">
@@ -5016,8 +5026,8 @@
       <c r="E142" t="s">
         <v>148</v>
       </c>
-      <c r="F142" s="7"/>
-      <c r="H142" s="8" t="str">
+      <c r="F142" s="6"/>
+      <c r="H142" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="139" Shortname="Drchsg_Trn" Duration="0" FunctionTypeCS2="Durchsage_Tueren_schlissen_rechts" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5026,11 +5036,11 @@
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="B143" t="str">
+      <c r="B143" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Ambnt_Stdt</v>
       </c>
-      <c r="C143">
+      <c r="C143" s="6">
         <v>0</v>
       </c>
       <c r="D143" s="4">
@@ -5039,8 +5049,8 @@
       <c r="E143" t="s">
         <v>149</v>
       </c>
-      <c r="F143" s="7"/>
-      <c r="H143" s="8" t="str">
+      <c r="F143" s="6"/>
+      <c r="H143" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="140" Shortname="Ambnt_Stdt" Duration="0" FunctionTypeCS2="Ambiente_Stadt" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5049,11 +5059,11 @@
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="B144" t="str">
+      <c r="B144" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Ambnt_Tnnl</v>
       </c>
-      <c r="C144">
+      <c r="C144" s="6">
         <v>0</v>
       </c>
       <c r="D144" s="4">
@@ -5062,8 +5072,8 @@
       <c r="E144" t="s">
         <v>150</v>
       </c>
-      <c r="F144" s="7"/>
-      <c r="H144" s="8" t="str">
+      <c r="F144" s="6"/>
+      <c r="H144" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="141" Shortname="Ambnt_Tnnl" Duration="0" FunctionTypeCS2="Ambiente_Tunnel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5072,11 +5082,11 @@
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="B145" t="str">
+      <c r="B145" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Ambnt_Sthl</v>
       </c>
-      <c r="C145">
+      <c r="C145" s="6">
         <v>0</v>
       </c>
       <c r="D145" s="4">
@@ -5085,8 +5095,8 @@
       <c r="E145" t="s">
         <v>151</v>
       </c>
-      <c r="F145" s="7"/>
-      <c r="H145" s="8" t="str">
+      <c r="F145" s="6"/>
+      <c r="H145" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="142" Shortname="Ambnt_Sthl" Duration="0" FunctionTypeCS2="Ambiente_Stahlbruecke" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5095,11 +5105,11 @@
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="B146" t="str">
+      <c r="B146" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Ambnt_Btnb</v>
       </c>
-      <c r="C146">
+      <c r="C146" s="6">
         <v>0</v>
       </c>
       <c r="D146" s="4">
@@ -5108,8 +5118,8 @@
       <c r="E146" t="s">
         <v>152</v>
       </c>
-      <c r="F146" s="7"/>
-      <c r="H146" s="8" t="str">
+      <c r="F146" s="6"/>
+      <c r="H146" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="143" Shortname="Ambnt_Btnb" Duration="0" FunctionTypeCS2="Ambiente_Betonbruecke" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5118,11 +5128,11 @@
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="B147" t="str">
+      <c r="B147" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Klpp</v>
       </c>
-      <c r="C147">
+      <c r="C147" s="6">
         <v>0</v>
       </c>
       <c r="D147" s="4">
@@ -5131,8 +5141,8 @@
       <c r="E147" t="s">
         <v>153</v>
       </c>
-      <c r="F147" s="7"/>
-      <c r="H147" s="8" t="str">
+      <c r="F147" s="6"/>
+      <c r="H147" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="144" Shortname="Grsch_Klpp" Duration="0" FunctionTypeCS2="Geraeusch_Klapptuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5141,11 +5151,11 @@
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="B148" t="str">
+      <c r="B148" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Tr</v>
       </c>
-      <c r="C148">
+      <c r="C148" s="6">
         <v>0</v>
       </c>
       <c r="D148" s="4">
@@ -5154,8 +5164,8 @@
       <c r="E148" t="s">
         <v>154</v>
       </c>
-      <c r="F148" s="7"/>
-      <c r="H148" s="8" t="str">
+      <c r="F148" s="6"/>
+      <c r="H148" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="145" Shortname="Grsch_Tr" Duration="0" FunctionTypeCS2="Geraeusch_Tuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5164,11 +5174,11 @@
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="B149" t="str">
+      <c r="B149" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Fllt</v>
       </c>
-      <c r="C149">
+      <c r="C149" s="6">
         <v>0</v>
       </c>
       <c r="D149" s="4">
@@ -5177,8 +5187,8 @@
       <c r="E149" t="s">
         <v>155</v>
       </c>
-      <c r="F149" s="7"/>
-      <c r="H149" s="8" t="str">
+      <c r="F149" s="6"/>
+      <c r="H149" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="146" Shortname="Grsch_Fllt" Duration="0" FunctionTypeCS2="Geraeusch_Falltuere" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5187,11 +5197,11 @@
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="B150" t="str">
+      <c r="B150" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Glck_krz</v>
       </c>
-      <c r="C150">
+      <c r="C150" s="6">
         <v>0</v>
       </c>
       <c r="D150" s="4">
@@ -5200,8 +5210,8 @@
       <c r="E150" t="s">
         <v>156</v>
       </c>
-      <c r="F150" s="7"/>
-      <c r="H150" s="8" t="str">
+      <c r="F150" s="6"/>
+      <c r="H150" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="147" Shortname="Glck_krz" Duration="0" FunctionTypeCS2="Glocke_kurz" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5210,11 +5220,11 @@
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="B151" t="str">
+      <c r="B151" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Rllt</v>
       </c>
-      <c r="C151">
+      <c r="C151" s="6">
         <v>0</v>
       </c>
       <c r="D151" s="4">
@@ -5223,8 +5233,8 @@
       <c r="E151" t="s">
         <v>157</v>
       </c>
-      <c r="F151" s="7"/>
-      <c r="H151" s="8" t="str">
+      <c r="F151" s="6"/>
+      <c r="H151" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="148" Shortname="Grsch_Rllt" Duration="0" FunctionTypeCS2="Geraeusch_Rolltor" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5233,11 +5243,11 @@
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="B152" t="str">
+      <c r="B152" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Grsch_Schb</v>
       </c>
-      <c r="C152">
+      <c r="C152" s="6">
         <v>0</v>
       </c>
       <c r="D152" s="4">
@@ -5246,8 +5256,8 @@
       <c r="E152" t="s">
         <v>158</v>
       </c>
-      <c r="F152" s="7"/>
-      <c r="H152" s="8" t="str">
+      <c r="F152" s="6"/>
+      <c r="H152" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="149" Shortname="Grsch_Schb" Duration="0" FunctionTypeCS2="Geraeusch_Schiebetuer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5256,11 +5266,11 @@
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="B153" t="str">
+      <c r="B153" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Dampfstoss</v>
       </c>
-      <c r="C153">
+      <c r="C153" s="6">
         <v>0</v>
       </c>
       <c r="D153" s="4">
@@ -5269,8 +5279,8 @@
       <c r="E153" t="s">
         <v>159</v>
       </c>
-      <c r="F153" s="7"/>
-      <c r="H153" s="8" t="str">
+      <c r="F153" s="6"/>
+      <c r="H153" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="150" Shortname="Dampfstoss" Duration="0" FunctionTypeCS2="Dampfstoss" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5279,11 +5289,11 @@
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="B154" t="str">
+      <c r="B154" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Dslhzng</v>
       </c>
-      <c r="C154">
+      <c r="C154" s="6">
         <v>0</v>
       </c>
       <c r="D154" s="4">
@@ -5292,8 +5302,8 @@
       <c r="E154" t="s">
         <v>160</v>
       </c>
-      <c r="F154" s="7"/>
-      <c r="H154" s="8" t="str">
+      <c r="F154" s="6"/>
+      <c r="H154" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="151" Shortname="Dslhzng" Duration="0" FunctionTypeCS2="Dieselheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5302,11 +5312,11 @@
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="B155" t="str">
+      <c r="B155" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zugheizung</v>
       </c>
-      <c r="C155">
+      <c r="C155" s="6">
         <v>0</v>
       </c>
       <c r="D155" s="4">
@@ -5315,8 +5325,8 @@
       <c r="E155" t="s">
         <v>161</v>
       </c>
-      <c r="F155" s="7"/>
-      <c r="H155" s="8" t="str">
+      <c r="F155" s="6"/>
+      <c r="H155" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="152" Shortname="Zugheizung" Duration="0" FunctionTypeCS2="Zugheizung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5325,11 +5335,11 @@
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="B156" t="str">
+      <c r="B156" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Segeln</v>
       </c>
-      <c r="C156">
+      <c r="C156" s="6">
         <v>0</v>
       </c>
       <c r="D156" s="4">
@@ -5338,8 +5348,8 @@
       <c r="E156" t="s">
         <v>162</v>
       </c>
-      <c r="F156" s="7"/>
-      <c r="H156" s="8" t="str">
+      <c r="F156" s="6"/>
+      <c r="H156" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="153" Shortname="Segeln" Duration="0" FunctionTypeCS2="Segeln" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5348,11 +5358,11 @@
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" t="str">
+      <c r="B157" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zg_Infnsg</v>
       </c>
-      <c r="C157">
+      <c r="C157" s="6">
         <v>0</v>
       </c>
       <c r="D157" s="4">
@@ -5361,10 +5371,10 @@
       <c r="E157" t="s">
         <v>163</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="H157" s="8" t="str">
+      <c r="H157" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="154" Shortname="Zg_Infnsg" Duration="0" FunctionTypeCS2="Zug_Infoansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
@@ -5373,11 +5383,11 @@
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="B158" t="str">
+      <c r="B158" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Sndrnsg</v>
       </c>
-      <c r="C158">
+      <c r="C158" s="6">
         <v>0</v>
       </c>
       <c r="D158" s="4">
@@ -5386,8 +5396,8 @@
       <c r="E158" t="s">
         <v>164</v>
       </c>
-      <c r="F158" s="7"/>
-      <c r="H158" s="8" t="str">
+      <c r="F158" s="6"/>
+      <c r="H158" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="155" Shortname="Sndrnsg" Duration="0" FunctionTypeCS2="Sonderansage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5396,11 +5406,11 @@
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="B159" t="str">
+      <c r="B159" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Wrtnd_Pssg</v>
       </c>
-      <c r="C159">
+      <c r="C159" s="6">
         <v>0</v>
       </c>
       <c r="D159" s="4">
@@ -5409,8 +5419,8 @@
       <c r="E159" t="s">
         <v>165</v>
       </c>
-      <c r="F159" s="7"/>
-      <c r="H159" s="8" t="str">
+      <c r="F159" s="6"/>
+      <c r="H159" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="156" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeCS2="Wartende_Passagiere_am_Bahnhof" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5419,11 +5429,11 @@
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="B160" t="str">
+      <c r="B160" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Bocksprung</v>
       </c>
-      <c r="C160">
+      <c r="C160" s="6">
         <v>0</v>
       </c>
       <c r="D160" s="4">
@@ -5432,8 +5442,8 @@
       <c r="E160" t="s">
         <v>166</v>
       </c>
-      <c r="F160" s="7"/>
-      <c r="H160" s="8" t="str">
+      <c r="F160" s="6"/>
+      <c r="H160" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="157" Shortname="Bocksprung" Duration="0" FunctionTypeCS2="Bocksprung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5442,11 +5452,11 @@
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="B161" t="str">
+      <c r="B161" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Drchsg_Trn</v>
       </c>
-      <c r="C161">
+      <c r="C161" s="6">
         <v>0</v>
       </c>
       <c r="D161" s="4">
@@ -5455,8 +5465,8 @@
       <c r="E161" t="s">
         <v>167</v>
       </c>
-      <c r="F161" s="7"/>
-      <c r="H161" s="8" t="str">
+      <c r="F161" s="6"/>
+      <c r="H161" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="158" Shortname="Drchsg_Trn" Duration="0" FunctionTypeCS2="Durchsage_Tueren_schlissen_links" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5465,11 +5475,11 @@
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="B162" t="str">
+      <c r="B162" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zuggattung</v>
       </c>
-      <c r="C162">
+      <c r="C162" s="6">
         <v>0</v>
       </c>
       <c r="D162" s="4">
@@ -5478,8 +5488,8 @@
       <c r="E162" t="s">
         <v>168</v>
       </c>
-      <c r="F162" s="7"/>
-      <c r="H162" s="8" t="str">
+      <c r="F162" s="6"/>
+      <c r="H162" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="159" Shortname="Zuggattung" Duration="0" FunctionTypeCS2="Zuggattung" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5488,11 +5498,11 @@
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="B163" t="str">
+      <c r="B163" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zgdrchsg</v>
       </c>
-      <c r="C163">
+      <c r="C163" s="6">
         <v>0</v>
       </c>
       <c r="D163" s="4">
@@ -5501,8 +5511,8 @@
       <c r="E163" t="s">
         <v>169</v>
       </c>
-      <c r="F163" s="7"/>
-      <c r="H163" s="8" t="str">
+      <c r="F163" s="6"/>
+      <c r="H163" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="160" Shortname="Zgdrchsg" Duration="0" FunctionTypeCS2="Zugdurchsage" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5511,11 +5521,11 @@
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="B164" t="str">
+      <c r="B164" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Wrnblnklch</v>
       </c>
-      <c r="C164">
+      <c r="C164" s="6">
         <v>0</v>
       </c>
       <c r="D164" s="4">
@@ -5524,10 +5534,10 @@
       <c r="E164" t="s">
         <v>170</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="H164" s="8" t="str">
+      <c r="H164" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="161" Shortname="Wrnblnklch" Duration="0" FunctionTypeCS2="Warnblinklicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
@@ -5536,11 +5546,11 @@
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="B165" t="str">
+      <c r="B165" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Play</v>
       </c>
-      <c r="C165">
+      <c r="C165" s="6">
         <v>0</v>
       </c>
       <c r="D165" s="4">
@@ -5549,8 +5559,8 @@
       <c r="E165" t="s">
         <v>171</v>
       </c>
-      <c r="F165" s="7"/>
-      <c r="H165" s="8" t="str">
+      <c r="F165" s="6"/>
+      <c r="H165" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="162" Shortname="Play" Duration="0" FunctionTypeCS2="Play" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5559,11 +5569,11 @@
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="B166" t="str">
+      <c r="B166" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Pause</v>
       </c>
-      <c r="C166">
+      <c r="C166" s="6">
         <v>0</v>
       </c>
       <c r="D166" s="4">
@@ -5572,8 +5582,8 @@
       <c r="E166" t="s">
         <v>172</v>
       </c>
-      <c r="F166" s="7"/>
-      <c r="H166" s="8" t="str">
+      <c r="F166" s="6"/>
+      <c r="H166" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="163" Shortname="Pause" Duration="0" FunctionTypeCS2="Pause" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5582,11 +5592,11 @@
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="B167" t="str">
+      <c r="B167" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Vor</v>
       </c>
-      <c r="C167">
+      <c r="C167" s="6">
         <v>0</v>
       </c>
       <c r="D167" s="4">
@@ -5595,8 +5605,8 @@
       <c r="E167" t="s">
         <v>173</v>
       </c>
-      <c r="F167" s="7"/>
-      <c r="H167" s="8" t="str">
+      <c r="F167" s="6"/>
+      <c r="H167" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="164" Shortname="Vor" Duration="0" FunctionTypeCS2="Vor" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5605,11 +5615,11 @@
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="B168" t="str">
+      <c r="B168" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zurueck</v>
       </c>
-      <c r="C168">
+      <c r="C168" s="6">
         <v>0</v>
       </c>
       <c r="D168" s="4">
@@ -5618,8 +5628,8 @@
       <c r="E168" t="s">
         <v>174</v>
       </c>
-      <c r="F168" s="7"/>
-      <c r="H168" s="8" t="str">
+      <c r="F168" s="6"/>
+      <c r="H168" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="165" Shortname="Zurueck" Duration="0" FunctionTypeCS2="Zurueck" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5628,11 +5638,11 @@
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="B169" t="str">
+      <c r="B169" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Laut</v>
       </c>
-      <c r="C169">
+      <c r="C169" s="6">
         <v>0</v>
       </c>
       <c r="D169" s="4">
@@ -5641,10 +5651,10 @@
       <c r="E169" t="s">
         <v>175</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="H169" s="8" t="str">
+      <c r="H169" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="166" Shortname="Laut" Duration="0" FunctionTypeCS2="Laut" FunctionTypeZ21="louder" /&gt;</v>
       </c>
@@ -5653,11 +5663,11 @@
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="B170" t="str">
+      <c r="B170" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Leise</v>
       </c>
-      <c r="C170">
+      <c r="C170" s="6">
         <v>0</v>
       </c>
       <c r="D170" s="4">
@@ -5666,10 +5676,10 @@
       <c r="E170" t="s">
         <v>176</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="H170" s="8" t="str">
+      <c r="H170" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="167" Shortname="Leise" Duration="0" FunctionTypeCS2="Leise" FunctionTypeZ21="quieter" /&gt;</v>
       </c>
@@ -5678,11 +5688,11 @@
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="B171" t="str">
+      <c r="B171" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Lcht_Abtl</v>
       </c>
-      <c r="C171">
+      <c r="C171" s="6">
         <v>0</v>
       </c>
       <c r="D171" s="4">
@@ -5691,8 +5701,8 @@
       <c r="E171" t="s">
         <v>177</v>
       </c>
-      <c r="F171" s="7"/>
-      <c r="H171" s="8" t="str">
+      <c r="F171" s="6"/>
+      <c r="H171" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="168" Shortname="Lcht_Abtl" Duration="0" FunctionTypeCS2="Licht_Abteile" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5701,11 +5711,11 @@
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="B172" t="str">
+      <c r="B172" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Licht_Gang</v>
       </c>
-      <c r="C172">
+      <c r="C172" s="6">
         <v>0</v>
       </c>
       <c r="D172" s="4">
@@ -5714,8 +5724,8 @@
       <c r="E172" t="s">
         <v>178</v>
       </c>
-      <c r="F172" s="7"/>
-      <c r="H172" s="8" t="str">
+      <c r="F172" s="6"/>
+      <c r="H172" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="169" Shortname="Licht_Gang" Duration="0" FunctionTypeCS2="Licht_Gang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5724,11 +5734,11 @@
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="B173" t="str">
+      <c r="B173" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Lcht_Kch</v>
       </c>
-      <c r="C173">
+      <c r="C173" s="6">
         <v>0</v>
       </c>
       <c r="D173" s="4">
@@ -5737,8 +5747,8 @@
       <c r="E173" t="s">
         <v>179</v>
       </c>
-      <c r="F173" s="7"/>
-      <c r="H173" s="8" t="str">
+      <c r="F173" s="6"/>
+      <c r="H173" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="170" Shortname="Lcht_Kch" Duration="0" FunctionTypeCS2="Licht_Kueche" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5747,11 +5757,11 @@
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="B174" t="str">
+      <c r="B174" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Lcht_Gpck</v>
       </c>
-      <c r="C174">
+      <c r="C174" s="6">
         <v>0</v>
       </c>
       <c r="D174" s="4">
@@ -5760,8 +5770,8 @@
       <c r="E174" t="s">
         <v>180</v>
       </c>
-      <c r="F174" s="7"/>
-      <c r="H174" s="8" t="str">
+      <c r="F174" s="6"/>
+      <c r="H174" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="171" Shortname="Lcht_Gpck" Duration="0" FunctionTypeCS2="Licht_Gepaeck" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5770,11 +5780,11 @@
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="B175" t="str">
+      <c r="B175" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Licht_Bar</v>
       </c>
-      <c r="C175">
+      <c r="C175" s="6">
         <v>0</v>
       </c>
       <c r="D175" s="4">
@@ -5783,8 +5793,8 @@
       <c r="E175" t="s">
         <v>181</v>
       </c>
-      <c r="F175" s="7"/>
-      <c r="H175" s="8" t="str">
+      <c r="F175" s="6"/>
+      <c r="H175" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="172" Shortname="Licht_Bar" Duration="0" FunctionTypeCS2="Licht_Bar" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5793,11 +5803,11 @@
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="B176" t="str">
+      <c r="B176" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Tanken</v>
       </c>
-      <c r="C176">
+      <c r="C176" s="6">
         <v>0</v>
       </c>
       <c r="D176" s="4">
@@ -5806,8 +5816,8 @@
       <c r="E176" t="s">
         <v>182</v>
       </c>
-      <c r="F176" s="7"/>
-      <c r="H176" s="8" t="str">
+      <c r="F176" s="6"/>
+      <c r="H176" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="173" Shortname="Tanken" Duration="0" FunctionTypeCS2="Tanken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5816,11 +5826,11 @@
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="B177" t="str">
+      <c r="B177" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Wasser</v>
       </c>
-      <c r="C177">
+      <c r="C177" s="6">
         <v>0</v>
       </c>
       <c r="D177" s="4">
@@ -5829,8 +5839,8 @@
       <c r="E177" t="s">
         <v>183</v>
       </c>
-      <c r="F177" s="7"/>
-      <c r="H177" s="8" t="str">
+      <c r="F177" s="6"/>
+      <c r="H177" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="174" Shortname="Wasser" Duration="0" FunctionTypeCS2="Wasser" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5839,11 +5849,11 @@
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="B178" t="str">
+      <c r="B178" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Diesel</v>
       </c>
-      <c r="C178">
+      <c r="C178" s="6">
         <v>0</v>
       </c>
       <c r="D178" s="4">
@@ -5852,8 +5862,8 @@
       <c r="E178" t="s">
         <v>184</v>
       </c>
-      <c r="F178" s="7"/>
-      <c r="H178" s="8" t="str">
+      <c r="F178" s="6"/>
+      <c r="H178" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="175" Shortname="Diesel" Duration="0" FunctionTypeCS2="Diesel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5862,11 +5872,11 @@
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="B179" t="str">
+      <c r="B179" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Kohle</v>
       </c>
-      <c r="C179">
+      <c r="C179" s="6">
         <v>0</v>
       </c>
       <c r="D179" s="4">
@@ -5875,8 +5885,8 @@
       <c r="E179" t="s">
         <v>185</v>
       </c>
-      <c r="F179" s="7"/>
-      <c r="H179" s="8" t="str">
+      <c r="F179" s="6"/>
+      <c r="H179" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="176" Shortname="Kohle" Duration="0" FunctionTypeCS2="Kohle" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5885,11 +5895,11 @@
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="B180" t="str">
+      <c r="B180" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Khlstb_2</v>
       </c>
-      <c r="C180">
+      <c r="C180" s="6">
         <v>0</v>
       </c>
       <c r="D180" s="4">
@@ -5898,8 +5908,8 @@
       <c r="E180" t="s">
         <v>186</v>
       </c>
-      <c r="F180" s="7"/>
-      <c r="H180" s="8" t="str">
+      <c r="F180" s="6"/>
+      <c r="H180" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="177" Shortname="Khlstb_2" Duration="0" FunctionTypeCS2="Kohlestaub_2" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5908,11 +5918,11 @@
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="B181" t="str">
+      <c r="B181" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Oel</v>
       </c>
-      <c r="C181">
+      <c r="C181" s="6">
         <v>0</v>
       </c>
       <c r="D181" s="4">
@@ -5921,8 +5931,8 @@
       <c r="E181" t="s">
         <v>187</v>
       </c>
-      <c r="F181" s="7"/>
-      <c r="H181" s="8" t="str">
+      <c r="F181" s="6"/>
+      <c r="H181" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="178" Shortname="Oel" Duration="0" FunctionTypeCS2="Oel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5931,11 +5941,11 @@
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="B182" t="str">
+      <c r="B182" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Sand</v>
       </c>
-      <c r="C182">
+      <c r="C182" s="6">
         <v>0</v>
       </c>
       <c r="D182" s="4">
@@ -5944,8 +5954,8 @@
       <c r="E182" t="s">
         <v>188</v>
       </c>
-      <c r="F182" s="7"/>
-      <c r="H182" s="8" t="str">
+      <c r="F182" s="6"/>
+      <c r="H182" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="179" Shortname="Sand" Duration="0" FunctionTypeCS2="Sand" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -5954,11 +5964,11 @@
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="B183" t="str">
+      <c r="B183" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Schwzr_Lch</v>
       </c>
-      <c r="C183">
+      <c r="C183" s="6">
         <v>0</v>
       </c>
       <c r="D183" s="4">
@@ -5967,10 +5977,10 @@
       <c r="E183" t="s">
         <v>189</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="H183" s="8" t="str">
+      <c r="H183" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="180" Shortname="Schwzr_Lch" Duration="0" FunctionTypeCS2="Schweizer_Lichtwechsel" FunctionTypeZ21="coach_side_light_off" /&gt;</v>
       </c>
@@ -5979,11 +5989,11 @@
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="B184" t="str">
+      <c r="B184" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Ansg_Pfff_</v>
       </c>
-      <c r="C184">
+      <c r="C184" s="6">
         <v>0</v>
       </c>
       <c r="D184" s="4">
@@ -5992,8 +6002,8 @@
       <c r="E184" t="s">
         <v>190</v>
       </c>
-      <c r="F184" s="7"/>
-      <c r="H184" s="8" t="str">
+      <c r="F184" s="6"/>
+      <c r="H184" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="181" Shortname="Ansg_Pfff_" Duration="0" FunctionTypeCS2="Ansage_Pfiff_mit_Tuerschliessen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6002,11 +6012,11 @@
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="B185" t="str">
+      <c r="B185" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zufall_Aus</v>
       </c>
-      <c r="C185">
+      <c r="C185" s="6">
         <v>0</v>
       </c>
       <c r="D185" s="4">
@@ -6015,8 +6025,8 @@
       <c r="E185" t="s">
         <v>191</v>
       </c>
-      <c r="F185" s="7"/>
-      <c r="H185" s="8" t="str">
+      <c r="F185" s="6"/>
+      <c r="H185" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="182" Shortname="Zufall_Aus" Duration="0" FunctionTypeCS2="Zufall_Aus" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6025,11 +6035,11 @@
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="B186" t="str">
+      <c r="B186" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Sifataster</v>
       </c>
-      <c r="C186">
+      <c r="C186" s="6">
         <v>0</v>
       </c>
       <c r="D186" s="4">
@@ -6038,8 +6048,8 @@
       <c r="E186" t="s">
         <v>192</v>
       </c>
-      <c r="F186" s="7"/>
-      <c r="H186" s="8" t="str">
+      <c r="F186" s="6"/>
+      <c r="H186" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="183" Shortname="Sifataster" Duration="0" FunctionTypeCS2="Sifataster" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6048,11 +6058,11 @@
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="B187" t="str">
+      <c r="B187" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Not_Aus</v>
       </c>
-      <c r="C187">
+      <c r="C187" s="6">
         <v>0</v>
       </c>
       <c r="D187" s="4">
@@ -6061,8 +6071,8 @@
       <c r="E187" t="s">
         <v>193</v>
       </c>
-      <c r="F187" s="7"/>
-      <c r="H187" s="8" t="str">
+      <c r="F187" s="6"/>
+      <c r="H187" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="184" Shortname="Not_Aus" Duration="0" FunctionTypeCS2="Not_Aus" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6071,11 +6081,11 @@
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="B188" t="str">
+      <c r="B188" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Schalter</v>
       </c>
-      <c r="C188">
+      <c r="C188" s="6">
         <v>0</v>
       </c>
       <c r="D188" s="4">
@@ -6084,8 +6094,8 @@
       <c r="E188" t="s">
         <v>194</v>
       </c>
-      <c r="F188" s="7"/>
-      <c r="H188" s="8" t="str">
+      <c r="F188" s="6"/>
+      <c r="H188" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="185" Shortname="Schalter" Duration="0" FunctionTypeCS2="Schalter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6094,11 +6104,11 @@
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="B189" t="str">
+      <c r="B189" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Kppschltr</v>
       </c>
-      <c r="C189">
+      <c r="C189" s="6">
         <v>0</v>
       </c>
       <c r="D189" s="4">
@@ -6107,8 +6117,8 @@
       <c r="E189" t="s">
         <v>195</v>
       </c>
-      <c r="F189" s="7"/>
-      <c r="H189" s="8" t="str">
+      <c r="F189" s="6"/>
+      <c r="H189" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="186" Shortname="Kppschltr" Duration="0" FunctionTypeCS2="Kippschlater" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6117,11 +6127,11 @@
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="B190" t="str">
+      <c r="B190" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Drhschltr</v>
       </c>
-      <c r="C190">
+      <c r="C190" s="6">
         <v>0</v>
       </c>
       <c r="D190" s="4">
@@ -6130,8 +6140,8 @@
       <c r="E190" t="s">
         <v>196</v>
       </c>
-      <c r="F190" s="7"/>
-      <c r="H190" s="8" t="str">
+      <c r="F190" s="6"/>
+      <c r="H190" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="187" Shortname="Drhschltr" Duration="0" FunctionTypeCS2="Drehschalter" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6140,11 +6150,11 @@
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="B191" t="str">
+      <c r="B191" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Not_Halt</v>
       </c>
-      <c r="C191">
+      <c r="C191" s="6">
         <v>0</v>
       </c>
       <c r="D191" s="4">
@@ -6153,8 +6163,8 @@
       <c r="E191" t="s">
         <v>197</v>
       </c>
-      <c r="F191" s="7"/>
-      <c r="H191" s="8" t="str">
+      <c r="F191" s="6"/>
+      <c r="H191" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="188" Shortname="Not_Halt" Duration="0" FunctionTypeCS2="Not_Halt" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6163,11 +6173,11 @@
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="B192" t="str">
+      <c r="B192" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Snd_Zhnrd</v>
       </c>
-      <c r="C192">
+      <c r="C192" s="6">
         <v>0</v>
       </c>
       <c r="D192" s="4">
@@ -6176,8 +6186,8 @@
       <c r="E192" t="s">
         <v>198</v>
       </c>
-      <c r="F192" s="7"/>
-      <c r="H192" s="8" t="str">
+      <c r="F192" s="6"/>
+      <c r="H192" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="189" Shortname="Snd_Zhnrd" Duration="0" FunctionTypeCS2="Sound_Zahnrad" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6186,11 +6196,11 @@
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="B193" t="str">
+      <c r="B193" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Klckrn_Tch</v>
       </c>
-      <c r="C193">
+      <c r="C193" s="6">
         <v>0</v>
       </c>
       <c r="D193" s="4">
@@ -6199,8 +6209,8 @@
       <c r="E193" t="s">
         <v>199</v>
       </c>
-      <c r="F193" s="7"/>
-      <c r="H193" s="8" t="str">
+      <c r="F193" s="6"/>
+      <c r="H193" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="190" Shortname="Klckrn_Tch" Duration="0" FunctionTypeCS2="Klackern_Tacho" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6209,11 +6219,11 @@
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="B194" t="str">
+      <c r="B194" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Snd_Wschr</v>
       </c>
-      <c r="C194">
+      <c r="C194" s="6">
         <v>0</v>
       </c>
       <c r="D194" s="4">
@@ -6222,8 +6232,8 @@
       <c r="E194" t="s">
         <v>200</v>
       </c>
-      <c r="F194" s="7"/>
-      <c r="H194" s="8" t="str">
+      <c r="F194" s="6"/>
+      <c r="H194" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="191" Shortname="Snd_Wschr" Duration="0" FunctionTypeCS2="Sound_Wischer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6232,11 +6242,11 @@
       <c r="A195">
         <v>192</v>
       </c>
-      <c r="B195" t="str">
+      <c r="B195" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Zhnrd_Antr</v>
       </c>
-      <c r="C195">
+      <c r="C195" s="6">
         <v>0</v>
       </c>
       <c r="D195" s="4">
@@ -6245,8 +6255,8 @@
       <c r="E195" t="s">
         <v>201</v>
       </c>
-      <c r="F195" s="7"/>
-      <c r="H195" s="8" t="str">
+      <c r="F195" s="6"/>
+      <c r="H195" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="192" Shortname="Zhnrd_Antr" Duration="0" FunctionTypeCS2="Zahnrad_Antrieb" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6255,11 +6265,11 @@
       <c r="A196">
         <v>193</v>
       </c>
-      <c r="B196" t="str">
+      <c r="B196" s="6" t="str">
         <f t="shared" si="4"/>
         <v>Wischer</v>
       </c>
-      <c r="C196">
+      <c r="C196" s="6">
         <v>0</v>
       </c>
       <c r="D196" s="4">
@@ -6268,8 +6278,8 @@
       <c r="E196" t="s">
         <v>202</v>
       </c>
-      <c r="F196" s="7"/>
-      <c r="H196" s="8" t="str">
+      <c r="F196" s="6"/>
+      <c r="H196" s="7" t="str">
         <f t="shared" si="5"/>
         <v>&lt;mapping Id="193" Shortname="Wischer" Duration="0" FunctionTypeCS2="Wischer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6278,11 +6288,11 @@
       <c r="A197">
         <v>194</v>
       </c>
-      <c r="B197" t="str">
+      <c r="B197" s="6" t="str">
         <f t="shared" ref="B197:B234" si="6">IF(LEN(E197)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E197,"a",""),"e",""),"i",""),"o",""),"u",""),10),E197)</f>
         <v>Abschlmmn_</v>
       </c>
-      <c r="C197">
+      <c r="C197" s="6">
         <v>0</v>
       </c>
       <c r="D197" s="4">
@@ -6291,8 +6301,8 @@
       <c r="E197" t="s">
         <v>203</v>
       </c>
-      <c r="F197" s="7"/>
-      <c r="H197" s="8" t="str">
+      <c r="F197" s="6"/>
+      <c r="H197" s="7" t="str">
         <f t="shared" ref="H197:H234" si="7">"&lt;mapping Id="""&amp;A197&amp;""" Shortname="""&amp;B197&amp;""" Duration="""&amp;C197&amp;""" FunctionTypeCS2="""&amp;E197&amp;""" FunctionTypeZ21="""&amp;F197&amp;""" /&gt;"</f>
         <v>&lt;mapping Id="194" Shortname="Abschlmmn_" Duration="0" FunctionTypeCS2="Abschlammen_Schlaemmen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6301,11 +6311,11 @@
       <c r="A198">
         <v>195</v>
       </c>
-      <c r="B198" t="str">
+      <c r="B198" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Glck_lng</v>
       </c>
-      <c r="C198">
+      <c r="C198" s="6">
         <v>0</v>
       </c>
       <c r="D198" s="4">
@@ -6314,8 +6324,8 @@
       <c r="E198" t="s">
         <v>204</v>
       </c>
-      <c r="F198" s="7"/>
-      <c r="H198" s="8" t="str">
+      <c r="F198" s="6"/>
+      <c r="H198" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="195" Shortname="Glck_lng" Duration="0" FunctionTypeCS2="Glocke_lang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6324,11 +6334,11 @@
       <c r="A199">
         <v>196</v>
       </c>
-      <c r="B199" t="str">
+      <c r="B199" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Horn_kurz</v>
       </c>
-      <c r="C199">
+      <c r="C199" s="6">
         <v>0</v>
       </c>
       <c r="D199" s="4">
@@ -6337,10 +6347,10 @@
       <c r="E199" t="s">
         <v>205</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="H199" s="8" t="str">
+      <c r="H199" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="196" Shortname="Horn_kurz" Duration="0" FunctionTypeCS2="Horn_kurz" FunctionTypeZ21="horn_high" /&gt;</v>
       </c>
@@ -6349,11 +6359,11 @@
       <c r="A200">
         <v>197</v>
       </c>
-      <c r="B200" t="str">
+      <c r="B200" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Horn_lang</v>
       </c>
-      <c r="C200">
+      <c r="C200" s="6">
         <v>0</v>
       </c>
       <c r="D200" s="4">
@@ -6362,10 +6372,10 @@
       <c r="E200" t="s">
         <v>206</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="H200" s="8" t="str">
+      <c r="H200" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="197" Shortname="Horn_lang" Duration="0" FunctionTypeCS2="Horn_lang" FunctionTypeZ21="horn_low" /&gt;</v>
       </c>
@@ -6374,11 +6384,11 @@
       <c r="A201">
         <v>198</v>
       </c>
-      <c r="B201" t="str">
+      <c r="B201" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Pff_krz</v>
       </c>
-      <c r="C201">
+      <c r="C201" s="6">
         <v>0</v>
       </c>
       <c r="D201" s="4">
@@ -6387,10 +6397,10 @@
       <c r="E201" t="s">
         <v>207</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="H201" s="8" t="str">
+      <c r="H201" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="198" Shortname="Pff_krz" Duration="0" FunctionTypeCS2="Pfeife_kurz" FunctionTypeZ21="whistle_short" /&gt;</v>
       </c>
@@ -6399,11 +6409,11 @@
       <c r="A202">
         <v>199</v>
       </c>
-      <c r="B202" t="str">
+      <c r="B202" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Pff_lng</v>
       </c>
-      <c r="C202">
+      <c r="C202" s="6">
         <v>0</v>
       </c>
       <c r="D202" s="4">
@@ -6412,10 +6422,10 @@
       <c r="E202" t="s">
         <v>208</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H202" s="8" t="str">
+      <c r="H202" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="199" Shortname="Pff_lng" Duration="0" FunctionTypeCS2="Pfeife_lang" FunctionTypeZ21="whistle_long" /&gt;</v>
       </c>
@@ -6424,11 +6434,11 @@
       <c r="A203">
         <v>200</v>
       </c>
-      <c r="B203" t="str">
+      <c r="B203" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Krn_En_Ums</v>
       </c>
-      <c r="C203">
+      <c r="C203" s="6">
         <v>0</v>
       </c>
       <c r="D203" s="4">
@@ -6437,8 +6447,8 @@
       <c r="E203" t="s">
         <v>209</v>
       </c>
-      <c r="F203" s="7"/>
-      <c r="H203" s="8" t="str">
+      <c r="F203" s="6"/>
+      <c r="H203" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="200" Shortname="Krn_En_Ums" Duration="0" FunctionTypeCS2="Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6447,11 +6457,11 @@
       <c r="A204">
         <v>201</v>
       </c>
-      <c r="B204" t="str">
+      <c r="B204" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Krn_As_Grn</v>
       </c>
-      <c r="C204">
+      <c r="C204" s="6">
         <v>0</v>
       </c>
       <c r="D204" s="4">
@@ -6460,8 +6470,8 @@
       <c r="E204" t="s">
         <v>210</v>
       </c>
-      <c r="F204" s="7"/>
-      <c r="H204" s="8" t="str">
+      <c r="F204" s="6"/>
+      <c r="H204" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="201" Shortname="Krn_As_Grn" Duration="0" FunctionTypeCS2="Kran_Aus_Grundstellung_anfahren" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6470,11 +6480,11 @@
       <c r="A205">
         <v>202</v>
       </c>
-      <c r="B205" t="str">
+      <c r="B205" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Kran_Haken</v>
       </c>
-      <c r="C205">
+      <c r="C205" s="6">
         <v>0</v>
       </c>
       <c r="D205" s="4">
@@ -6483,8 +6493,8 @@
       <c r="E205" t="s">
         <v>211</v>
       </c>
-      <c r="F205" s="7"/>
-      <c r="H205" s="8" t="str">
+      <c r="F205" s="6"/>
+      <c r="H205" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="202" Shortname="Kran_Haken" Duration="0" FunctionTypeCS2="Kran_Haken" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6493,11 +6503,11 @@
       <c r="A206">
         <v>203</v>
       </c>
-      <c r="B206" t="str">
+      <c r="B206" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Hammer</v>
       </c>
-      <c r="C206">
+      <c r="C206" s="6">
         <v>0</v>
       </c>
       <c r="D206" s="4">
@@ -6506,8 +6516,8 @@
       <c r="E206" t="s">
         <v>212</v>
       </c>
-      <c r="F206" s="7"/>
-      <c r="H206" s="8" t="str">
+      <c r="F206" s="6"/>
+      <c r="H206" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="203" Shortname="Hammer" Duration="0" FunctionTypeCS2="Hammer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6516,11 +6526,11 @@
       <c r="A207">
         <v>204</v>
       </c>
-      <c r="B207" t="str">
+      <c r="B207" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Saege</v>
       </c>
-      <c r="C207">
+      <c r="C207" s="6">
         <v>0</v>
       </c>
       <c r="D207" s="4">
@@ -6529,8 +6539,8 @@
       <c r="E207" t="s">
         <v>213</v>
       </c>
-      <c r="F207" s="7"/>
-      <c r="H207" s="8" t="str">
+      <c r="F207" s="6"/>
+      <c r="H207" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="204" Shortname="Saege" Duration="0" FunctionTypeCS2="Saege" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6539,11 +6549,11 @@
       <c r="A208">
         <v>205</v>
       </c>
-      <c r="B208" t="str">
+      <c r="B208" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bhrmschn_B</v>
       </c>
-      <c r="C208">
+      <c r="C208" s="6">
         <v>0</v>
       </c>
       <c r="D208" s="4">
@@ -6552,8 +6562,8 @@
       <c r="E208" t="s">
         <v>214</v>
       </c>
-      <c r="F208" s="7"/>
-      <c r="H208" s="8" t="str">
+      <c r="F208" s="6"/>
+      <c r="H208" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="205" Shortname="Bhrmschn_B" Duration="0" FunctionTypeCS2="Bohrmaschine_Bohrer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6562,11 +6572,11 @@
       <c r="A209">
         <v>206</v>
       </c>
-      <c r="B209" t="str">
+      <c r="B209" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Schwssgrt_</v>
       </c>
-      <c r="C209">
+      <c r="C209" s="6">
         <v>0</v>
       </c>
       <c r="D209" s="4">
@@ -6575,8 +6585,8 @@
       <c r="E209" t="s">
         <v>215</v>
       </c>
-      <c r="F209" s="7"/>
-      <c r="H209" s="8" t="str">
+      <c r="F209" s="6"/>
+      <c r="H209" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="206" Shortname="Schwssgrt_" Duration="0" FunctionTypeCS2="Schweissgeraet_Schweissen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6585,11 +6595,11 @@
       <c r="A210">
         <v>207</v>
       </c>
-      <c r="B210" t="str">
+      <c r="B210" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Schlfblck_</v>
       </c>
-      <c r="C210">
+      <c r="C210" s="6">
         <v>0</v>
       </c>
       <c r="D210" s="4">
@@ -6598,8 +6608,8 @@
       <c r="E210" t="s">
         <v>216</v>
       </c>
-      <c r="F210" s="7"/>
-      <c r="H210" s="8" t="str">
+      <c r="F210" s="6"/>
+      <c r="H210" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="207" Shortname="Schlfblck_" Duration="0" FunctionTypeCS2="Schleifblock_Schleifen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6608,11 +6618,11 @@
       <c r="A211">
         <v>208</v>
       </c>
-      <c r="B211" t="str">
+      <c r="B211" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Drhtbrst_B</v>
       </c>
-      <c r="C211">
+      <c r="C211" s="6">
         <v>0</v>
       </c>
       <c r="D211" s="4">
@@ -6621,8 +6631,8 @@
       <c r="E211" t="s">
         <v>217</v>
       </c>
-      <c r="F211" s="7"/>
-      <c r="H211" s="8" t="str">
+      <c r="F211" s="6"/>
+      <c r="H211" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="208" Shortname="Drhtbrst_B" Duration="0" FunctionTypeCS2="Drahtbuerste_Buersten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6631,11 +6641,11 @@
       <c r="A212">
         <v>209</v>
       </c>
-      <c r="B212" t="str">
+      <c r="B212" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Kettenzug</v>
       </c>
-      <c r="C212">
+      <c r="C212" s="6">
         <v>0</v>
       </c>
       <c r="D212" s="4">
@@ -6644,8 +6654,8 @@
       <c r="E212" t="s">
         <v>218</v>
       </c>
-      <c r="F212" s="7"/>
-      <c r="H212" s="8" t="str">
+      <c r="F212" s="6"/>
+      <c r="H212" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="209" Shortname="Kettenzug" Duration="0" FunctionTypeCS2="Kettenzug" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6654,11 +6664,11 @@
       <c r="A213">
         <v>210</v>
       </c>
-      <c r="B213" t="str">
+      <c r="B213" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Trnnschlfr</v>
       </c>
-      <c r="C213">
+      <c r="C213" s="6">
         <v>0</v>
       </c>
       <c r="D213" s="4">
@@ -6667,8 +6677,8 @@
       <c r="E213" t="s">
         <v>219</v>
       </c>
-      <c r="F213" s="7"/>
-      <c r="H213" s="8" t="str">
+      <c r="F213" s="6"/>
+      <c r="H213" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="210" Shortname="Trnnschlfr" Duration="0" FunctionTypeCS2="Trennschleifer_Flex" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6677,11 +6687,11 @@
       <c r="A214">
         <v>211</v>
       </c>
-      <c r="B214" t="str">
+      <c r="B214" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Schaufel</v>
       </c>
-      <c r="C214">
+      <c r="C214" s="6">
         <v>0</v>
       </c>
       <c r="D214" s="4">
@@ -6690,8 +6700,8 @@
       <c r="E214" t="s">
         <v>220</v>
       </c>
-      <c r="F214" s="7"/>
-      <c r="H214" s="8" t="str">
+      <c r="F214" s="6"/>
+      <c r="H214" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="211" Shortname="Schaufel" Duration="0" FunctionTypeCS2="Schaufel" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6700,11 +6710,11 @@
       <c r="A215">
         <v>212</v>
       </c>
-      <c r="B215" t="str">
+      <c r="B215" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Ldn_Enldn_</v>
       </c>
-      <c r="C215">
+      <c r="C215" s="6">
         <v>0</v>
       </c>
       <c r="D215" s="4">
@@ -6713,8 +6723,8 @@
       <c r="E215" t="s">
         <v>221</v>
       </c>
-      <c r="F215" s="7"/>
-      <c r="H215" s="8" t="str">
+      <c r="F215" s="6"/>
+      <c r="H215" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="212" Shortname="Ldn_Enldn_" Duration="0" FunctionTypeCS2="Laden_Einladen_Ausladen" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6723,11 +6733,11 @@
       <c r="A216">
         <v>213</v>
       </c>
-      <c r="B216" t="str">
+      <c r="B216" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Prsslfthmm</v>
       </c>
-      <c r="C216">
+      <c r="C216" s="6">
         <v>0</v>
       </c>
       <c r="D216" s="4">
@@ -6736,8 +6746,8 @@
       <c r="E216" t="s">
         <v>222</v>
       </c>
-      <c r="F216" s="7"/>
-      <c r="H216" s="8" t="str">
+      <c r="F216" s="6"/>
+      <c r="H216" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="213" Shortname="Prsslfthmm" Duration="0" FunctionTypeCS2="Presslufthammer_Hämmern" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6746,11 +6756,11 @@
       <c r="A217">
         <v>214</v>
       </c>
-      <c r="B217" t="str">
+      <c r="B217" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Stop</v>
       </c>
-      <c r="C217">
+      <c r="C217" s="6">
         <v>0</v>
       </c>
       <c r="D217" s="4">
@@ -6759,8 +6769,8 @@
       <c r="E217" t="s">
         <v>223</v>
       </c>
-      <c r="F217" s="7"/>
-      <c r="H217" s="8" t="str">
+      <c r="F217" s="6"/>
+      <c r="H217" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="214" Shortname="Stop" Duration="0" FunctionTypeCS2="Stop" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6769,11 +6779,11 @@
       <c r="A218">
         <v>215</v>
       </c>
-      <c r="B218" t="str">
+      <c r="B218" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Naechstes</v>
       </c>
-      <c r="C218">
+      <c r="C218" s="6">
         <v>0</v>
       </c>
       <c r="D218" s="4">
@@ -6782,8 +6792,8 @@
       <c r="E218" t="s">
         <v>224</v>
       </c>
-      <c r="F218" s="7"/>
-      <c r="H218" s="8" t="str">
+      <c r="F218" s="6"/>
+      <c r="H218" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="215" Shortname="Naechstes" Duration="0" FunctionTypeCS2="Naechstes" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6792,11 +6802,11 @@
       <c r="A219">
         <v>216</v>
       </c>
-      <c r="B219" t="str">
+      <c r="B219" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Letztes</v>
       </c>
-      <c r="C219">
+      <c r="C219" s="6">
         <v>0</v>
       </c>
       <c r="D219" s="4">
@@ -6805,8 +6815,8 @@
       <c r="E219" t="s">
         <v>225</v>
       </c>
-      <c r="F219" s="7"/>
-      <c r="H219" s="8" t="str">
+      <c r="F219" s="6"/>
+      <c r="H219" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="216" Shortname="Letztes" Duration="0" FunctionTypeCS2="Letztes" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6815,11 +6825,11 @@
       <c r="A220">
         <v>217</v>
       </c>
-      <c r="B220" t="str">
+      <c r="B220" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Bhnbrgng</v>
       </c>
-      <c r="C220">
+      <c r="C220" s="6">
         <v>0</v>
       </c>
       <c r="D220" s="4">
@@ -6828,8 +6838,8 @@
       <c r="E220" t="s">
         <v>226</v>
       </c>
-      <c r="F220" s="7"/>
-      <c r="H220" s="8" t="str">
+      <c r="F220" s="6"/>
+      <c r="H220" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="217" Shortname="Bhnbrgng" Duration="0" FunctionTypeCS2="Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6838,11 +6848,11 @@
       <c r="A221">
         <v>218</v>
       </c>
-      <c r="B221" t="str">
+      <c r="B221" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Glck_Bhnbr</v>
       </c>
-      <c r="C221">
+      <c r="C221" s="6">
         <v>0</v>
       </c>
       <c r="D221" s="4">
@@ -6851,8 +6861,8 @@
       <c r="E221" t="s">
         <v>227</v>
       </c>
-      <c r="F221" s="7"/>
-      <c r="H221" s="8" t="str">
+      <c r="F221" s="6"/>
+      <c r="H221" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="218" Shortname="Glck_Bhnbr" Duration="0" FunctionTypeCS2="Glocke_Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6861,11 +6871,11 @@
       <c r="A222">
         <v>219</v>
       </c>
-      <c r="B222" t="str">
+      <c r="B222" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Strklftn</v>
       </c>
-      <c r="C222">
+      <c r="C222" s="6">
         <v>0</v>
       </c>
       <c r="D222" s="4">
@@ -6874,10 +6884,10 @@
       <c r="E222" t="s">
         <v>228</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="F222" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="H222" s="8" t="str">
+      <c r="H222" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="219" Shortname="Strklftn" Duration="0" FunctionTypeCS2="Starklueften" FunctionTypeZ21="fan_strong" /&gt;</v>
       </c>
@@ -6886,11 +6896,11 @@
       <c r="A223">
         <v>220</v>
       </c>
-      <c r="B223" t="str">
+      <c r="B223" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Schwchlftn</v>
       </c>
-      <c r="C223">
+      <c r="C223" s="6">
         <v>0</v>
       </c>
       <c r="D223" s="4">
@@ -6899,10 +6909,10 @@
       <c r="E223" t="s">
         <v>229</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="H223" s="8" t="str">
+      <c r="H223" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="220" Shortname="Schwchlftn" Duration="0" FunctionTypeCS2="Schwachlueften" FunctionTypeZ21="fan" /&gt;</v>
       </c>
@@ -6911,11 +6921,11 @@
       <c r="A224">
         <v>221</v>
       </c>
-      <c r="B224" t="str">
+      <c r="B224" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Tlx_Wlzr</v>
       </c>
-      <c r="C224">
+      <c r="C224" s="6">
         <v>0</v>
       </c>
       <c r="D224" s="4">
@@ -6924,10 +6934,10 @@
       <c r="E224" t="s">
         <v>230</v>
       </c>
-      <c r="F224" s="7" t="s">
+      <c r="F224" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H224" s="8" t="str">
+      <c r="H224" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="221" Shortname="Tlx_Wlzr" Duration="0" FunctionTypeCS2="Telex_Walzer" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -6936,11 +6946,11 @@
       <c r="A225">
         <v>222</v>
       </c>
-      <c r="B225" t="str">
+      <c r="B225" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Lcht_Gnrtr</v>
       </c>
-      <c r="C225">
+      <c r="C225" s="6">
         <v>0</v>
       </c>
       <c r="D225" s="4">
@@ -6949,10 +6959,10 @@
       <c r="E225" t="s">
         <v>231</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F225" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="H225" s="8" t="str">
+      <c r="H225" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="222" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound" FunctionTypeZ21="alternator" /&gt;</v>
       </c>
@@ -6961,11 +6971,11 @@
       <c r="A226">
         <v>223</v>
       </c>
-      <c r="B226" t="str">
+      <c r="B226" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Rchkmmr</v>
       </c>
-      <c r="C226">
+      <c r="C226" s="6">
         <v>0</v>
       </c>
       <c r="D226" s="4">
@@ -6974,8 +6984,8 @@
       <c r="E226" t="s">
         <v>232</v>
       </c>
-      <c r="F226" s="7"/>
-      <c r="H226" s="8" t="str">
+      <c r="F226" s="6"/>
+      <c r="H226" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="223" Shortname="Rchkmmr" Duration="0" FunctionTypeCS2="Rauchkammer" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -6984,11 +6994,11 @@
       <c r="A227">
         <v>224</v>
       </c>
-      <c r="B227" t="str">
+      <c r="B227" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Kohlestaub</v>
       </c>
-      <c r="C227">
+      <c r="C227" s="6">
         <v>0</v>
       </c>
       <c r="D227" s="4">
@@ -6997,8 +7007,8 @@
       <c r="E227" t="s">
         <v>233</v>
       </c>
-      <c r="F227" s="7"/>
-      <c r="H227" s="8" t="str">
+      <c r="F227" s="6"/>
+      <c r="H227" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="224" Shortname="Kohlestaub" Duration="0" FunctionTypeCS2="Kohlestaub" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7007,11 +7017,11 @@
       <c r="A228">
         <v>225</v>
       </c>
-      <c r="B228" t="str">
+      <c r="B228" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Frnlcht_vr</v>
       </c>
-      <c r="C228">
+      <c r="C228" s="6">
         <v>0</v>
       </c>
       <c r="D228" s="4">
@@ -7020,8 +7030,8 @@
       <c r="E228" t="s">
         <v>234</v>
       </c>
-      <c r="F228" s="7"/>
-      <c r="H228" s="8" t="str">
+      <c r="F228" s="6"/>
+      <c r="H228" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="225" Shortname="Frnlcht_vr" Duration="0" FunctionTypeCS2="Fernlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7030,11 +7040,11 @@
       <c r="A229">
         <v>226</v>
       </c>
-      <c r="B229" t="str">
+      <c r="B229" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Strnlcht_v</v>
       </c>
-      <c r="C229">
+      <c r="C229" s="6">
         <v>0</v>
       </c>
       <c r="D229" s="4">
@@ -7043,8 +7053,8 @@
       <c r="E229" t="s">
         <v>235</v>
       </c>
-      <c r="F229" s="7"/>
-      <c r="H229" s="8" t="str">
+      <c r="F229" s="6"/>
+      <c r="H229" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="226" Shortname="Strnlcht_v" Duration="0" FunctionTypeCS2="Stirnlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7053,11 +7063,11 @@
       <c r="A230">
         <v>227</v>
       </c>
-      <c r="B230" t="str">
+      <c r="B230" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Lcht_Gnrtr</v>
       </c>
-      <c r="C230">
+      <c r="C230" s="6">
         <v>0</v>
       </c>
       <c r="D230" s="4">
@@ -7066,8 +7076,8 @@
       <c r="E230" t="s">
         <v>236</v>
       </c>
-      <c r="F230" s="7"/>
-      <c r="H230" s="8" t="str">
+      <c r="F230" s="6"/>
+      <c r="H230" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="227" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound_hinten" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7076,11 +7086,11 @@
       <c r="A231">
         <v>228</v>
       </c>
-      <c r="B231" t="str">
+      <c r="B231" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Tlx_Wlzr_v</v>
       </c>
-      <c r="C231">
+      <c r="C231" s="6">
         <v>0</v>
       </c>
       <c r="D231" s="4">
@@ -7089,10 +7099,10 @@
       <c r="E231" t="s">
         <v>237</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H231" s="8" t="str">
+      <c r="H231" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="228" Shortname="Tlx_Wlzr_v" Duration="0" FunctionTypeCS2="Telex_Walzer_vorne" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -7101,11 +7111,11 @@
       <c r="A232">
         <v>229</v>
       </c>
-      <c r="B232" t="str">
+      <c r="B232" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Tlx_Wlzr_h</v>
       </c>
-      <c r="C232">
+      <c r="C232" s="6">
         <v>0</v>
       </c>
       <c r="D232" s="4">
@@ -7114,10 +7124,10 @@
       <c r="E232" t="s">
         <v>238</v>
       </c>
-      <c r="F232" s="7" t="s">
+      <c r="F232" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="H232" s="8" t="str">
+      <c r="H232" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="229" Shortname="Tlx_Wlzr_h" Duration="0" FunctionTypeCS2="Telex_Walzer_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
@@ -7126,11 +7136,11 @@
       <c r="A233">
         <v>230</v>
       </c>
-      <c r="B233" t="str">
+      <c r="B233" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Lcht_Gnrtr</v>
       </c>
-      <c r="C233">
+      <c r="C233" s="6">
         <v>0</v>
       </c>
       <c r="D233" s="4">
@@ -7139,8 +7149,8 @@
       <c r="E233" t="s">
         <v>239</v>
       </c>
-      <c r="F233" s="7"/>
-      <c r="H233" s="8" t="str">
+      <c r="F233" s="6"/>
+      <c r="H233" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="230" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeCS2="Licht_Generator_Sound_vorne" FunctionTypeZ21="" /&gt;</v>
       </c>
@@ -7149,11 +7159,11 @@
       <c r="A234">
         <v>231</v>
       </c>
-      <c r="B234" t="str">
+      <c r="B234" s="6" t="str">
         <f t="shared" si="6"/>
         <v>Krbln_Snd</v>
       </c>
-      <c r="C234">
+      <c r="C234" s="6">
         <v>0</v>
       </c>
       <c r="D234" s="4">
@@ -7162,14 +7172,14 @@
       <c r="E234" t="s">
         <v>240</v>
       </c>
-      <c r="F234" s="7"/>
-      <c r="H234" s="8" t="str">
+      <c r="F234" s="6"/>
+      <c r="H234" s="7" t="str">
         <f t="shared" si="7"/>
         <v>&lt;mapping Id="231" Shortname="Krbln_Snd" Duration="0" FunctionTypeCS2="Kurbeln_Sound" FunctionTypeZ21="" /&gt;</v>
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H235" s="8" t="s">
+      <c r="H235" s="7" t="s">
         <v>332</v>
       </c>
     </row>

--- a/Create_MappingXml_File.xlsx
+++ b/Create_MappingXml_File.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ralf/Documents/GitHub/LocDbConverterConsole/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3B7B2F-7AF0-2445-A7B6-740B42DC9BE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79787918-79E5-794C-A361-57099A494DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2020" yWindow="3520" windowWidth="35940" windowHeight="20780" xr2:uid="{DA64CF93-7AD7-5549-BC85-4B8B89C6C2C1}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="CS2" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$F$233</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -134,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="507">
   <si>
     <t>FunctionTypeCS2</t>
   </si>
@@ -1141,9 +1141,6 @@
     <t>Hint: The order corresponds to the symbol oder in the app</t>
   </si>
   <si>
-    <t>Howto: Adapt "FunctionTypeZ21" and then simply copy-paste column H to your Mapping.xml file</t>
-  </si>
-  <si>
     <t>ABV_Ein</t>
   </si>
   <si>
@@ -1157,13 +1154,514 @@
   </si>
   <si>
     <t>Lichtwsl</t>
+  </si>
+  <si>
+    <t>Howto: Adapt "FunctionTypeZ21", adapt "Shortname" (if needed) and then copy-paste column H to your Mapping.xml file</t>
+  </si>
+  <si>
+    <t>Innenbel</t>
+  </si>
+  <si>
+    <t>RangierON</t>
+  </si>
+  <si>
+    <t>Telex</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Funktion10</t>
+  </si>
+  <si>
+    <t>Funktion11</t>
+  </si>
+  <si>
+    <t>Funktion12</t>
+  </si>
+  <si>
+    <t>Funktion13</t>
+  </si>
+  <si>
+    <t>Funktion14</t>
+  </si>
+  <si>
+    <t>Funktion15</t>
+  </si>
+  <si>
+    <t>Funktion16</t>
+  </si>
+  <si>
+    <t>Funktion17</t>
+  </si>
+  <si>
+    <t>Funktion18</t>
+  </si>
+  <si>
+    <t>Funktion19</t>
+  </si>
+  <si>
+    <t>Funktion20</t>
+  </si>
+  <si>
+    <t>Funktion21</t>
+  </si>
+  <si>
+    <t>Funktion22</t>
+  </si>
+  <si>
+    <t>Funktion23</t>
+  </si>
+  <si>
+    <t>Funktion24</t>
+  </si>
+  <si>
+    <t>Funktion25</t>
+  </si>
+  <si>
+    <t>Funktion26</t>
+  </si>
+  <si>
+    <t>Funktion27</t>
+  </si>
+  <si>
+    <t>Funktion28</t>
+  </si>
+  <si>
+    <t>Funktion29</t>
+  </si>
+  <si>
+    <t>Funktion30</t>
+  </si>
+  <si>
+    <t>Funktion31</t>
+  </si>
+  <si>
+    <t>Funktion0</t>
+  </si>
+  <si>
+    <t>Funktion1</t>
+  </si>
+  <si>
+    <t>Funktion2</t>
+  </si>
+  <si>
+    <t>Funktion3</t>
+  </si>
+  <si>
+    <t>Funktion4</t>
+  </si>
+  <si>
+    <t>Funktion5</t>
+  </si>
+  <si>
+    <t>Funktion6</t>
+  </si>
+  <si>
+    <t>Funktion7</t>
+  </si>
+  <si>
+    <t>Funktion8</t>
+  </si>
+  <si>
+    <t>Funktion9</t>
+  </si>
+  <si>
+    <t>Cockpitbel</t>
+  </si>
+  <si>
+    <t>Telex_hi</t>
+  </si>
+  <si>
+    <t>Telex_vo</t>
+  </si>
+  <si>
+    <t>Panto_hi</t>
+  </si>
+  <si>
+    <t>Panto_vo</t>
+  </si>
+  <si>
+    <t>Fernli_hi</t>
+  </si>
+  <si>
+    <t>Fernli_vo</t>
+  </si>
+  <si>
+    <t>Pfiff_kurz</t>
+  </si>
+  <si>
+    <t>Pfiff_lang</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>Kran_verfa</t>
+  </si>
+  <si>
+    <t>Kran_heben</t>
+  </si>
+  <si>
+    <t>Kran_neign</t>
+  </si>
+  <si>
+    <t>Bremsquit</t>
+  </si>
+  <si>
+    <t>Kran_auf</t>
+  </si>
+  <si>
+    <t>Kran_ab</t>
+  </si>
+  <si>
+    <t>Kran_links</t>
+  </si>
+  <si>
+    <t>Kran_recht</t>
+  </si>
+  <si>
+    <t>Kran_drehL</t>
+  </si>
+  <si>
+    <t>Kran_drehR</t>
+  </si>
+  <si>
+    <t>Kran_Magnt</t>
+  </si>
+  <si>
+    <t>Kran_FktON</t>
+  </si>
+  <si>
+    <t>Kran_0_Pos</t>
+  </si>
+  <si>
+    <t>Sprachausg</t>
+  </si>
+  <si>
+    <t>Tischbel_4</t>
+  </si>
+  <si>
+    <t>Tischbel_3</t>
+  </si>
+  <si>
+    <t>Tischbel_2</t>
+  </si>
+  <si>
+    <t>Lüfter</t>
+  </si>
+  <si>
+    <t>Tür_zu</t>
+  </si>
+  <si>
+    <t>Tür_zu_Snd</t>
+  </si>
+  <si>
+    <t>Lüfter_Snd</t>
+  </si>
+  <si>
+    <t>Betr_Sound</t>
+  </si>
+  <si>
+    <t>Fahr_Sound</t>
+  </si>
+  <si>
+    <t>Deckenbel</t>
+  </si>
+  <si>
+    <t>Feuerb_bel</t>
+  </si>
+  <si>
+    <t>Kennz_bel</t>
+  </si>
+  <si>
+    <t>VakuumPmp</t>
+  </si>
+  <si>
+    <t>Triebw_Bel</t>
+  </si>
+  <si>
+    <t>DmpfAblass</t>
+  </si>
+  <si>
+    <t>DrcklftAbl</t>
+  </si>
+  <si>
+    <t>Stufen_Bel</t>
+  </si>
+  <si>
+    <t>Ölpumpe</t>
+  </si>
+  <si>
+    <t>Ablassvntl</t>
+  </si>
+  <si>
+    <t>Warnung</t>
+  </si>
+  <si>
+    <t>Kurven_Snd</t>
+  </si>
+  <si>
+    <t>Licht_Abtl</t>
+  </si>
+  <si>
+    <t>Licht_Küch</t>
+  </si>
+  <si>
+    <t>Licht_Gpck</t>
+  </si>
+  <si>
+    <t>Öl</t>
+  </si>
+  <si>
+    <t>CH_Lichtwl</t>
+  </si>
+  <si>
+    <t>Säge</t>
+  </si>
+  <si>
+    <t>Nächstes</t>
+  </si>
+  <si>
+    <t>Lichtgen</t>
+  </si>
+  <si>
+    <t>Lichtgen_v</t>
+  </si>
+  <si>
+    <t>Lichtgen_h</t>
+  </si>
+  <si>
+    <t>Telex_vorn</t>
+  </si>
+  <si>
+    <t>Telex_hint</t>
+  </si>
+  <si>
+    <t>KurbelnSnd</t>
+  </si>
+  <si>
+    <t>Stirnlicht</t>
+  </si>
+  <si>
+    <t>TelexWalz</t>
+  </si>
+  <si>
+    <t>Schwachlft</t>
+  </si>
+  <si>
+    <t>Starklüftn</t>
+  </si>
+  <si>
+    <t>Abschlammn</t>
+  </si>
+  <si>
+    <t>WischerSnd</t>
+  </si>
+  <si>
+    <t>Tachoklckn</t>
+  </si>
+  <si>
+    <t>Zahnrd_Snd</t>
+  </si>
+  <si>
+    <t>Drehschalt</t>
+  </si>
+  <si>
+    <t>Kippschalt</t>
+  </si>
+  <si>
+    <t>Schaltstfn</t>
+  </si>
+  <si>
+    <t>Maschschmr</t>
+  </si>
+  <si>
+    <t>Bhf_Ansage</t>
+  </si>
+  <si>
+    <t>KohleSchfl</t>
+  </si>
+  <si>
+    <t>Schüttelst</t>
+  </si>
+  <si>
+    <t>SchienStss</t>
+  </si>
+  <si>
+    <t>Musik</t>
+  </si>
+  <si>
+    <t>Zugschldbe</t>
+  </si>
+  <si>
+    <t>LichtFst_v</t>
+  </si>
+  <si>
+    <t>LichtFst_h</t>
+  </si>
+  <si>
+    <t>KupplngSnd</t>
+  </si>
+  <si>
+    <t>PuffrStoss</t>
+  </si>
+  <si>
+    <t>Funkgsprch</t>
+  </si>
+  <si>
+    <t>PantoSound</t>
+  </si>
+  <si>
+    <t>Bohrer</t>
+  </si>
+  <si>
+    <t>Schweissen</t>
+  </si>
+  <si>
+    <t>Schleifen</t>
+  </si>
+  <si>
+    <t>Bürsten</t>
+  </si>
+  <si>
+    <t>Flexen</t>
+  </si>
+  <si>
+    <t>Beladen</t>
+  </si>
+  <si>
+    <t>Hämmern</t>
+  </si>
+  <si>
+    <t>Glocke_BÜ</t>
+  </si>
+  <si>
+    <t>Bahnübgng</t>
+  </si>
+  <si>
+    <t>GlockeLang</t>
+  </si>
+  <si>
+    <t>AnsagPfiff</t>
+  </si>
+  <si>
+    <t>Dieselhzng</t>
+  </si>
+  <si>
+    <t>Fensterbew</t>
+  </si>
+  <si>
+    <t>PumpeSonst</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>TürSchlies</t>
+  </si>
+  <si>
+    <t>Stadt</t>
+  </si>
+  <si>
+    <t>Tunnel</t>
+  </si>
+  <si>
+    <t>Stahlbrcke</t>
+  </si>
+  <si>
+    <t>Betonbrcke</t>
+  </si>
+  <si>
+    <t>KlpptürSnd</t>
+  </si>
+  <si>
+    <t>FalltürSnd</t>
+  </si>
+  <si>
+    <t>TüreSound</t>
+  </si>
+  <si>
+    <t>RolltorSnd</t>
+  </si>
+  <si>
+    <t>Rauchkamm</t>
+  </si>
+  <si>
+    <t>Infoansage</t>
+  </si>
+  <si>
+    <t>Sondransag</t>
+  </si>
+  <si>
+    <t>Passagiere</t>
+  </si>
+  <si>
+    <t>SchbtürSnd</t>
+  </si>
+  <si>
+    <t>Warnblink</t>
+  </si>
+  <si>
+    <t>Durchsage</t>
+  </si>
+  <si>
+    <t>Fahrtfreig</t>
+  </si>
+  <si>
+    <t>AbfDurchsg</t>
+  </si>
+  <si>
+    <t>Frontlicht</t>
+  </si>
+  <si>
+    <t>Unterhltng</t>
+  </si>
+  <si>
+    <t>DieselPmp</t>
+  </si>
+  <si>
+    <t>SchmierPmp</t>
+  </si>
+  <si>
+    <t>WasserPmp</t>
+  </si>
+  <si>
+    <t>KonsoleBel</t>
+  </si>
+  <si>
+    <t>RangierBel</t>
+  </si>
+  <si>
+    <t>PartyBel</t>
+  </si>
+  <si>
+    <t>Zielansage</t>
+  </si>
+  <si>
+    <t>Zugansage</t>
+  </si>
+  <si>
+    <t>Hilfsdiesl</t>
+  </si>
+  <si>
+    <t>MaschinBel</t>
+  </si>
+  <si>
+    <t>Schaffner</t>
+  </si>
+  <si>
+    <t>Führerstnd</t>
+  </si>
+  <si>
+    <t>Feuerbüchs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1224,6 +1722,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1257,7 +1761,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1271,17 +1775,41 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1599,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6998C7BB-3F10-8F46-AE0B-DDB5392E341E}">
-  <dimension ref="A1:H235"/>
+  <dimension ref="A1:H234"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F218" sqref="F218"/>
+      <selection activeCell="B134" sqref="B134:B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1616,13 +2144,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>335</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
       <c r="H1" s="5" t="s">
         <v>330</v>
       </c>
@@ -1661,12 +2189,12 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C4" s="4">
         <v>0</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>1</v>
       </c>
       <c r="E4" t="str">
@@ -1685,14 +2213,13 @@
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="4" t="str">
-        <f t="shared" ref="B5:B68" si="0">IF(LEN(E5)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E5,"a",""),"e",""),"i",""),"o",""),"u",""),10),E5)</f>
-        <v>Innnblchtn</v>
+      <c r="B5" s="4" t="s">
+        <v>341</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D5" s="9">
         <v>2</v>
       </c>
       <c r="E5" t="str">
@@ -1703,8 +2230,8 @@
         <v>261</v>
       </c>
       <c r="H5" s="5" t="str">
-        <f t="shared" ref="H5:H68" si="1">"&lt;mapping Id="""&amp;A5&amp;""" Shortname="""&amp;B5&amp;""" Duration="""&amp;C5&amp;""" FunctionTypeIndexCS2="""&amp;D5&amp;""" FunctionTypeCS2="""&amp;E5&amp;""" FunctionTypeZ21="""&amp;F5&amp;""" /&gt;"</f>
-        <v>&lt;mapping Id="2" Shortname="Innnblchtn" Duration="0" FunctionTypeIndexCS2="2" FunctionTypeCS2="Innenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
+        <f t="shared" ref="H5:H68" si="0">"&lt;mapping Id="""&amp;A5&amp;""" Shortname="""&amp;B5&amp;""" Duration="""&amp;C5&amp;""" FunctionTypeIndexCS2="""&amp;D5&amp;""" FunctionTypeCS2="""&amp;E5&amp;""" FunctionTypeZ21="""&amp;F5&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="2" Shortname="Innenbel" Duration="0" FunctionTypeIndexCS2="2" FunctionTypeCS2="Innenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1712,12 +2239,12 @@
         <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="4">
         <v>0</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>3</v>
       </c>
       <c r="E6" t="str">
@@ -1728,7 +2255,7 @@
         <v>252</v>
       </c>
       <c r="H6" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="3" Shortname="Aussenbel" Duration="0" FunctionTypeIndexCS2="3" FunctionTypeCS2="Aussenbeleuchtung_Schlusslicht" FunctionTypeZ21="back_light" /&gt;</v>
       </c>
     </row>
@@ -1737,13 +2264,13 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B7:B52" si="1">IF(LEN(E7)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E7,"a",""),"e",""),"i",""),"o",""),"u",""),10),E7)</f>
         <v>Fernlicht</v>
       </c>
       <c r="C7" s="4">
         <v>0</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
       <c r="E7" t="str">
@@ -1754,7 +2281,7 @@
         <v>251</v>
       </c>
       <c r="H7" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="4" Shortname="Fernlicht" Duration="0" FunctionTypeIndexCS2="4" FunctionTypeCS2="Fernlicht" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
     </row>
@@ -1762,14 +2289,13 @@
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Btrbsgrsch</v>
+      <c r="B8" s="4" t="s">
+        <v>408</v>
       </c>
       <c r="C8" s="4">
         <v>0</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="9">
         <v>5</v>
       </c>
       <c r="E8" t="str">
@@ -1780,8 +2306,8 @@
         <v>10</v>
       </c>
       <c r="H8" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="5" Shortname="Btrbsgrsch" Duration="0" FunctionTypeIndexCS2="5" FunctionTypeCS2="Betriebsgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="5" Shortname="Betr_Sound" Duration="0" FunctionTypeIndexCS2="5" FunctionTypeCS2="Betriebsgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1789,13 +2315,13 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pantograph</v>
       </c>
       <c r="C9" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>6</v>
       </c>
       <c r="E9" t="str">
@@ -1806,7 +2332,7 @@
         <v>275</v>
       </c>
       <c r="H9" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="6" Shortname="Pantograph" Duration="0" FunctionTypeIndexCS2="6" FunctionTypeCS2="Pantograph" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
     </row>
@@ -1815,12 +2341,12 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>7</v>
       </c>
       <c r="E10" t="str">
@@ -1831,7 +2357,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="7" Shortname="Rauch" Duration="0" FunctionTypeIndexCS2="7" FunctionTypeCS2="Rauchgenerator" FunctionTypeZ21="steam" /&gt;</v>
       </c>
     </row>
@@ -1839,14 +2365,13 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Rngrgng_n</v>
+      <c r="B11" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="9">
         <v>8</v>
       </c>
       <c r="E11" t="str">
@@ -1857,22 +2382,21 @@
         <v>9</v>
       </c>
       <c r="H11" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="8" Shortname="Rngrgng_n" Duration="0" FunctionTypeIndexCS2="8" FunctionTypeCS2="Rangiergang_ein" FunctionTypeZ21="hump_gear" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="8" Shortname="RangierON" Duration="0" FunctionTypeIndexCS2="8" FunctionTypeCS2="Rangiergang_ein" FunctionTypeZ21="hump_gear" /&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tlxkpplng</v>
+      <c r="B12" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="C12" s="4">
         <v>0</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>9</v>
       </c>
       <c r="E12" t="str">
@@ -1883,22 +2407,21 @@
         <v>263</v>
       </c>
       <c r="H12" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="9" Shortname="Tlxkpplng" Duration="0" FunctionTypeIndexCS2="9" FunctionTypeCS2="Telexkupplung" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="9" Shortname="Telex" Duration="0" FunctionTypeIndexCS2="9" FunctionTypeCS2="Telexkupplung" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Hrn_Typhn</v>
+      <c r="B13" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="C13" s="4">
         <v>0</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>10</v>
       </c>
       <c r="E13" t="str">
@@ -1909,22 +2432,22 @@
         <v>246</v>
       </c>
       <c r="H13" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="10" Shortname="Hrn_Typhn" Duration="0" FunctionTypeIndexCS2="10" FunctionTypeCS2="Horn_Typhon" FunctionTypeZ21="bugle" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="10" Shortname="Horn" Duration="0" FunctionTypeIndexCS2="10" FunctionTypeCS2="Horn_Typhon" FunctionTypeZ21="bugle" /&gt;</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="4" t="str">
-        <f t="shared" si="0"/>
+      <c r="B14" s="11" t="str">
+        <f t="shared" si="1"/>
         <v>Schffnrpff</v>
       </c>
       <c r="C14" s="4">
         <v>0</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="9">
         <v>11</v>
       </c>
       <c r="E14" t="str">
@@ -1935,7 +2458,7 @@
         <v>318</v>
       </c>
       <c r="H14" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="11" Shortname="Schffnrpff" Duration="0" FunctionTypeIndexCS2="11" FunctionTypeCS2="Schaffnerpfiff" FunctionTypeZ21="sound5" /&gt;</v>
       </c>
     </row>
@@ -1944,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pfeife</v>
       </c>
       <c r="C15" s="4">
         <v>0</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="9">
         <v>12</v>
       </c>
       <c r="E15" t="str">
@@ -1961,7 +2484,7 @@
         <v>317</v>
       </c>
       <c r="H15" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="12" Shortname="Pfeife" Duration="0" FunctionTypeIndexCS2="12" FunctionTypeCS2="Pfeife" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
     </row>
@@ -1970,13 +2493,13 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Glocke</v>
       </c>
       <c r="C16" s="4">
         <v>0</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="9">
         <v>13</v>
       </c>
       <c r="E16" t="str">
@@ -1987,7 +2510,7 @@
         <v>312</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="13" Shortname="Glocke" Duration="0" FunctionTypeIndexCS2="13" FunctionTypeCS2="Glocke" FunctionTypeZ21="bell" /&gt;</v>
       </c>
     </row>
@@ -1995,96 +2518,100 @@
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>KrnBhn_vrf</v>
+      <c r="B17" s="11" t="s">
+        <v>387</v>
       </c>
       <c r="C17" s="4">
         <v>0</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="9">
         <v>14</v>
       </c>
       <c r="E17" t="str">
         <f>VLOOKUP(D17,'CS2'!A:B,2)</f>
         <v>KranBuehne_verfahren</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="14" Shortname="KrnBhn_vrf" Duration="0" FunctionTypeIndexCS2="14" FunctionTypeCS2="KranBuehne_verfahren" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="14" Shortname="Kran_verfa" Duration="0" FunctionTypeIndexCS2="14" FunctionTypeCS2="KranBuehne_verfahren" FunctionTypeZ21="rotate_upper_assembly" /&gt;</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>KrnBhn_hbn</v>
+      <c r="B18" s="11" t="s">
+        <v>388</v>
       </c>
       <c r="C18" s="4">
         <v>0</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="9">
         <v>15</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(D18,'CS2'!A:B,2)</f>
         <v>KranBuehne_heben_senken</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="15" Shortname="KrnBhn_hbn" Duration="0" FunctionTypeIndexCS2="15" FunctionTypeCS2="KranBuehne_heben_senken" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="15" Shortname="Kran_heben" Duration="0" FunctionTypeIndexCS2="15" FunctionTypeCS2="KranBuehne_heben_senken" FunctionTypeZ21="crane_arm_up" /&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>KrnBhn_drh</v>
+      <c r="B19" s="11" t="s">
+        <v>395</v>
       </c>
       <c r="C19" s="4">
         <v>0</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="9">
         <v>16</v>
       </c>
       <c r="E19" t="str">
         <f>VLOOKUP(D19,'CS2'!A:B,2)</f>
         <v>KranBuehne_drehen_links</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="16" Shortname="KrnBhn_drh" Duration="0" FunctionTypeIndexCS2="16" FunctionTypeCS2="KranBuehne_drehen_links" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="16" Shortname="Kran_drehL" Duration="0" FunctionTypeIndexCS2="16" FunctionTypeCS2="KranBuehne_drehen_links" FunctionTypeZ21="rotate_left" /&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>KrnBhn_ngn</v>
+      <c r="B20" s="11" t="s">
+        <v>389</v>
       </c>
       <c r="C20" s="4">
         <v>0</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="9">
         <v>17</v>
       </c>
       <c r="E20" t="str">
         <f>VLOOKUP(D20,'CS2'!A:B,2)</f>
         <v>KranBuehne_neigen</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="17" Shortname="KrnBhn_ngn" Duration="0" FunctionTypeIndexCS2="17" FunctionTypeCS2="KranBuehne_neigen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="17" Shortname="Kran_neign" Duration="0" FunctionTypeIndexCS2="17" FunctionTypeCS2="KranBuehne_neigen" FunctionTypeZ21="crane_arm_down" /&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2092,12 +2619,12 @@
         <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="4">
         <v>0</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="9">
         <v>18</v>
       </c>
       <c r="E21" t="str">
@@ -2108,7 +2635,7 @@
         <v>319</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="18" Shortname="ABV_Aus" Duration="0" FunctionTypeIndexCS2="18" FunctionTypeCS2="Anfahr_Bremsverzoegerung_aus" FunctionTypeZ21="acc_delay" /&gt;</v>
       </c>
     </row>
@@ -2117,13 +2644,13 @@
         <v>19</v>
       </c>
       <c r="B22" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Pumpe</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="9">
         <v>19</v>
       </c>
       <c r="E22" t="str">
@@ -2134,7 +2661,7 @@
         <v>287</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="19" Shortname="Pumpe" Duration="0" FunctionTypeIndexCS2="19" FunctionTypeCS2="Pumpe" FunctionTypeZ21="feed_pump" /&gt;</v>
       </c>
     </row>
@@ -2142,14 +2669,13 @@
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Brmsnqtsch</v>
+      <c r="B23" s="11" t="s">
+        <v>390</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="9">
         <v>20</v>
       </c>
       <c r="E23" t="str">
@@ -2160,22 +2686,21 @@
         <v>327</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="20" Shortname="Brmsnqtsch" Duration="0" FunctionTypeIndexCS2="20" FunctionTypeCS2="Bremsenquietschen_aus" FunctionTypeZ21="sound_brake" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="20" Shortname="Bremsquit" Duration="0" FunctionTypeIndexCS2="20" FunctionTypeCS2="Bremsenquietschen_aus" FunctionTypeZ21="sound_brake" /&gt;</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Schltstfn</v>
+      <c r="B24" s="11" t="s">
+        <v>445</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="9">
         <v>21</v>
       </c>
       <c r="E24" t="str">
@@ -2186,8 +2711,8 @@
         <v>291</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="21" Shortname="Schltstfn" Duration="0" FunctionTypeIndexCS2="21" FunctionTypeCS2="Schaltstufen" FunctionTypeZ21="diesel_regulation_step_up" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="21" Shortname="Schaltstfn" Duration="0" FunctionTypeIndexCS2="21" FunctionTypeCS2="Schaltstufen" FunctionTypeZ21="diesel_regulation_step_up" /&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2195,13 +2720,13 @@
         <v>22</v>
       </c>
       <c r="B25" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Generator</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="9">
         <v>22</v>
       </c>
       <c r="E25" t="str">
@@ -2212,7 +2737,7 @@
         <v>282</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="22" Shortname="Generator" Duration="0" FunctionTypeIndexCS2="22" FunctionTypeCS2="Generator" FunctionTypeZ21="generator" /&gt;</v>
       </c>
     </row>
@@ -2220,14 +2745,13 @@
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fhrgrsch</v>
+      <c r="B26" s="11" t="s">
+        <v>409</v>
       </c>
       <c r="C26" s="4">
         <v>0</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="9">
         <v>23</v>
       </c>
       <c r="E26" t="str">
@@ -2238,46 +2762,46 @@
         <v>10</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="23" Shortname="Fhrgrsch" Duration="0" FunctionTypeIndexCS2="23" FunctionTypeCS2="Fahrgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="23" Shortname="Fahr_Sound" Duration="0" FunctionTypeIndexCS2="23" FunctionTypeCS2="Fahrgeraeusch" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Mschn_vrsc</v>
+      <c r="B27" s="11" t="s">
+        <v>446</v>
       </c>
       <c r="C27" s="4">
         <v>0</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="9">
         <v>24</v>
       </c>
       <c r="E27" t="str">
         <f>VLOOKUP(D27,'CS2'!A:B,2)</f>
         <v>Maschine_vorschmieren</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="24" Shortname="Mschn_vrsc" Duration="0" FunctionTypeIndexCS2="24" FunctionTypeCS2="Maschine_vorschmieren" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="24" Shortname="Maschschmr" Duration="0" FunctionTypeIndexCS2="24" FunctionTypeCS2="Maschine_vorschmieren" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Bhnhfsnsg</v>
+      <c r="B28" s="11" t="s">
+        <v>447</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="9">
         <v>25</v>
       </c>
       <c r="E28" t="str">
@@ -2288,22 +2812,21 @@
         <v>315</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="25" Shortname="Bhnhfsnsg" Duration="0" FunctionTypeIndexCS2="25" FunctionTypeCS2="Bahnhofsansage" FunctionTypeZ21="sound1" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="25" Shortname="Bhf_Ansage" Duration="0" FunctionTypeIndexCS2="25" FunctionTypeCS2="Bahnhofsansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Khln_schfl</v>
+      <c r="B29" s="11" t="s">
+        <v>448</v>
       </c>
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="9">
         <v>26</v>
       </c>
       <c r="E29" t="str">
@@ -2314,46 +2837,46 @@
         <v>288</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="26" Shortname="Khln_schfl" Duration="0" FunctionTypeIndexCS2="26" FunctionTypeCS2="Kohlen_schaufeln" FunctionTypeZ21="scoop_coal" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="26" Shortname="KohleSchfl" Duration="0" FunctionTypeIndexCS2="26" FunctionTypeCS2="Kohlen_schaufeln" FunctionTypeZ21="scoop_coal" /&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Trn_schlss</v>
+      <c r="B30" s="11" t="s">
+        <v>405</v>
       </c>
       <c r="C30" s="4">
         <v>0</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="9">
         <v>27</v>
       </c>
       <c r="E30" t="str">
         <f>VLOOKUP(D30,'CS2'!A:B,2)</f>
         <v>Tueren_schliessen</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="27" Shortname="Trn_schlss" Duration="0" FunctionTypeIndexCS2="27" FunctionTypeCS2="Tueren_schliessen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="27" Shortname="Tür_zu" Duration="0" FunctionTypeIndexCS2="27" FunctionTypeCS2="Tueren_schliessen" FunctionTypeZ21="door_close" /&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Trn_schlss</v>
+      <c r="B31" s="11" t="s">
+        <v>406</v>
       </c>
       <c r="C31" s="4">
         <v>0</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="9">
         <v>28</v>
       </c>
       <c r="E31" t="str">
@@ -2364,22 +2887,21 @@
         <v>272</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="28" Shortname="Trn_schlss" Duration="0" FunctionTypeIndexCS2="28" FunctionTypeCS2="Tueren_schliessen_Geraeusch" FunctionTypeZ21="door_close" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="28" Shortname="Tür_zu_Snd" Duration="0" FunctionTypeIndexCS2="28" FunctionTypeCS2="Tueren_schliessen_Geraeusch" FunctionTypeZ21="door_close" /&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lftrgrsch</v>
+      <c r="B32" s="11" t="s">
+        <v>407</v>
       </c>
       <c r="C32" s="4">
         <v>0</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="9">
         <v>29</v>
       </c>
       <c r="E32" t="str">
@@ -2390,70 +2912,71 @@
         <v>317</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="29" Shortname="Lftrgrsch" Duration="0" FunctionTypeIndexCS2="29" FunctionTypeCS2="Lueftergeraeusch" FunctionTypeZ21="sound4" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="29" Shortname="Lüfter_Snd" Duration="0" FunctionTypeIndexCS2="29" FunctionTypeCS2="Lueftergeraeusch" FunctionTypeZ21="sound4" /&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Luefter</v>
+      <c r="B33" s="11" t="s">
+        <v>404</v>
       </c>
       <c r="C33" s="4">
         <v>0</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="9">
         <v>30</v>
       </c>
       <c r="E33" t="str">
         <f>VLOOKUP(D33,'CS2'!A:B,2)</f>
         <v>Luefter</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="30" Shortname="Luefter" Duration="0" FunctionTypeIndexCS2="30" FunctionTypeCS2="Luefter" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="30" Shortname="Lüfter" Duration="0" FunctionTypeIndexCS2="30" FunctionTypeCS2="Luefter" FunctionTypeZ21="blower" /&gt;</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Frbchsnblc</v>
+      <c r="B34" s="11" t="s">
+        <v>411</v>
       </c>
       <c r="C34" s="4">
         <v>0</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="9">
         <v>31</v>
       </c>
       <c r="E34" t="str">
         <f>VLOOKUP(D34,'CS2'!A:B,2)</f>
         <v>Feuerbuechsenbeleuchtung</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="31" Shortname="Frbchsnblc" Duration="0" FunctionTypeIndexCS2="31" FunctionTypeCS2="Feuerbuechsenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="31" Shortname="Feuerb_bel" Duration="0" FunctionTypeIndexCS2="31" FunctionTypeCS2="Feuerbuechsenbeleuchtung" FunctionTypeZ21="firebox" /&gt;</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Dcknblchtn</v>
+      <c r="B35" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="C35" s="4">
         <v>0</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="9">
         <v>32</v>
       </c>
       <c r="E35" t="str">
@@ -2464,22 +2987,21 @@
         <v>261</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="32" Shortname="Dcknblchtn" Duration="0" FunctionTypeIndexCS2="32" FunctionTypeCS2="Deckenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="32" Shortname="Deckenbel" Duration="0" FunctionTypeIndexCS2="32" FunctionTypeCS2="Deckenbeleuchtung" FunctionTypeZ21="interior_light" /&gt;</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tschblchtn</v>
+      <c r="B36" s="11" t="s">
+        <v>401</v>
       </c>
       <c r="C36" s="4">
         <v>0</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="9">
         <v>33</v>
       </c>
       <c r="E36" t="str">
@@ -2490,22 +3012,21 @@
         <v>309</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="33" Shortname="Tschblchtn" Duration="0" FunctionTypeIndexCS2="33" FunctionTypeCS2="Tischbeleuchtung_EP4" FunctionTypeZ21="tish_lamp" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="33" Shortname="Tischbel_4" Duration="0" FunctionTypeIndexCS2="33" FunctionTypeCS2="Tischbeleuchtung_EP4" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tschblchtn</v>
+      <c r="B37" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="C37" s="4">
         <v>0</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="9">
         <v>34</v>
       </c>
       <c r="E37" t="str">
@@ -2516,22 +3037,21 @@
         <v>309</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="34" Shortname="Tschblchtn" Duration="0" FunctionTypeIndexCS2="34" FunctionTypeCS2="Tischbeleuchtung_EP3" FunctionTypeZ21="tish_lamp" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="34" Shortname="Tischbel_3" Duration="0" FunctionTypeIndexCS2="34" FunctionTypeCS2="Tischbeleuchtung_EP3" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Tschblchtn</v>
+      <c r="B38" s="11" t="s">
+        <v>403</v>
       </c>
       <c r="C38" s="4">
         <v>0</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="9">
         <v>35</v>
       </c>
       <c r="E38" t="str">
@@ -2542,22 +3062,21 @@
         <v>309</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="35" Shortname="Tschblchtn" Duration="0" FunctionTypeIndexCS2="35" FunctionTypeCS2="Tischbeleuchtung_EP2" FunctionTypeZ21="tish_lamp" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="35" Shortname="Tischbel_2" Duration="0" FunctionTypeIndexCS2="35" FunctionTypeCS2="Tischbeleuchtung_EP2" FunctionTypeZ21="tish_lamp" /&gt;</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Schttlrst</v>
+      <c r="B39" s="11" t="s">
+        <v>449</v>
       </c>
       <c r="C39" s="4">
         <v>0</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="9">
         <v>36</v>
       </c>
       <c r="E39" t="str">
@@ -2568,22 +3087,21 @@
         <v>325</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="36" Shortname="Schttlrst" Duration="0" FunctionTypeIndexCS2="36" FunctionTypeCS2="Schuettelrost" FunctionTypeZ21="shaking_grates" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="36" Shortname="Schüttelst" Duration="0" FunctionTypeIndexCS2="36" FunctionTypeCS2="Schuettelrost" FunctionTypeZ21="shaking_grates" /&gt;</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Schnnstss</v>
+      <c r="B40" s="11" t="s">
+        <v>450</v>
       </c>
       <c r="C40" s="4">
         <v>0</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="9">
         <v>37</v>
       </c>
       <c r="E40" t="str">
@@ -2594,22 +3112,21 @@
         <v>265</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="37" Shortname="Schnnstss" Duration="0" FunctionTypeIndexCS2="37" FunctionTypeCS2="Schienenstoss" FunctionTypeZ21="rail_kick" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="37" Shortname="SchienStss" Duration="0" FunctionTypeIndexCS2="37" FunctionTypeCS2="Schienenstoss" FunctionTypeZ21="rail_kick" /&gt;</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Nmmrnschld</v>
+      <c r="B41" s="11" t="s">
+        <v>412</v>
       </c>
       <c r="C41" s="4">
         <v>0</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="9">
         <v>38</v>
       </c>
       <c r="E41" t="str">
@@ -2620,22 +3137,21 @@
         <v>300</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="38" Shortname="Nmmrnschld" Duration="0" FunctionTypeIndexCS2="38" FunctionTypeCS2="Nummernschildbeleuchtung" FunctionTypeZ21="licence_plate_light" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="38" Shortname="Kennz_bel" Duration="0" FunctionTypeIndexCS2="38" FunctionTypeCS2="Nummernschildbeleuchtung" FunctionTypeZ21="licence_plate_light" /&gt;</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Hntrgrndms</v>
+      <c r="B42" s="11" t="s">
+        <v>451</v>
       </c>
       <c r="C42" s="4">
         <v>0</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="9">
         <v>39</v>
       </c>
       <c r="E42" t="str">
@@ -2646,22 +3162,21 @@
         <v>313</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="39" Shortname="Hntrgrndms" Duration="0" FunctionTypeIndexCS2="39" FunctionTypeCS2="Hintergrundmusik" FunctionTypeZ21="clef" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="39" Shortname="Musik" Duration="0" FunctionTypeIndexCS2="39" FunctionTypeCS2="Hintergrundmusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Zglfschldb</v>
+      <c r="B43" s="11" t="s">
+        <v>452</v>
       </c>
       <c r="C43" s="4">
         <v>0</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="9">
         <v>40</v>
       </c>
       <c r="E43" t="str">
@@ -2672,22 +3187,21 @@
         <v>301</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="40" Shortname="Zglfschldb" Duration="0" FunctionTypeIndexCS2="40" FunctionTypeCS2="Zuglaufschildbeleuchtung" FunctionTypeZ21="destination_plate_light" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="40" Shortname="Zugschldbe" Duration="0" FunctionTypeIndexCS2="40" FunctionTypeCS2="Zuglaufschildbeleuchtung" FunctionTypeZ21="destination_plate_light" /&gt;</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lcht_n_Fhr</v>
+      <c r="B44" s="11" t="s">
+        <v>454</v>
       </c>
       <c r="C44" s="4">
         <v>0</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="9">
         <v>41</v>
       </c>
       <c r="E44" t="str">
@@ -2698,22 +3212,21 @@
         <v>260</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="41" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeIndexCS2="41" FunctionTypeCS2="Licht_an_Fuehrerstand_hinten_aus" FunctionTypeZ21="cockpit_light_right" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="41" Shortname="LichtFst_h" Duration="0" FunctionTypeIndexCS2="41" FunctionTypeCS2="Licht_an_Fuehrerstand_hinten_aus" FunctionTypeZ21="cockpit_light_right" /&gt;</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Lcht_n_Fhr</v>
+      <c r="B45" s="11" t="s">
+        <v>453</v>
       </c>
       <c r="C45" s="4">
         <v>0</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="9">
         <v>42</v>
       </c>
       <c r="E45" t="str">
@@ -2724,22 +3237,21 @@
         <v>259</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="42" Shortname="Lcht_n_Fhr" Duration="0" FunctionTypeIndexCS2="42" FunctionTypeCS2="Licht_an_Fuehrerstand_vorne_aus" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="42" Shortname="LichtFst_v" Duration="0" FunctionTypeIndexCS2="42" FunctionTypeCS2="Licht_an_Fuehrerstand_vorne_aus" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Kpplng_An_</v>
+      <c r="B46" s="11" t="s">
+        <v>455</v>
       </c>
       <c r="C46" s="4">
         <v>0</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="9">
         <v>43</v>
       </c>
       <c r="E46" t="str">
@@ -2750,22 +3262,21 @@
         <v>263</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="43" Shortname="Kpplng_An_" Duration="0" FunctionTypeIndexCS2="43" FunctionTypeCS2="Kupplung_An_Abkuppelgeraeusch" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="43" Shortname="KupplngSnd" Duration="0" FunctionTypeIndexCS2="43" FunctionTypeCS2="Kupplung_An_Abkuppelgeraeusch" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Pffrstss</v>
+      <c r="B47" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="C47" s="4">
         <v>0</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="9">
         <v>44</v>
       </c>
       <c r="E47" t="str">
@@ -2776,22 +3287,21 @@
         <v>264</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="44" Shortname="Pffrstss" Duration="0" FunctionTypeIndexCS2="44" FunctionTypeCS2="Pufferstoss" FunctionTypeZ21="puffer_kick" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="44" Shortname="PuffrStoss" Duration="0" FunctionTypeIndexCS2="44" FunctionTypeCS2="Pufferstoss" FunctionTypeZ21="puffer_kick" /&gt;</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Sprchsgb</v>
+      <c r="B48" s="11" t="s">
+        <v>400</v>
       </c>
       <c r="C48" s="4">
         <v>0</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="9">
         <v>45</v>
       </c>
       <c r="E48" t="str">
@@ -2802,32 +3312,33 @@
         <v>10</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="45" Shortname="Sprchsgb" Duration="0" FunctionTypeIndexCS2="45" FunctionTypeCS2="Sprachausgabe" FunctionTypeZ21="sound2" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="45" Shortname="Sprachausg" Duration="0" FunctionTypeIndexCS2="45" FunctionTypeCS2="Sprachausgabe" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Krn_Dpplhk</v>
+      <c r="B49" s="11" t="s">
+        <v>211</v>
       </c>
       <c r="C49" s="4">
         <v>0</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="9">
         <v>46</v>
       </c>
       <c r="E49" t="str">
         <f>VLOOKUP(D49,'CS2'!A:B,2)</f>
         <v>Kran_Doppelhaken</v>
       </c>
-      <c r="F49" s="4"/>
+      <c r="F49" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="46" Shortname="Krn_Dpplhk" Duration="0" FunctionTypeIndexCS2="46" FunctionTypeCS2="Kran_Doppelhaken" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="46" Shortname="Kran_Haken" Duration="0" FunctionTypeIndexCS2="46" FunctionTypeCS2="Kran_Doppelhaken" FunctionTypeZ21="pick_up" /&gt;</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -2835,13 +3346,13 @@
         <v>47</v>
       </c>
       <c r="B50" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Warnlicht</v>
       </c>
       <c r="C50" s="4">
         <v>0</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="9">
         <v>47</v>
       </c>
       <c r="E50" t="str">
@@ -2852,7 +3363,7 @@
         <v>253</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="47" Shortname="Warnlicht" Duration="0" FunctionTypeIndexCS2="47" FunctionTypeCS2="Warnlicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
     </row>
@@ -2860,14 +3371,13 @@
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fhrrstndsb</v>
+      <c r="B51" s="11" t="s">
+        <v>377</v>
       </c>
       <c r="C51" s="4">
         <v>0</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="9">
         <v>48</v>
       </c>
       <c r="E51" t="str">
@@ -2878,8 +3388,8 @@
         <v>259</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="48" Shortname="Fhrrstndsb" Duration="0" FunctionTypeIndexCS2="48" FunctionTypeCS2="Fuehrerstandsbeleuchtung" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="48" Shortname="Cockpitbel" Duration="0" FunctionTypeIndexCS2="48" FunctionTypeCS2="Fuehrerstandsbeleuchtung" FunctionTypeZ21="cockpit_light_left" /&gt;</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -2887,13 +3397,13 @@
         <v>49</v>
       </c>
       <c r="B52" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Injektor</v>
       </c>
       <c r="C52" s="4">
         <v>0</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="9">
         <v>49</v>
       </c>
       <c r="E52" t="str">
@@ -2904,7 +3414,7 @@
         <v>285</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>&lt;mapping Id="49" Shortname="Injektor" Duration="0" FunctionTypeIndexCS2="49" FunctionTypeCS2="Injektor" FunctionTypeZ21="injector" /&gt;</v>
       </c>
     </row>
@@ -2912,14 +3422,13 @@
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_0</v>
+      <c r="B53" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="C53" s="4">
         <v>0</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D53" s="9">
         <v>50</v>
       </c>
       <c r="E53" t="str">
@@ -2930,22 +3439,21 @@
         <v>314</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="50" Shortname="Funktion_0" Duration="0" FunctionTypeIndexCS2="50" FunctionTypeCS2="Funktion_0" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="50" Shortname="Funktion0" Duration="0" FunctionTypeIndexCS2="50" FunctionTypeCS2="Funktion_0" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_1</v>
+      <c r="B54" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="C54" s="4">
         <v>0</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D54" s="9">
         <v>51</v>
       </c>
       <c r="E54" t="str">
@@ -2956,22 +3464,21 @@
         <v>314</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="51" Shortname="Funktion_1" Duration="0" FunctionTypeIndexCS2="51" FunctionTypeCS2="Funktion_1" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="51" Shortname="Funktion1" Duration="0" FunctionTypeIndexCS2="51" FunctionTypeCS2="Funktion_1" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_2</v>
+      <c r="B55" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="C55" s="4">
         <v>0</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D55" s="9">
         <v>52</v>
       </c>
       <c r="E55" t="str">
@@ -2982,22 +3489,21 @@
         <v>314</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="52" Shortname="Funktion_2" Duration="0" FunctionTypeIndexCS2="52" FunctionTypeCS2="Funktion_2" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="52" Shortname="Funktion2" Duration="0" FunctionTypeIndexCS2="52" FunctionTypeCS2="Funktion_2" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="B56" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_3</v>
+      <c r="B56" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="C56" s="4">
         <v>0</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D56" s="9">
         <v>53</v>
       </c>
       <c r="E56" t="str">
@@ -3008,22 +3514,21 @@
         <v>314</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="53" Shortname="Funktion_3" Duration="0" FunctionTypeIndexCS2="53" FunctionTypeCS2="Funktion_3" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="53" Shortname="Funktion3" Duration="0" FunctionTypeIndexCS2="53" FunctionTypeCS2="Funktion_3" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_4</v>
+      <c r="B57" s="4" t="s">
+        <v>371</v>
       </c>
       <c r="C57" s="4">
         <v>0</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D57" s="9">
         <v>54</v>
       </c>
       <c r="E57" t="str">
@@ -3034,22 +3539,21 @@
         <v>314</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="54" Shortname="Funktion_4" Duration="0" FunctionTypeIndexCS2="54" FunctionTypeCS2="Funktion_4" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="54" Shortname="Funktion4" Duration="0" FunctionTypeIndexCS2="54" FunctionTypeCS2="Funktion_4" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_5</v>
+      <c r="B58" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="C58" s="4">
         <v>0</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D58" s="9">
         <v>55</v>
       </c>
       <c r="E58" t="str">
@@ -3060,22 +3564,21 @@
         <v>314</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="55" Shortname="Funktion_5" Duration="0" FunctionTypeIndexCS2="55" FunctionTypeCS2="Funktion_5" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="55" Shortname="Funktion5" Duration="0" FunctionTypeIndexCS2="55" FunctionTypeCS2="Funktion_5" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_6</v>
+      <c r="B59" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="C59" s="4">
         <v>0</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D59" s="9">
         <v>56</v>
       </c>
       <c r="E59" t="str">
@@ -3086,22 +3589,21 @@
         <v>314</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="56" Shortname="Funktion_6" Duration="0" FunctionTypeIndexCS2="56" FunctionTypeCS2="Funktion_6" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="56" Shortname="Funktion6" Duration="0" FunctionTypeIndexCS2="56" FunctionTypeCS2="Funktion_6" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_7</v>
+      <c r="B60" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="C60" s="4">
         <v>0</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D60" s="9">
         <v>57</v>
       </c>
       <c r="E60" t="str">
@@ -3112,22 +3614,21 @@
         <v>314</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="57" Shortname="Funktion_7" Duration="0" FunctionTypeIndexCS2="57" FunctionTypeCS2="Funktion_7" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="57" Shortname="Funktion7" Duration="0" FunctionTypeIndexCS2="57" FunctionTypeCS2="Funktion_7" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_8</v>
+      <c r="B61" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="C61" s="4">
         <v>0</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D61" s="9">
         <v>58</v>
       </c>
       <c r="E61" t="str">
@@ -3138,22 +3639,21 @@
         <v>314</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="58" Shortname="Funktion_8" Duration="0" FunctionTypeIndexCS2="58" FunctionTypeCS2="Funktion_8" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="58" Shortname="Funktion8" Duration="0" FunctionTypeIndexCS2="58" FunctionTypeCS2="Funktion_8" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Funktion_9</v>
+      <c r="B62" s="4" t="s">
+        <v>376</v>
       </c>
       <c r="C62" s="4">
         <v>0</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D62" s="9">
         <v>59</v>
       </c>
       <c r="E62" t="str">
@@ -3164,22 +3664,21 @@
         <v>314</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="59" Shortname="Funktion_9" Duration="0" FunctionTypeIndexCS2="59" FunctionTypeCS2="Funktion_9" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="59" Shortname="Funktion9" Duration="0" FunctionTypeIndexCS2="59" FunctionTypeCS2="Funktion_9" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_10</v>
+      <c r="B63" s="4" t="s">
+        <v>345</v>
       </c>
       <c r="C63" s="4">
         <v>0</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D63" s="9">
         <v>60</v>
       </c>
       <c r="E63" t="str">
@@ -3190,22 +3689,21 @@
         <v>314</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="60" Shortname="Fnktn_10" Duration="0" FunctionTypeIndexCS2="60" FunctionTypeCS2="Funktion_10" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="60" Shortname="Funktion10" Duration="0" FunctionTypeIndexCS2="60" FunctionTypeCS2="Funktion_10" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_11</v>
+      <c r="B64" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="C64" s="4">
         <v>0</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D64" s="9">
         <v>61</v>
       </c>
       <c r="E64" t="str">
@@ -3216,22 +3714,21 @@
         <v>314</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="61" Shortname="Fnktn_11" Duration="0" FunctionTypeIndexCS2="61" FunctionTypeCS2="Funktion_11" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="61" Shortname="Funktion11" Duration="0" FunctionTypeIndexCS2="61" FunctionTypeCS2="Funktion_11" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_12</v>
+      <c r="B65" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="C65" s="4">
         <v>0</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D65" s="9">
         <v>62</v>
       </c>
       <c r="E65" t="str">
@@ -3242,22 +3739,21 @@
         <v>314</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="62" Shortname="Fnktn_12" Duration="0" FunctionTypeIndexCS2="62" FunctionTypeCS2="Funktion_12" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="62" Shortname="Funktion12" Duration="0" FunctionTypeIndexCS2="62" FunctionTypeCS2="Funktion_12" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_13</v>
+      <c r="B66" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="C66" s="4">
         <v>0</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D66" s="9">
         <v>63</v>
       </c>
       <c r="E66" t="str">
@@ -3268,22 +3764,21 @@
         <v>314</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="63" Shortname="Fnktn_13" Duration="0" FunctionTypeIndexCS2="63" FunctionTypeCS2="Funktion_13" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="63" Shortname="Funktion13" Duration="0" FunctionTypeIndexCS2="63" FunctionTypeCS2="Funktion_13" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_14</v>
+      <c r="B67" s="4" t="s">
+        <v>349</v>
       </c>
       <c r="C67" s="4">
         <v>0</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D67" s="9">
         <v>64</v>
       </c>
       <c r="E67" t="str">
@@ -3294,22 +3789,21 @@
         <v>314</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="64" Shortname="Fnktn_14" Duration="0" FunctionTypeIndexCS2="64" FunctionTypeCS2="Funktion_14" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="64" Shortname="Funktion14" Duration="0" FunctionTypeIndexCS2="64" FunctionTypeCS2="Funktion_14" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" s="4" t="str">
-        <f t="shared" si="0"/>
-        <v>Fnktn_15</v>
+      <c r="B68" s="4" t="s">
+        <v>350</v>
       </c>
       <c r="C68" s="4">
         <v>0</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D68" s="9">
         <v>65</v>
       </c>
       <c r="E68" t="str">
@@ -3320,22 +3814,21 @@
         <v>314</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="1"/>
-        <v>&lt;mapping Id="65" Shortname="Fnktn_15" Duration="0" FunctionTypeIndexCS2="65" FunctionTypeCS2="Funktion_15" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="0"/>
+        <v>&lt;mapping Id="65" Shortname="Funktion15" Duration="0" FunctionTypeIndexCS2="65" FunctionTypeCS2="Funktion_15" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="4" t="str">
-        <f t="shared" ref="B69:B132" si="2">IF(LEN(E69)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E69,"a",""),"e",""),"i",""),"o",""),"u",""),10),E69)</f>
-        <v>Fnktn_16</v>
+      <c r="B69" s="4" t="s">
+        <v>351</v>
       </c>
       <c r="C69" s="4">
         <v>0</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D69" s="9">
         <v>66</v>
       </c>
       <c r="E69" t="str">
@@ -3346,22 +3839,21 @@
         <v>314</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" ref="H69:H132" si="3">"&lt;mapping Id="""&amp;A69&amp;""" Shortname="""&amp;B69&amp;""" Duration="""&amp;C69&amp;""" FunctionTypeIndexCS2="""&amp;D69&amp;""" FunctionTypeCS2="""&amp;E69&amp;""" FunctionTypeZ21="""&amp;F69&amp;""" /&gt;"</f>
-        <v>&lt;mapping Id="66" Shortname="Fnktn_16" Duration="0" FunctionTypeIndexCS2="66" FunctionTypeCS2="Funktion_16" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" ref="H69:H132" si="2">"&lt;mapping Id="""&amp;A69&amp;""" Shortname="""&amp;B69&amp;""" Duration="""&amp;C69&amp;""" FunctionTypeIndexCS2="""&amp;D69&amp;""" FunctionTypeCS2="""&amp;E69&amp;""" FunctionTypeZ21="""&amp;F69&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="66" Shortname="Funktion16" Duration="0" FunctionTypeIndexCS2="66" FunctionTypeCS2="Funktion_16" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_17</v>
+      <c r="B70" s="4" t="s">
+        <v>352</v>
       </c>
       <c r="C70" s="4">
         <v>0</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D70" s="9">
         <v>67</v>
       </c>
       <c r="E70" t="str">
@@ -3372,22 +3864,21 @@
         <v>314</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="67" Shortname="Fnktn_17" Duration="0" FunctionTypeIndexCS2="67" FunctionTypeCS2="Funktion_17" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="67" Shortname="Funktion17" Duration="0" FunctionTypeIndexCS2="67" FunctionTypeCS2="Funktion_17" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_18</v>
+      <c r="B71" s="4" t="s">
+        <v>353</v>
       </c>
       <c r="C71" s="4">
         <v>0</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D71" s="9">
         <v>68</v>
       </c>
       <c r="E71" t="str">
@@ -3398,22 +3889,21 @@
         <v>314</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="68" Shortname="Fnktn_18" Duration="0" FunctionTypeIndexCS2="68" FunctionTypeCS2="Funktion_18" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="68" Shortname="Funktion18" Duration="0" FunctionTypeIndexCS2="68" FunctionTypeCS2="Funktion_18" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_19</v>
+      <c r="B72" s="4" t="s">
+        <v>354</v>
       </c>
       <c r="C72" s="4">
         <v>0</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D72" s="9">
         <v>69</v>
       </c>
       <c r="E72" t="str">
@@ -3424,22 +3914,21 @@
         <v>314</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="69" Shortname="Fnktn_19" Duration="0" FunctionTypeIndexCS2="69" FunctionTypeCS2="Funktion_19" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="69" Shortname="Funktion19" Duration="0" FunctionTypeIndexCS2="69" FunctionTypeCS2="Funktion_19" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_20</v>
+      <c r="B73" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="C73" s="4">
         <v>0</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D73" s="9">
         <v>70</v>
       </c>
       <c r="E73" t="str">
@@ -3450,22 +3939,21 @@
         <v>314</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="70" Shortname="Fnktn_20" Duration="0" FunctionTypeIndexCS2="70" FunctionTypeCS2="Funktion_20" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="70" Shortname="Funktion20" Duration="0" FunctionTypeIndexCS2="70" FunctionTypeCS2="Funktion_20" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_21</v>
+      <c r="B74" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="C74" s="4">
         <v>0</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D74" s="9">
         <v>71</v>
       </c>
       <c r="E74" t="str">
@@ -3476,22 +3964,21 @@
         <v>314</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="71" Shortname="Fnktn_21" Duration="0" FunctionTypeIndexCS2="71" FunctionTypeCS2="Funktion_21" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="71" Shortname="Funktion21" Duration="0" FunctionTypeIndexCS2="71" FunctionTypeCS2="Funktion_21" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_22</v>
+      <c r="B75" s="4" t="s">
+        <v>357</v>
       </c>
       <c r="C75" s="4">
         <v>0</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D75" s="9">
         <v>72</v>
       </c>
       <c r="E75" t="str">
@@ -3502,22 +3989,21 @@
         <v>314</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="72" Shortname="Fnktn_22" Duration="0" FunctionTypeIndexCS2="72" FunctionTypeCS2="Funktion_22" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="72" Shortname="Funktion22" Duration="0" FunctionTypeIndexCS2="72" FunctionTypeCS2="Funktion_22" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_23</v>
+      <c r="B76" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="C76" s="4">
         <v>0</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D76" s="9">
         <v>73</v>
       </c>
       <c r="E76" t="str">
@@ -3528,22 +4014,21 @@
         <v>314</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="73" Shortname="Fnktn_23" Duration="0" FunctionTypeIndexCS2="73" FunctionTypeCS2="Funktion_23" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="73" Shortname="Funktion23" Duration="0" FunctionTypeIndexCS2="73" FunctionTypeCS2="Funktion_23" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_24</v>
+      <c r="B77" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="C77" s="4">
         <v>0</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D77" s="9">
         <v>74</v>
       </c>
       <c r="E77" t="str">
@@ -3554,22 +4039,21 @@
         <v>314</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="74" Shortname="Fnktn_24" Duration="0" FunctionTypeIndexCS2="74" FunctionTypeCS2="Funktion_24" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="74" Shortname="Funktion24" Duration="0" FunctionTypeIndexCS2="74" FunctionTypeCS2="Funktion_24" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_25</v>
+      <c r="B78" s="4" t="s">
+        <v>360</v>
       </c>
       <c r="C78" s="4">
         <v>0</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D78" s="9">
         <v>75</v>
       </c>
       <c r="E78" t="str">
@@ -3580,22 +4064,21 @@
         <v>314</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="75" Shortname="Fnktn_25" Duration="0" FunctionTypeIndexCS2="75" FunctionTypeCS2="Funktion_25" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="75" Shortname="Funktion25" Duration="0" FunctionTypeIndexCS2="75" FunctionTypeCS2="Funktion_25" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_26</v>
+      <c r="B79" s="4" t="s">
+        <v>361</v>
       </c>
       <c r="C79" s="4">
         <v>0</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D79" s="9">
         <v>76</v>
       </c>
       <c r="E79" t="str">
@@ -3606,22 +4089,21 @@
         <v>314</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="76" Shortname="Fnktn_26" Duration="0" FunctionTypeIndexCS2="76" FunctionTypeCS2="Funktion_26" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="76" Shortname="Funktion26" Duration="0" FunctionTypeIndexCS2="76" FunctionTypeCS2="Funktion_26" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_27</v>
+      <c r="B80" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="C80" s="4">
         <v>0</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D80" s="9">
         <v>77</v>
       </c>
       <c r="E80" t="str">
@@ -3632,22 +4114,21 @@
         <v>314</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="77" Shortname="Fnktn_27" Duration="0" FunctionTypeIndexCS2="77" FunctionTypeCS2="Funktion_27" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="77" Shortname="Funktion27" Duration="0" FunctionTypeIndexCS2="77" FunctionTypeCS2="Funktion_27" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_28</v>
+      <c r="B81" s="4" t="s">
+        <v>363</v>
       </c>
       <c r="C81" s="4">
         <v>0</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D81" s="9">
         <v>78</v>
       </c>
       <c r="E81" t="str">
@@ -3658,22 +4139,21 @@
         <v>314</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="78" Shortname="Fnktn_28" Duration="0" FunctionTypeIndexCS2="78" FunctionTypeCS2="Funktion_28" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="78" Shortname="Funktion28" Duration="0" FunctionTypeIndexCS2="78" FunctionTypeCS2="Funktion_28" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_29</v>
+      <c r="B82" s="4" t="s">
+        <v>364</v>
       </c>
       <c r="C82" s="4">
         <v>0</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D82" s="9">
         <v>79</v>
       </c>
       <c r="E82" t="str">
@@ -3684,22 +4164,21 @@
         <v>314</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="79" Shortname="Fnktn_29" Duration="0" FunctionTypeIndexCS2="79" FunctionTypeCS2="Funktion_29" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="79" Shortname="Funktion29" Duration="0" FunctionTypeIndexCS2="79" FunctionTypeCS2="Funktion_29" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_30</v>
+      <c r="B83" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="C83" s="4">
         <v>0</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D83" s="9">
         <v>80</v>
       </c>
       <c r="E83" t="str">
@@ -3710,22 +4189,21 @@
         <v>314</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="80" Shortname="Fnktn_30" Duration="0" FunctionTypeIndexCS2="80" FunctionTypeCS2="Funktion_30" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="80" Shortname="Funktion30" Duration="0" FunctionTypeIndexCS2="80" FunctionTypeCS2="Funktion_30" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnktn_31</v>
+      <c r="B84" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="C84" s="4">
         <v>0</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D84" s="9">
         <v>81</v>
       </c>
       <c r="E84" t="str">
@@ -3736,22 +4214,21 @@
         <v>314</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="81" Shortname="Fnktn_31" Duration="0" FunctionTypeIndexCS2="81" FunctionTypeCS2="Funktion_31" FunctionTypeZ21="neutral" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="81" Shortname="Funktion31" Duration="0" FunctionTypeIndexCS2="81" FunctionTypeCS2="Funktion_31" FunctionTypeZ21="neutral" /&gt;</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Tlxkpplng_</v>
+      <c r="B85" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="C85" s="4">
         <v>0</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D85" s="9">
         <v>82</v>
       </c>
       <c r="E85" t="str">
@@ -3762,22 +4239,21 @@
         <v>263</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="82" Shortname="Tlxkpplng_" Duration="0" FunctionTypeIndexCS2="82" FunctionTypeCS2="Telexkupplung_hinten" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="82" Shortname="Telex_hi" Duration="0" FunctionTypeIndexCS2="82" FunctionTypeCS2="Telexkupplung_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Tlxkpplng_</v>
+      <c r="B86" s="4" t="s">
+        <v>379</v>
       </c>
       <c r="C86" s="4">
         <v>0</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D86" s="9">
         <v>83</v>
       </c>
       <c r="E86" t="str">
@@ -3788,22 +4264,21 @@
         <v>263</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="83" Shortname="Tlxkpplng_" Duration="0" FunctionTypeIndexCS2="83" FunctionTypeCS2="Telexkupplung_vorn" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="83" Shortname="Telex_vo" Duration="0" FunctionTypeIndexCS2="83" FunctionTypeCS2="Telexkupplung_vorn" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Pntgrph_hn</v>
+      <c r="B87" s="4" t="s">
+        <v>380</v>
       </c>
       <c r="C87" s="4">
         <v>0</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D87" s="9">
         <v>84</v>
       </c>
       <c r="E87" t="str">
@@ -3814,22 +4289,21 @@
         <v>275</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="84" Shortname="Pntgrph_hn" Duration="0" FunctionTypeIndexCS2="84" FunctionTypeCS2="Pantograph_hinten" FunctionTypeZ21="backward_take_power" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="84" Shortname="Panto_hi" Duration="0" FunctionTypeIndexCS2="84" FunctionTypeCS2="Pantograph_hinten" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Pntgrph_vr</v>
+      <c r="B88" s="4" t="s">
+        <v>381</v>
       </c>
       <c r="C88" s="4">
         <v>0</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D88" s="9">
         <v>85</v>
       </c>
       <c r="E88" t="str">
@@ -3840,22 +4314,21 @@
         <v>274</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="85" Shortname="Pntgrph_vr" Duration="0" FunctionTypeIndexCS2="85" FunctionTypeCS2="Pantograph_vorne" FunctionTypeZ21="forward_take_power" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="85" Shortname="Panto_vo" Duration="0" FunctionTypeIndexCS2="85" FunctionTypeCS2="Pantograph_vorne" FunctionTypeZ21="forward_take_power" /&gt;</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Frnlcht_hn</v>
+      <c r="B89" s="4" t="s">
+        <v>382</v>
       </c>
       <c r="C89" s="4">
         <v>0</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D89" s="9">
         <v>86</v>
       </c>
       <c r="E89" t="str">
@@ -3866,22 +4339,21 @@
         <v>251</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="86" Shortname="Frnlcht_hn" Duration="0" FunctionTypeIndexCS2="86" FunctionTypeCS2="Fernlicht_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="86" Shortname="Fernli_hi" Duration="0" FunctionTypeIndexCS2="86" FunctionTypeCS2="Fernlicht_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Frnlcht_vr</v>
+      <c r="B90" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="C90" s="4">
         <v>0</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D90" s="9">
         <v>87</v>
       </c>
       <c r="E90" t="str">
@@ -3892,8 +4364,8 @@
         <v>251</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="87" Shortname="Frnlcht_vr" Duration="0" FunctionTypeIndexCS2="87" FunctionTypeCS2="Fernlicht_vorn" FunctionTypeZ21="main_beam" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="87" Shortname="Fernli_vo" Duration="0" FunctionTypeIndexCS2="87" FunctionTypeCS2="Fernlicht_vorn" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
@@ -3901,85 +4373,88 @@
         <v>88</v>
       </c>
       <c r="B91" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B91:B132" si="3">IF(LEN(E91)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E91,"a",""),"e",""),"i",""),"o",""),"u",""),10),E91)</f>
         <v>Shift</v>
       </c>
       <c r="C91" s="4">
         <v>0</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D91" s="9">
         <v>88</v>
       </c>
       <c r="E91" t="str">
         <f>VLOOKUP(D91,'CS2'!A:B,2)</f>
         <v>Shift</v>
       </c>
-      <c r="F91" s="4"/>
+      <c r="F91" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="88" Shortname="Shift" Duration="0" FunctionTypeIndexCS2="88" FunctionTypeCS2="Shift" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="88" Shortname="Shift" Duration="0" FunctionTypeIndexCS2="88" FunctionTypeCS2="Shift" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Vkmpmp</v>
+      <c r="B92" s="11" t="s">
+        <v>413</v>
       </c>
       <c r="C92" s="4">
         <v>0</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D92" s="9">
         <v>89</v>
       </c>
       <c r="E92" t="str">
         <f>VLOOKUP(D92,'CS2'!A:B,2)</f>
         <v>Vakuumpumpe</v>
       </c>
-      <c r="F92" s="4"/>
+      <c r="F92" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="89" Shortname="Vkmpmp" Duration="0" FunctionTypeIndexCS2="89" FunctionTypeCS2="Vakuumpumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="89" Shortname="VakuumPmp" Duration="0" FunctionTypeIndexCS2="89" FunctionTypeCS2="Vakuumpumpe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Trbwrksblc</v>
+      <c r="B93" s="11" t="s">
+        <v>414</v>
       </c>
       <c r="C93" s="4">
         <v>0</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D93" s="9">
         <v>90</v>
       </c>
       <c r="E93" t="str">
         <f>VLOOKUP(D93,'CS2'!A:B,2)</f>
         <v>Triebwerksbeleuchtung</v>
       </c>
-      <c r="F93" s="4"/>
+      <c r="F93" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="90" Shortname="Trbwrksblc" Duration="0" FunctionTypeIndexCS2="90" FunctionTypeCS2="Triebwerksbeleuchtung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="90" Shortname="Triebw_Bel" Duration="0" FunctionTypeIndexCS2="90" FunctionTypeCS2="Triebwerksbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Zylndr_sbl</v>
+      <c r="B94" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="C94" s="4">
         <v>0</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D94" s="9">
         <v>91</v>
       </c>
       <c r="E94" t="str">
@@ -3990,285 +4465,297 @@
         <v>279</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="91" Shortname="Zylndr_sbl" Duration="0" FunctionTypeIndexCS2="91" FunctionTypeCS2="Zylinder_ausblasen_Dampf_ablassen" FunctionTypeZ21="dump_steam" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="91" Shortname="DmpfAblass" Duration="0" FunctionTypeIndexCS2="91" FunctionTypeCS2="Zylinder_ausblasen_Dampf_ablassen" FunctionTypeZ21="dump_steam" /&gt;</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Drcklft_bl</v>
+      <c r="B95" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="C95" s="4">
         <v>0</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D95" s="9">
         <v>92</v>
       </c>
       <c r="E95" t="str">
         <f>VLOOKUP(D95,'CS2'!A:B,2)</f>
         <v>Druckluft_ablassen</v>
       </c>
-      <c r="F95" s="4"/>
+      <c r="F95" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="92" Shortname="Drcklft_bl" Duration="0" FunctionTypeIndexCS2="92" FunctionTypeCS2="Druckluft_ablassen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="92" Shortname="DrcklftAbl" Duration="0" FunctionTypeIndexCS2="92" FunctionTypeCS2="Druckluft_ablassen" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B96" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Kran</v>
       </c>
       <c r="C96" s="4">
         <v>0</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D96" s="9">
         <v>93</v>
       </c>
       <c r="E96" t="str">
         <f>VLOOKUP(D96,'CS2'!A:B,2)</f>
         <v>Kran</v>
       </c>
-      <c r="F96" s="4"/>
+      <c r="F96" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="93" Shortname="Kran" Duration="0" FunctionTypeIndexCS2="93" FunctionTypeCS2="Kran" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="93" Shortname="Kran" Duration="0" FunctionTypeIndexCS2="93" FunctionTypeCS2="Kran" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KrnBhn_f</v>
+      <c r="B97" s="11" t="s">
+        <v>391</v>
       </c>
       <c r="C97" s="4">
         <v>0</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D97" s="9">
         <v>94</v>
       </c>
       <c r="E97" t="str">
         <f>VLOOKUP(D97,'CS2'!A:B,2)</f>
         <v>KranBuehne_auf</v>
       </c>
-      <c r="F97" s="4"/>
+      <c r="F97" s="4" t="s">
+        <v>293</v>
+      </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="94" Shortname="KrnBhn_f" Duration="0" FunctionTypeIndexCS2="94" FunctionTypeCS2="KranBuehne_auf" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="94" Shortname="Kran_auf" Duration="0" FunctionTypeIndexCS2="94" FunctionTypeCS2="KranBuehne_auf" FunctionTypeZ21="crane_arm_up" /&gt;</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KrnBhn_b</v>
+      <c r="B98" s="11" t="s">
+        <v>392</v>
       </c>
       <c r="C98" s="4">
         <v>0</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D98" s="9">
         <v>95</v>
       </c>
       <c r="E98" t="str">
         <f>VLOOKUP(D98,'CS2'!A:B,2)</f>
         <v>KranBuehne_ab</v>
       </c>
-      <c r="F98" s="4"/>
+      <c r="F98" s="4" t="s">
+        <v>292</v>
+      </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="95" Shortname="KrnBhn_b" Duration="0" FunctionTypeIndexCS2="95" FunctionTypeCS2="KranBuehne_ab" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="95" Shortname="Kran_ab" Duration="0" FunctionTypeIndexCS2="95" FunctionTypeCS2="KranBuehne_ab" FunctionTypeZ21="crane_arm_down" /&gt;</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KrnBhn_lnk</v>
+      <c r="B99" s="11" t="s">
+        <v>393</v>
       </c>
       <c r="C99" s="4">
         <v>0</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D99" s="9">
         <v>96</v>
       </c>
       <c r="E99" t="str">
         <f>VLOOKUP(D99,'CS2'!A:B,2)</f>
         <v>KranBuehne_links</v>
       </c>
-      <c r="F99" s="4"/>
+      <c r="F99" s="4" t="s">
+        <v>303</v>
+      </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="96" Shortname="KrnBhn_lnk" Duration="0" FunctionTypeIndexCS2="96" FunctionTypeCS2="KranBuehne_links" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="96" Shortname="Kran_links" Duration="0" FunctionTypeIndexCS2="96" FunctionTypeCS2="KranBuehne_links" FunctionTypeZ21="rotate_left" /&gt;</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KrnBhn_rch</v>
+      <c r="B100" s="11" t="s">
+        <v>394</v>
       </c>
       <c r="C100" s="4">
         <v>0</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D100" s="9">
         <v>97</v>
       </c>
       <c r="E100" t="str">
         <f>VLOOKUP(D100,'CS2'!A:B,2)</f>
         <v>KranBuehne_rechts</v>
       </c>
-      <c r="F100" s="4"/>
+      <c r="F100" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="97" Shortname="KrnBhn_rch" Duration="0" FunctionTypeIndexCS2="97" FunctionTypeCS2="KranBuehne_rechts" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="97" Shortname="Kran_recht" Duration="0" FunctionTypeIndexCS2="97" FunctionTypeCS2="KranBuehne_rechts" FunctionTypeZ21="rotate_right" /&gt;</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>KrnBhn_drh</v>
+      <c r="B101" s="11" t="s">
+        <v>396</v>
       </c>
       <c r="C101" s="4">
         <v>0</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D101" s="9">
         <v>98</v>
       </c>
       <c r="E101" t="str">
         <f>VLOOKUP(D101,'CS2'!A:B,2)</f>
         <v>KranBuehne_drehen_rechts</v>
       </c>
-      <c r="F101" s="4"/>
+      <c r="F101" s="4" t="s">
+        <v>304</v>
+      </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="98" Shortname="KrnBhn_drh" Duration="0" FunctionTypeIndexCS2="98" FunctionTypeCS2="KranBuehne_drehen_rechts" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="98" Shortname="Kran_drehR" Duration="0" FunctionTypeIndexCS2="98" FunctionTypeCS2="KranBuehne_drehen_rechts" FunctionTypeZ21="rotate_right" /&gt;</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Krn_Mgnt</v>
+      <c r="B102" s="11" t="s">
+        <v>397</v>
       </c>
       <c r="C102" s="4">
         <v>0</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D102" s="9">
         <v>99</v>
       </c>
       <c r="E102" t="str">
         <f>VLOOKUP(D102,'CS2'!A:B,2)</f>
         <v>Kran_Magnet</v>
       </c>
-      <c r="F102" s="4"/>
+      <c r="F102" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="99" Shortname="Krn_Mgnt" Duration="0" FunctionTypeIndexCS2="99" FunctionTypeCS2="Kran_Magnet" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="99" Shortname="Kran_Magnt" Duration="0" FunctionTypeIndexCS2="99" FunctionTypeCS2="Kran_Magnet" FunctionTypeZ21="pick_up" /&gt;</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fhrtfrgb</v>
+      <c r="B103" s="11" t="s">
+        <v>490</v>
       </c>
       <c r="C103" s="4">
         <v>0</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D103" s="9">
         <v>100</v>
       </c>
       <c r="E103" t="str">
         <f>VLOOKUP(D103,'CS2'!A:B,2)</f>
         <v>Fahrtfreigabe</v>
       </c>
-      <c r="F103" s="4"/>
+      <c r="F103" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="100" Shortname="Fhrtfrgb" Duration="0" FunctionTypeIndexCS2="100" FunctionTypeCS2="Fahrtfreigabe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="100" Shortname="Fahrtfreig" Duration="0" FunctionTypeIndexCS2="100" FunctionTypeCS2="Fahrtfreigabe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="B104" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Pntgrph_Af</v>
+      <c r="B104" s="11" t="s">
+        <v>458</v>
       </c>
       <c r="C104" s="4">
         <v>0</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D104" s="9">
         <v>101</v>
       </c>
       <c r="E104" t="str">
         <f>VLOOKUP(D104,'CS2'!A:B,2)</f>
         <v>Pantograph_Auf_Abbuegelgeraeusch</v>
       </c>
-      <c r="F104" s="4"/>
+      <c r="F104" s="4" t="s">
+        <v>275</v>
+      </c>
       <c r="H104" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="101" Shortname="Pntgrph_Af" Duration="0" FunctionTypeIndexCS2="101" FunctionTypeCS2="Pantograph_Auf_Abbuegelgeraeusch" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="101" Shortname="PantoSound" Duration="0" FunctionTypeIndexCS2="101" FunctionTypeCS2="Pantograph_Auf_Abbuegelgeraeusch" FunctionTypeZ21="backward_take_power" /&gt;</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>336</v>
+      <c r="B105" s="11" t="s">
+        <v>335</v>
       </c>
       <c r="C105" s="4">
         <v>0</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D105" s="9">
         <v>102</v>
       </c>
       <c r="E105" t="str">
         <f>VLOOKUP(D105,'CS2'!A:B,2)</f>
         <v>Anfahr_Bremsverzoegerung_ein</v>
       </c>
-      <c r="F105" s="4"/>
+      <c r="F105" s="4" t="s">
+        <v>319</v>
+      </c>
       <c r="H105" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="102" Shortname="ABV_Ein" Duration="0" FunctionTypeIndexCS2="102" FunctionTypeCS2="Anfahr_Bremsverzoegerung_ein" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="102" Shortname="ABV_Ein" Duration="0" FunctionTypeIndexCS2="102" FunctionTypeCS2="Anfahr_Bremsverzoegerung_ein" FunctionTypeZ21="acc_delay" /&gt;</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Fnkgsprch</v>
+      <c r="B106" s="11" t="s">
+        <v>457</v>
       </c>
       <c r="C106" s="4">
         <v>0</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D106" s="9">
         <v>103</v>
       </c>
       <c r="E106" t="str">
@@ -4279,22 +4766,21 @@
         <v>249</v>
       </c>
       <c r="H106" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="103" Shortname="Fnkgsprch" Duration="0" FunctionTypeIndexCS2="103" FunctionTypeCS2="Funkgespraech" FunctionTypeZ21="hump_funk" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="103" Shortname="Funkgsprch" Duration="0" FunctionTypeIndexCS2="103" FunctionTypeCS2="Funkgespraech" FunctionTypeZ21="hump_funk" /&gt;</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Abfhrtsdrc</v>
+      <c r="B107" s="11" t="s">
+        <v>491</v>
       </c>
       <c r="C107" s="4">
         <v>0</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D107" s="9">
         <v>104</v>
       </c>
       <c r="E107" t="str">
@@ -4305,46 +4791,47 @@
         <v>315</v>
       </c>
       <c r="H107" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="104" Shortname="Abfhrtsdrc" Duration="0" FunctionTypeIndexCS2="104" FunctionTypeCS2="Abfahrtsdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="104" Shortname="AbfDurchsg" Duration="0" FunctionTypeIndexCS2="104" FunctionTypeCS2="Abfahrtsdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Assnblchtn</v>
+      <c r="B108" s="11" t="s">
+        <v>492</v>
       </c>
       <c r="C108" s="4">
         <v>0</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D108" s="9">
         <v>105</v>
       </c>
       <c r="E108" t="str">
         <f>VLOOKUP(D108,'CS2'!A:B,2)</f>
         <v>Aussenbeleuchtung_Frontlicht</v>
       </c>
-      <c r="F108" s="4"/>
+      <c r="F108" s="4" t="s">
+        <v>250</v>
+      </c>
       <c r="H108" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="105" Shortname="Assnblchtn" Duration="0" FunctionTypeIndexCS2="105" FunctionTypeCS2="Aussenbeleuchtung_Frontlicht" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="105" Shortname="Frontlicht" Duration="0" FunctionTypeIndexCS2="105" FunctionTypeCS2="Aussenbeleuchtung_Frontlicht" FunctionTypeZ21="main_beam2" /&gt;</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B109" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Luftpumpe</v>
       </c>
       <c r="C109" s="4">
         <v>0</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D109" s="9">
         <v>106</v>
       </c>
       <c r="E109" t="str">
@@ -4355,7 +4842,7 @@
         <v>271</v>
       </c>
       <c r="H109" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;mapping Id="106" Shortname="Luftpumpe" Duration="0" FunctionTypeIndexCS2="106" FunctionTypeCS2="Luftpumpe" FunctionTypeZ21="air_pump" /&gt;</v>
       </c>
     </row>
@@ -4363,38 +4850,39 @@
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Untrhltng_</v>
+      <c r="B110" s="11" t="s">
+        <v>493</v>
       </c>
       <c r="C110" s="4">
         <v>0</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D110" s="9">
         <v>107</v>
       </c>
       <c r="E110" t="str">
         <f>VLOOKUP(D110,'CS2'!A:B,2)</f>
         <v>Unterhaltung_Allgemein</v>
       </c>
-      <c r="F110" s="4"/>
+      <c r="F110" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H110" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="107" Shortname="Untrhltng_" Duration="0" FunctionTypeIndexCS2="107" FunctionTypeCS2="Unterhaltung_Allgemein" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="107" Shortname="Unterhltng" Duration="0" FunctionTypeIndexCS2="107" FunctionTypeCS2="Unterhaltung_Allgemein" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B111" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Sanden</v>
       </c>
       <c r="C111" s="4">
         <v>0</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D111" s="9">
         <v>108</v>
       </c>
       <c r="E111" t="str">
@@ -4405,7 +4893,7 @@
         <v>276</v>
       </c>
       <c r="H111" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;mapping Id="108" Shortname="Sanden" Duration="0" FunctionTypeIndexCS2="108" FunctionTypeCS2="Sanden" FunctionTypeZ21="sanden" /&gt;</v>
       </c>
     </row>
@@ -4413,14 +4901,14 @@
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B112" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Mute_Fade</v>
       </c>
       <c r="C112" s="4">
         <v>0</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D112" s="9">
         <v>109</v>
       </c>
       <c r="E112" t="str">
@@ -4431,7 +4919,7 @@
         <v>266</v>
       </c>
       <c r="H112" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;mapping Id="109" Shortname="Mute_Fade" Duration="0" FunctionTypeIndexCS2="109" FunctionTypeCS2="Mute_Fade" FunctionTypeZ21="mute" /&gt;</v>
       </c>
     </row>
@@ -4439,158 +4927,165 @@
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Trttstfnbl</v>
+      <c r="B113" s="11" t="s">
+        <v>417</v>
       </c>
       <c r="C113" s="4">
         <v>0</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D113" s="9">
         <v>110</v>
       </c>
       <c r="E113" t="str">
         <f>VLOOKUP(D113,'CS2'!A:B,2)</f>
         <v>Trittstufenbeleuchtung</v>
       </c>
-      <c r="F113" s="4"/>
+      <c r="F113" s="4" t="s">
+        <v>310</v>
+      </c>
       <c r="H113" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="110" Shortname="Trttstfnbl" Duration="0" FunctionTypeIndexCS2="110" FunctionTypeCS2="Trittstufenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="110" Shortname="Stufen_Bel" Duration="0" FunctionTypeIndexCS2="110" FunctionTypeCS2="Trittstufenbeleuchtung" FunctionTypeZ21="stair_light" /&gt;</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Spswssrpmp</v>
+      <c r="B114" s="11" t="s">
+        <v>496</v>
       </c>
       <c r="C114" s="4">
         <v>0</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D114" s="9">
         <v>111</v>
       </c>
       <c r="E114" t="str">
         <f>VLOOKUP(D114,'CS2'!A:B,2)</f>
         <v>Speisewasserpumpe</v>
       </c>
-      <c r="F114" s="4"/>
+      <c r="F114" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="H114" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="111" Shortname="Spswssrpmp" Duration="0" FunctionTypeIndexCS2="111" FunctionTypeCS2="Speisewasserpumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="111" Shortname="WasserPmp" Duration="0" FunctionTypeIndexCS2="111" FunctionTypeCS2="Speisewasserpumpe" FunctionTypeZ21="feed_pump" /&gt;</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B115" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Brmsnqtsch</v>
       </c>
       <c r="C115" s="4">
         <v>0</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D115" s="9">
         <v>112</v>
       </c>
       <c r="E115" t="str">
         <f>VLOOKUP(D115,'CS2'!A:B,2)</f>
         <v>Bremsenquietschen_ein</v>
       </c>
-      <c r="F115" s="4"/>
+      <c r="F115" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="H115" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="112" Shortname="Brmsnqtsch" Duration="0" FunctionTypeIndexCS2="112" FunctionTypeCS2="Bremsenquietschen_ein" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="112" Shortname="Brmsnqtsch" Duration="0" FunctionTypeIndexCS2="112" FunctionTypeCS2="Bremsenquietschen_ein" FunctionTypeZ21="sound_brake" /&gt;</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Oelpumpe</v>
+      <c r="B116" s="11" t="s">
+        <v>418</v>
       </c>
       <c r="C116" s="4">
         <v>0</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D116" s="9">
         <v>113</v>
       </c>
       <c r="E116" t="str">
         <f>VLOOKUP(D116,'CS2'!A:B,2)</f>
         <v>Oelpumpe</v>
       </c>
-      <c r="F116" s="4"/>
+      <c r="F116" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H116" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="113" Shortname="Oelpumpe" Duration="0" FunctionTypeIndexCS2="113" FunctionTypeCS2="Oelpumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="113" Shortname="Ölpumpe" Duration="0" FunctionTypeIndexCS2="113" FunctionTypeCS2="Oelpumpe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Schmrpmp</v>
+      <c r="B117" s="11" t="s">
+        <v>495</v>
       </c>
       <c r="C117" s="4">
         <v>0</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D117" s="9">
         <v>114</v>
       </c>
       <c r="E117" t="str">
         <f>VLOOKUP(D117,'CS2'!A:B,2)</f>
         <v>Schmierpumpe</v>
       </c>
-      <c r="F117" s="4"/>
+      <c r="F117" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H117" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="114" Shortname="Schmrpmp" Duration="0" FunctionTypeIndexCS2="114" FunctionTypeCS2="Schmierpumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="114" Shortname="SchmierPmp" Duration="0" FunctionTypeIndexCS2="114" FunctionTypeCS2="Schmierpumpe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Dslpmp</v>
+      <c r="B118" s="11" t="s">
+        <v>494</v>
       </c>
       <c r="C118" s="4">
         <v>0</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D118" s="9">
         <v>115</v>
       </c>
       <c r="E118" t="str">
         <f>VLOOKUP(D118,'CS2'!A:B,2)</f>
         <v>Dieselpumpe</v>
       </c>
-      <c r="F118" s="4"/>
+      <c r="F118" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H118" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="115" Shortname="Dslpmp" Duration="0" FunctionTypeIndexCS2="115" FunctionTypeCS2="Dieselpumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="115" Shortname="DieselPmp" Duration="0" FunctionTypeIndexCS2="115" FunctionTypeCS2="Dieselpumpe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B119" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Kompressor</v>
       </c>
       <c r="C119" s="4">
         <v>0</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D119" s="9">
         <v>116</v>
       </c>
       <c r="E119" t="str">
@@ -4601,7 +5096,7 @@
         <v>270</v>
       </c>
       <c r="H119" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;mapping Id="116" Shortname="Kompressor" Duration="0" FunctionTypeIndexCS2="116" FunctionTypeCS2="Kompressor" FunctionTypeZ21="compressor" /&gt;</v>
       </c>
     </row>
@@ -4609,38 +5104,38 @@
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Knslnblcht</v>
+      <c r="B120" s="11" t="s">
+        <v>497</v>
       </c>
       <c r="C120" s="4">
         <v>0</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D120" s="9">
         <v>117</v>
       </c>
       <c r="E120" t="str">
         <f>VLOOKUP(D120,'CS2'!A:B,2)</f>
         <v>Konsolenbeleuchtung</v>
       </c>
-      <c r="F120" s="4"/>
+      <c r="F120" s="4" t="s">
+        <v>254</v>
+      </c>
       <c r="H120" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="117" Shortname="Knslnblcht" Duration="0" FunctionTypeIndexCS2="117" FunctionTypeCS2="Konsolenbeleuchtung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="117" Shortname="KonsoleBel" Duration="0" FunctionTypeIndexCS2="117" FunctionTypeCS2="Konsolenbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Rngrblchtn</v>
+      <c r="B121" s="11" t="s">
+        <v>498</v>
       </c>
       <c r="C121" s="4">
         <v>0</v>
       </c>
-      <c r="D121" s="10">
+      <c r="D121" s="9">
         <v>118</v>
       </c>
       <c r="E121" t="str">
@@ -4651,70 +5146,71 @@
         <v>257</v>
       </c>
       <c r="H121" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="118" Shortname="Rngrblchtn" Duration="0" FunctionTypeIndexCS2="118" FunctionTypeCS2="Rangierbeleuchtung" FunctionTypeZ21="sidelights" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="118" Shortname="RangierBel" Duration="0" FunctionTypeIndexCS2="118" FunctionTypeCS2="Rangierbeleuchtung" FunctionTypeZ21="sidelights" /&gt;</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="B122" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Prtyblchtn</v>
+      <c r="B122" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="C122" s="4">
         <v>0</v>
       </c>
-      <c r="D122" s="10">
+      <c r="D122" s="9">
         <v>119</v>
       </c>
       <c r="E122" t="str">
         <f>VLOOKUP(D122,'CS2'!A:B,2)</f>
         <v>Partybeleuchtung</v>
       </c>
-      <c r="F122" s="4"/>
+      <c r="F122" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="H122" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="119" Shortname="Prtyblchtn" Duration="0" FunctionTypeIndexCS2="119" FunctionTypeCS2="Partybeleuchtung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="119" Shortname="PartyBel" Duration="0" FunctionTypeIndexCS2="119" FunctionTypeCS2="Partybeleuchtung" FunctionTypeZ21="cabin_light" /&gt;</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="B123" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Wrtnd_Pssg</v>
+      <c r="B123" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="C123" s="4">
         <v>0</v>
       </c>
-      <c r="D123" s="10">
+      <c r="D123" s="9">
         <v>120</v>
       </c>
       <c r="E123" t="str">
         <f>VLOOKUP(D123,'CS2'!A:B,2)</f>
         <v>Wartende_Passagiere</v>
       </c>
-      <c r="F123" s="4"/>
+      <c r="F123" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H123" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="120" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeIndexCS2="120" FunctionTypeCS2="Wartende_Passagiere" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="120" Shortname="Passagiere" Duration="0" FunctionTypeIndexCS2="120" FunctionTypeCS2="Wartende_Passagiere" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Anknft_Zln</v>
+      <c r="B124" s="11" t="s">
+        <v>500</v>
       </c>
       <c r="C124" s="4">
         <v>0</v>
       </c>
-      <c r="D124" s="10">
+      <c r="D124" s="9">
         <v>121</v>
       </c>
       <c r="E124" t="str">
@@ -4725,22 +5221,21 @@
         <v>315</v>
       </c>
       <c r="H124" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="121" Shortname="Anknft_Zln" Duration="0" FunctionTypeIndexCS2="121" FunctionTypeCS2="Ankunft_Zielansage" FunctionTypeZ21="sound1" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="121" Shortname="Zielansage" Duration="0" FunctionTypeIndexCS2="121" FunctionTypeCS2="Ankunft_Zielansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Zgnsg_Schf</v>
+      <c r="B125" s="11" t="s">
+        <v>501</v>
       </c>
       <c r="C125" s="4">
         <v>0</v>
       </c>
-      <c r="D125" s="10">
+      <c r="D125" s="9">
         <v>122</v>
       </c>
       <c r="E125" t="str">
@@ -4751,94 +5246,98 @@
         <v>316</v>
       </c>
       <c r="H125" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="122" Shortname="Zgnsg_Schf" Duration="0" FunctionTypeIndexCS2="122" FunctionTypeCS2="Zugansage_Schaffener" FunctionTypeZ21="sound3" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="122" Shortname="Zugansage" Duration="0" FunctionTypeIndexCS2="122" FunctionTypeCS2="Zugansage_Schaffener" FunctionTypeZ21="sound3" /&gt;</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B126" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Schrhtsvnt</v>
       </c>
       <c r="C126" s="4">
         <v>0</v>
       </c>
-      <c r="D126" s="10">
+      <c r="D126" s="9">
         <v>123</v>
       </c>
       <c r="E126" t="str">
         <f>VLOOKUP(D126,'CS2'!A:B,2)</f>
         <v>Sicherheitsventil</v>
       </c>
-      <c r="F126" s="4"/>
+      <c r="F126" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="H126" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="123" Shortname="Schrhtsvnt" Duration="0" FunctionTypeIndexCS2="123" FunctionTypeCS2="Sicherheitsventil" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="123" Shortname="Schrhtsvnt" Duration="0" FunctionTypeIndexCS2="123" FunctionTypeCS2="Sicherheitsventil" FunctionTypeZ21="valve" /&gt;</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B127" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Ksslhzng</v>
       </c>
       <c r="C127" s="4">
         <v>0</v>
       </c>
-      <c r="D127" s="10">
+      <c r="D127" s="9">
         <v>124</v>
       </c>
       <c r="E127" t="str">
         <f>VLOOKUP(D127,'CS2'!A:B,2)</f>
         <v>Kesselheizung</v>
       </c>
-      <c r="F127" s="4"/>
+      <c r="F127" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H127" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="124" Shortname="Ksslhzng" Duration="0" FunctionTypeIndexCS2="124" FunctionTypeCS2="Kesselheizung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="124" Shortname="Ksslhzng" Duration="0" FunctionTypeIndexCS2="124" FunctionTypeCS2="Kesselheizung" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="B128" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Hlfsggrgt_</v>
+      <c r="B128" s="11" t="s">
+        <v>502</v>
       </c>
       <c r="C128" s="4">
         <v>0</v>
       </c>
-      <c r="D128" s="10">
+      <c r="D128" s="9">
         <v>125</v>
       </c>
       <c r="E128" t="str">
         <f>VLOOKUP(D128,'CS2'!A:B,2)</f>
         <v>Hilfsaggregat_Hilfsdiesel</v>
       </c>
-      <c r="F128" s="4"/>
+      <c r="F128" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H128" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="125" Shortname="Hlfsggrgt_" Duration="0" FunctionTypeIndexCS2="125" FunctionTypeCS2="Hilfsaggregat_Hilfsdiesel" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="125" Shortname="Hilfsdiesl" Duration="0" FunctionTypeIndexCS2="125" FunctionTypeCS2="Hilfsaggregat_Hilfsdiesel" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Mschnnrmbl</v>
+      <c r="B129" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="C129" s="4">
         <v>0</v>
       </c>
-      <c r="D129" s="10">
+      <c r="D129" s="9">
         <v>126</v>
       </c>
       <c r="E129" t="str">
@@ -4849,22 +5348,22 @@
         <v>254</v>
       </c>
       <c r="H129" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="126" Shortname="Mschnnrmbl" Duration="0" FunctionTypeIndexCS2="126" FunctionTypeCS2="Maschinenraumbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="126" Shortname="MaschinBel" Duration="0" FunctionTypeIndexCS2="126" FunctionTypeCS2="Maschinenraumbeleuchtung" FunctionTypeZ21="cycle_light" /&gt;</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B130" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Partymusik</v>
       </c>
       <c r="C130" s="4">
         <v>0</v>
       </c>
-      <c r="D130" s="10">
+      <c r="D130" s="9">
         <v>128</v>
       </c>
       <c r="E130" t="str">
@@ -4875,7 +5374,7 @@
         <v>313</v>
       </c>
       <c r="H130" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>&lt;mapping Id="127" Shortname="Partymusik" Duration="0" FunctionTypeIndexCS2="128" FunctionTypeCS2="Partymusik" FunctionTypeZ21="clef" /&gt;</v>
       </c>
     </row>
@@ -4883,14 +5382,13 @@
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v>Krvngrsch</v>
+      <c r="B131" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="C131" s="4">
         <v>0</v>
       </c>
-      <c r="D131" s="10">
+      <c r="D131" s="9">
         <v>129</v>
       </c>
       <c r="E131" t="str">
@@ -4901,46 +5399,47 @@
         <v>269</v>
       </c>
       <c r="H131" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="128" Shortname="Krvngrsch" Duration="0" FunctionTypeIndexCS2="129" FunctionTypeCS2="Kurvengeraeusch" FunctionTypeZ21="curve_sound" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="128" Shortname="Kurven_Snd" Duration="0" FunctionTypeIndexCS2="129" FunctionTypeCS2="Kurvengeraeusch" FunctionTypeZ21="curve_sound" /&gt;</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" s="4" t="str">
-        <f t="shared" si="2"/>
+      <c r="B132" s="11" t="str">
+        <f t="shared" si="3"/>
         <v>Blinker</v>
       </c>
       <c r="C132" s="4">
         <v>0</v>
       </c>
-      <c r="D132" s="10">
+      <c r="D132" s="9">
         <v>130</v>
       </c>
       <c r="E132" t="str">
         <f>VLOOKUP(D132,'CS2'!A:B,2)</f>
         <v>Blinker</v>
       </c>
-      <c r="F132" s="4"/>
+      <c r="F132" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H132" s="5" t="str">
-        <f t="shared" si="3"/>
-        <v>&lt;mapping Id="129" Shortname="Blinker" Duration="0" FunctionTypeIndexCS2="130" FunctionTypeCS2="Blinker" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="2"/>
+        <v>&lt;mapping Id="129" Shortname="Blinker" Duration="0" FunctionTypeIndexCS2="130" FunctionTypeCS2="Blinker" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
-      <c r="B133" s="4" t="str">
-        <f t="shared" ref="B133:B196" si="4">IF(LEN(E133)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E133,"a",""),"e",""),"i",""),"o",""),"u",""),10),E133)</f>
-        <v>Ablssvntl</v>
+      <c r="B133" s="11" t="s">
+        <v>419</v>
       </c>
       <c r="C133" s="4">
         <v>0</v>
       </c>
-      <c r="D133" s="10">
+      <c r="D133" s="9">
         <v>131</v>
       </c>
       <c r="E133" t="str">
@@ -4951,2490 +5450,2599 @@
         <v>278</v>
       </c>
       <c r="H133" s="5" t="str">
-        <f t="shared" ref="H133:H196" si="5">"&lt;mapping Id="""&amp;A133&amp;""" Shortname="""&amp;B133&amp;""" Duration="""&amp;C133&amp;""" FunctionTypeIndexCS2="""&amp;D133&amp;""" FunctionTypeCS2="""&amp;E133&amp;""" FunctionTypeZ21="""&amp;F133&amp;""" /&gt;"</f>
-        <v>&lt;mapping Id="130" Shortname="Ablssvntl" Duration="0" FunctionTypeIndexCS2="131" FunctionTypeCS2="Ablassventil" FunctionTypeZ21="drain_valve" /&gt;</v>
+        <f t="shared" ref="H133:H195" si="4">"&lt;mapping Id="""&amp;A133&amp;""" Shortname="""&amp;B133&amp;""" Duration="""&amp;C133&amp;""" FunctionTypeIndexCS2="""&amp;D133&amp;""" FunctionTypeCS2="""&amp;E133&amp;""" FunctionTypeZ21="""&amp;F133&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="130" Shortname="Ablassvntl" Duration="0" FunctionTypeIndexCS2="131" FunctionTypeCS2="Ablassventil" FunctionTypeZ21="drain_valve" /&gt;</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
-      <c r="B134" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Wrnmldngn</v>
+      <c r="B134" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="C134" s="4">
         <v>0</v>
       </c>
-      <c r="D134" s="10">
+      <c r="D134" s="9">
         <v>132</v>
       </c>
       <c r="E134" t="str">
         <f>VLOOKUP(D134,'CS2'!A:B,2)</f>
         <v>Warnmeldungen</v>
       </c>
-      <c r="F134" s="4"/>
+      <c r="F134" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="H134" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="131" Shortname="Wrnmldngn" Duration="0" FunctionTypeIndexCS2="132" FunctionTypeCS2="Warnmeldungen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="131" Shortname="Warnung" Duration="0" FunctionTypeIndexCS2="132" FunctionTypeCS2="Warnmeldungen" FunctionTypeZ21="warning" /&gt;</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
-      <c r="B135" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Fhrrstndsg</v>
+      <c r="B135" s="11" t="s">
+        <v>505</v>
       </c>
       <c r="C135" s="4">
         <v>0</v>
       </c>
-      <c r="D135" s="10">
+      <c r="D135" s="9">
         <v>133</v>
       </c>
       <c r="E135" t="str">
         <f>VLOOKUP(D135,'CS2'!A:B,2)</f>
         <v>Fuehrerstandsgespraech</v>
       </c>
-      <c r="F135" s="4"/>
+      <c r="F135" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H135" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="132" Shortname="Fhrrstndsg" Duration="0" FunctionTypeIndexCS2="133" FunctionTypeCS2="Fuehrerstandsgespraech" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="132" Shortname="Führerstnd" Duration="0" FunctionTypeIndexCS2="133" FunctionTypeCS2="Fuehrerstandsgespraech" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
-      <c r="B136" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Infrmtnsdr</v>
+      <c r="B136" s="11" t="s">
+        <v>473</v>
       </c>
       <c r="C136" s="4">
         <v>0</v>
       </c>
-      <c r="D136" s="10">
+      <c r="D136" s="9">
         <v>134</v>
       </c>
       <c r="E136" t="str">
         <f>VLOOKUP(D136,'CS2'!A:B,2)</f>
         <v>Informationsdurchsage</v>
       </c>
-      <c r="F136" s="4"/>
+      <c r="F136" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H136" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="133" Shortname="Infrmtnsdr" Duration="0" FunctionTypeIndexCS2="134" FunctionTypeCS2="Informationsdurchsage" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="133" Shortname="Info" Duration="0" FunctionTypeIndexCS2="134" FunctionTypeCS2="Informationsdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
-      <c r="B137" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Snstg_Pmp</v>
+      <c r="B137" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="C137" s="4">
         <v>0</v>
       </c>
-      <c r="D137" s="10">
+      <c r="D137" s="9">
         <v>135</v>
       </c>
       <c r="E137" t="str">
         <f>VLOOKUP(D137,'CS2'!A:B,2)</f>
         <v>Sonstige_Pumpe</v>
       </c>
-      <c r="F137" s="4"/>
+      <c r="F137" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H137" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="134" Shortname="Snstg_Pmp" Duration="0" FunctionTypeIndexCS2="135" FunctionTypeCS2="Sonstige_Pumpe" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="134" Shortname="PumpeSonst" Duration="0" FunctionTypeIndexCS2="135" FunctionTypeCS2="Sonstige_Pumpe" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
-      <c r="B138" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Kmbntn_sch</v>
+      <c r="B138" s="11" t="s">
+        <v>506</v>
       </c>
       <c r="C138" s="4">
         <v>0</v>
       </c>
-      <c r="D138" s="10">
+      <c r="D138" s="9">
         <v>136</v>
       </c>
       <c r="E138" t="str">
         <f>VLOOKUP(D138,'CS2'!A:B,2)</f>
         <v>Kombination_schaufeln_Feuerbuechse</v>
       </c>
-      <c r="F138" s="4"/>
+      <c r="F138" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H138" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="135" Shortname="Kmbntn_sch" Duration="0" FunctionTypeIndexCS2="136" FunctionTypeCS2="Kombination_schaufeln_Feuerbuechse" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="135" Shortname="Feuerbüchs" Duration="0" FunctionTypeIndexCS2="136" FunctionTypeCS2="Kombination_schaufeln_Feuerbuechse" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
-      <c r="B139" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Bwglchr_Sc</v>
+      <c r="B139" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="C139" s="4">
         <v>0</v>
       </c>
-      <c r="D139" s="10">
+      <c r="D139" s="9">
         <v>137</v>
       </c>
       <c r="E139" t="str">
         <f>VLOOKUP(D139,'CS2'!A:B,2)</f>
         <v>Beweglicher_Schaffner</v>
       </c>
-      <c r="F139" s="4"/>
+      <c r="F139" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H139" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="136" Shortname="Bwglchr_Sc" Duration="0" FunctionTypeIndexCS2="137" FunctionTypeCS2="Beweglicher_Schaffner" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="136" Shortname="Schaffner" Duration="0" FunctionTypeIndexCS2="137" FunctionTypeCS2="Beweglicher_Schaffner" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
-      <c r="B140" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Fnstr_f_z</v>
+      <c r="B140" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="C140" s="4">
         <v>0</v>
       </c>
-      <c r="D140" s="10">
+      <c r="D140" s="9">
         <v>138</v>
       </c>
       <c r="E140" t="str">
         <f>VLOOKUP(D140,'CS2'!A:B,2)</f>
         <v>Fenster_auf_zu</v>
       </c>
-      <c r="F140" s="4"/>
+      <c r="F140" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H140" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="137" Shortname="Fnstr_f_z" Duration="0" FunctionTypeIndexCS2="138" FunctionTypeCS2="Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="137" Shortname="Fensterbew" Duration="0" FunctionTypeIndexCS2="138" FunctionTypeCS2="Fenster_auf_zu" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
-      <c r="B141" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Fnst</v>
+      <c r="B141" s="11" t="s">
+        <v>471</v>
       </c>
       <c r="C141" s="4">
         <v>0</v>
       </c>
-      <c r="D141" s="10">
+      <c r="D141" s="9">
         <v>139</v>
       </c>
       <c r="E141" t="str">
         <f>VLOOKUP(D141,'CS2'!A:B,2)</f>
         <v>Geraeusch_Fenster_auf_zu</v>
       </c>
-      <c r="F141" s="4"/>
+      <c r="F141" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H141" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="138" Shortname="Grsch_Fnst" Duration="0" FunctionTypeIndexCS2="139" FunctionTypeCS2="Geraeusch_Fenster_auf_zu" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="138" Shortname="Fensterbew" Duration="0" FunctionTypeIndexCS2="139" FunctionTypeCS2="Geraeusch_Fenster_auf_zu" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
-      <c r="B142" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Drchsg_Trn</v>
+      <c r="B142" s="11" t="s">
+        <v>474</v>
       </c>
       <c r="C142" s="4">
         <v>0</v>
       </c>
-      <c r="D142" s="10">
+      <c r="D142" s="9">
         <v>140</v>
       </c>
       <c r="E142" t="str">
         <f>VLOOKUP(D142,'CS2'!A:B,2)</f>
         <v>Durchsage_Tueren_schlissen_rechts</v>
       </c>
-      <c r="F142" s="4"/>
+      <c r="F142" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H142" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="139" Shortname="Drchsg_Trn" Duration="0" FunctionTypeIndexCS2="140" FunctionTypeCS2="Durchsage_Tueren_schlissen_rechts" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="139" Shortname="TürSchlies" Duration="0" FunctionTypeIndexCS2="140" FunctionTypeCS2="Durchsage_Tueren_schlissen_rechts" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>140</v>
       </c>
-      <c r="B143" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Ambnt_Stdt</v>
+      <c r="B143" s="11" t="s">
+        <v>475</v>
       </c>
       <c r="C143" s="4">
         <v>0</v>
       </c>
-      <c r="D143" s="10">
+      <c r="D143" s="9">
         <v>141</v>
       </c>
       <c r="E143" t="str">
         <f>VLOOKUP(D143,'CS2'!A:B,2)</f>
         <v>Ambiente_Stadt</v>
       </c>
-      <c r="F143" s="4"/>
+      <c r="F143" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H143" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="140" Shortname="Ambnt_Stdt" Duration="0" FunctionTypeIndexCS2="141" FunctionTypeCS2="Ambiente_Stadt" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A143&amp;""" Shortname="""&amp;B143&amp;""" Duration="""&amp;C143&amp;""" FunctionTypeIndexCS2="""&amp;D143&amp;""" FunctionTypeCS2="""&amp;E143&amp;""" FunctionTypeZ21="""&amp;F143&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="140" Shortname="Stadt" Duration="0" FunctionTypeIndexCS2="141" FunctionTypeCS2="Ambiente_Stadt" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>141</v>
       </c>
-      <c r="B144" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Ambnt_Tnnl</v>
+      <c r="B144" s="11" t="s">
+        <v>476</v>
       </c>
       <c r="C144" s="4">
         <v>0</v>
       </c>
-      <c r="D144" s="10">
+      <c r="D144" s="9">
         <v>142</v>
       </c>
       <c r="E144" t="str">
         <f>VLOOKUP(D144,'CS2'!A:B,2)</f>
         <v>Ambiente_Tunnel</v>
       </c>
-      <c r="F144" s="4"/>
+      <c r="F144" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H144" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="141" Shortname="Ambnt_Tnnl" Duration="0" FunctionTypeIndexCS2="142" FunctionTypeCS2="Ambiente_Tunnel" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A144&amp;""" Shortname="""&amp;B144&amp;""" Duration="""&amp;C144&amp;""" FunctionTypeIndexCS2="""&amp;D144&amp;""" FunctionTypeCS2="""&amp;E144&amp;""" FunctionTypeZ21="""&amp;F144&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="141" Shortname="Tunnel" Duration="0" FunctionTypeIndexCS2="142" FunctionTypeCS2="Ambiente_Tunnel" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
-      <c r="B145" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Ambnt_Sthl</v>
+      <c r="B145" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="C145" s="4">
         <v>0</v>
       </c>
-      <c r="D145" s="10">
+      <c r="D145" s="9">
         <v>143</v>
       </c>
       <c r="E145" t="str">
         <f>VLOOKUP(D145,'CS2'!A:B,2)</f>
         <v>Ambiente_Stahlbruecke</v>
       </c>
-      <c r="F145" s="4"/>
+      <c r="F145" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H145" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="142" Shortname="Ambnt_Sthl" Duration="0" FunctionTypeIndexCS2="143" FunctionTypeCS2="Ambiente_Stahlbruecke" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A145&amp;""" Shortname="""&amp;B145&amp;""" Duration="""&amp;C145&amp;""" FunctionTypeIndexCS2="""&amp;D145&amp;""" FunctionTypeCS2="""&amp;E145&amp;""" FunctionTypeZ21="""&amp;F145&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="142" Shortname="Stahlbrcke" Duration="0" FunctionTypeIndexCS2="143" FunctionTypeCS2="Ambiente_Stahlbruecke" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
-      <c r="B146" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Ambnt_Btnb</v>
+      <c r="B146" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="C146" s="4">
         <v>0</v>
       </c>
-      <c r="D146" s="10">
+      <c r="D146" s="9">
         <v>144</v>
       </c>
       <c r="E146" t="str">
         <f>VLOOKUP(D146,'CS2'!A:B,2)</f>
         <v>Ambiente_Betonbruecke</v>
       </c>
-      <c r="F146" s="4"/>
+      <c r="F146" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H146" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="143" Shortname="Ambnt_Btnb" Duration="0" FunctionTypeIndexCS2="144" FunctionTypeCS2="Ambiente_Betonbruecke" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A146&amp;""" Shortname="""&amp;B146&amp;""" Duration="""&amp;C146&amp;""" FunctionTypeIndexCS2="""&amp;D146&amp;""" FunctionTypeCS2="""&amp;E146&amp;""" FunctionTypeZ21="""&amp;F146&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="143" Shortname="Betonbrcke" Duration="0" FunctionTypeIndexCS2="144" FunctionTypeCS2="Ambiente_Betonbruecke" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>144</v>
       </c>
-      <c r="B147" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Klpp</v>
+      <c r="B147" s="11" t="s">
+        <v>479</v>
       </c>
       <c r="C147" s="4">
         <v>0</v>
       </c>
-      <c r="D147" s="10">
+      <c r="D147" s="9">
         <v>145</v>
       </c>
       <c r="E147" t="str">
         <f>VLOOKUP(D147,'CS2'!A:B,2)</f>
         <v>Geraeusch_Klapptuere</v>
       </c>
-      <c r="F147" s="4"/>
+      <c r="F147" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H147" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="144" Shortname="Grsch_Klpp" Duration="0" FunctionTypeIndexCS2="145" FunctionTypeCS2="Geraeusch_Klapptuere" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A147&amp;""" Shortname="""&amp;B147&amp;""" Duration="""&amp;C147&amp;""" FunctionTypeIndexCS2="""&amp;D147&amp;""" FunctionTypeCS2="""&amp;E147&amp;""" FunctionTypeZ21="""&amp;F147&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="144" Shortname="KlpptürSnd" Duration="0" FunctionTypeIndexCS2="145" FunctionTypeCS2="Geraeusch_Klapptuere" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>145</v>
       </c>
-      <c r="B148" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Tr</v>
+      <c r="B148" s="11" t="s">
+        <v>481</v>
       </c>
       <c r="C148" s="4">
         <v>0</v>
       </c>
-      <c r="D148" s="10">
+      <c r="D148" s="9">
         <v>146</v>
       </c>
       <c r="E148" t="str">
         <f>VLOOKUP(D148,'CS2'!A:B,2)</f>
         <v>Geraeusch_Tuere</v>
       </c>
-      <c r="F148" s="4"/>
+      <c r="F148" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H148" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="145" Shortname="Grsch_Tr" Duration="0" FunctionTypeIndexCS2="146" FunctionTypeCS2="Geraeusch_Tuere" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A148&amp;""" Shortname="""&amp;B148&amp;""" Duration="""&amp;C148&amp;""" FunctionTypeIndexCS2="""&amp;D148&amp;""" FunctionTypeCS2="""&amp;E148&amp;""" FunctionTypeZ21="""&amp;F148&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="145" Shortname="TüreSound" Duration="0" FunctionTypeIndexCS2="146" FunctionTypeCS2="Geraeusch_Tuere" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>146</v>
       </c>
-      <c r="B149" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Fllt</v>
+      <c r="B149" s="11" t="s">
+        <v>480</v>
       </c>
       <c r="C149" s="4">
         <v>0</v>
       </c>
-      <c r="D149" s="10">
+      <c r="D149" s="9">
         <v>147</v>
       </c>
       <c r="E149" t="str">
         <f>VLOOKUP(D149,'CS2'!A:B,2)</f>
         <v>Geraeusch_Falltuere</v>
       </c>
-      <c r="F149" s="4"/>
+      <c r="F149" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H149" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="146" Shortname="Grsch_Fllt" Duration="0" FunctionTypeIndexCS2="147" FunctionTypeCS2="Geraeusch_Falltuere" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A149&amp;""" Shortname="""&amp;B149&amp;""" Duration="""&amp;C149&amp;""" FunctionTypeIndexCS2="""&amp;D149&amp;""" FunctionTypeCS2="""&amp;E149&amp;""" FunctionTypeZ21="""&amp;F149&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="146" Shortname="FalltürSnd" Duration="0" FunctionTypeIndexCS2="147" FunctionTypeCS2="Geraeusch_Falltuere" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>147</v>
       </c>
-      <c r="B150" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Rllt</v>
+      <c r="B150" s="11" t="s">
+        <v>482</v>
       </c>
       <c r="C150" s="4">
         <v>0</v>
       </c>
-      <c r="D150" s="10">
+      <c r="D150" s="9">
         <v>148</v>
       </c>
       <c r="E150" t="str">
         <f>VLOOKUP(D150,'CS2'!A:B,2)</f>
         <v>Geraeusch_Rolltor</v>
       </c>
-      <c r="F150" s="4"/>
+      <c r="F150" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H150" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="147" Shortname="Grsch_Rllt" Duration="0" FunctionTypeIndexCS2="148" FunctionTypeCS2="Geraeusch_Rolltor" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A150&amp;""" Shortname="""&amp;B150&amp;""" Duration="""&amp;C150&amp;""" FunctionTypeIndexCS2="""&amp;D150&amp;""" FunctionTypeCS2="""&amp;E150&amp;""" FunctionTypeZ21="""&amp;F150&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="147" Shortname="RolltorSnd" Duration="0" FunctionTypeIndexCS2="148" FunctionTypeCS2="Geraeusch_Rolltor" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
-      <c r="B151" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Rllt</v>
+      <c r="B151" s="11" t="s">
+        <v>487</v>
       </c>
       <c r="C151" s="4">
         <v>0</v>
       </c>
-      <c r="D151" s="10">
-        <v>148</v>
+      <c r="D151" s="9">
+        <v>149</v>
       </c>
       <c r="E151" t="str">
         <f>VLOOKUP(D151,'CS2'!A:B,2)</f>
-        <v>Geraeusch_Rolltor</v>
-      </c>
-      <c r="F151" s="4"/>
+        <v>Geraeusch_Schiebetuer</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H151" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="148" Shortname="Grsch_Rllt" Duration="0" FunctionTypeIndexCS2="148" FunctionTypeCS2="Geraeusch_Rolltor" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A151&amp;""" Shortname="""&amp;B151&amp;""" Duration="""&amp;C151&amp;""" FunctionTypeIndexCS2="""&amp;D151&amp;""" FunctionTypeCS2="""&amp;E151&amp;""" FunctionTypeZ21="""&amp;F151&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="148" Shortname="SchbtürSnd" Duration="0" FunctionTypeIndexCS2="149" FunctionTypeCS2="Geraeusch_Schiebetuer" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>149</v>
       </c>
-      <c r="B152" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Grsch_Schb</v>
+      <c r="B152" s="11" t="str">
+        <f t="shared" ref="B135:B195" si="5">IF(LEN(E152)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E152,"a",""),"e",""),"i",""),"o",""),"u",""),10),E152)</f>
+        <v>Dampfstoss</v>
       </c>
       <c r="C152" s="4">
         <v>0</v>
       </c>
-      <c r="D152" s="10">
-        <v>149</v>
+      <c r="D152" s="9">
+        <v>201</v>
       </c>
       <c r="E152" t="str">
         <f>VLOOKUP(D152,'CS2'!A:B,2)</f>
-        <v>Geraeusch_Schiebetuer</v>
-      </c>
-      <c r="F152" s="4"/>
+        <v>Dampfstoss</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H152" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="149" Shortname="Grsch_Schb" Duration="0" FunctionTypeIndexCS2="149" FunctionTypeCS2="Geraeusch_Schiebetuer" FunctionTypeZ21="" /&gt;</v>
+        <f>"&lt;mapping Id="""&amp;A152&amp;""" Shortname="""&amp;B152&amp;""" Duration="""&amp;C152&amp;""" FunctionTypeIndexCS2="""&amp;D152&amp;""" FunctionTypeCS2="""&amp;E152&amp;""" FunctionTypeZ21="""&amp;F152&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="149" Shortname="Dampfstoss" Duration="0" FunctionTypeIndexCS2="201" FunctionTypeCS2="Dampfstoss" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
-      <c r="B153" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Dampfstoss</v>
+      <c r="B153" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="C153" s="4">
         <v>0</v>
       </c>
-      <c r="D153" s="10">
-        <v>201</v>
+      <c r="D153" s="9">
+        <v>202</v>
       </c>
       <c r="E153" t="str">
         <f>VLOOKUP(D153,'CS2'!A:B,2)</f>
-        <v>Dampfstoss</v>
-      </c>
-      <c r="F153" s="4"/>
+        <v>Dieselheizung</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="H153" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="150" Shortname="Dampfstoss" Duration="0" FunctionTypeIndexCS2="201" FunctionTypeCS2="Dampfstoss" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="150" Shortname="Dieselhzng" Duration="0" FunctionTypeIndexCS2="202" FunctionTypeCS2="Dieselheizung" FunctionTypeZ21="preheat" /&gt;</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>151</v>
       </c>
-      <c r="B154" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Dslhzng</v>
+      <c r="B154" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Zugheizung</v>
       </c>
       <c r="C154" s="4">
         <v>0</v>
       </c>
-      <c r="D154" s="10">
-        <v>202</v>
+      <c r="D154" s="9">
+        <v>203</v>
       </c>
       <c r="E154" t="str">
         <f>VLOOKUP(D154,'CS2'!A:B,2)</f>
-        <v>Dieselheizung</v>
-      </c>
-      <c r="F154" s="4"/>
+        <v>Zugheizung</v>
+      </c>
+      <c r="F154" s="4" t="s">
+        <v>324</v>
+      </c>
       <c r="H154" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="151" Shortname="Dslhzng" Duration="0" FunctionTypeIndexCS2="202" FunctionTypeCS2="Dieselheizung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="151" Shortname="Zugheizung" Duration="0" FunctionTypeIndexCS2="203" FunctionTypeCS2="Zugheizung" FunctionTypeZ21="preheat" /&gt;</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>152</v>
       </c>
-      <c r="B155" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zugheizung</v>
+      <c r="B155" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Segeln</v>
       </c>
       <c r="C155" s="4">
         <v>0</v>
       </c>
-      <c r="D155" s="10">
-        <v>203</v>
+      <c r="D155" s="9">
+        <v>204</v>
       </c>
       <c r="E155" t="str">
         <f>VLOOKUP(D155,'CS2'!A:B,2)</f>
-        <v>Zugheizung</v>
-      </c>
-      <c r="F155" s="4"/>
+        <v>Segeln</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H155" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="152" Shortname="Zugheizung" Duration="0" FunctionTypeIndexCS2="203" FunctionTypeCS2="Zugheizung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="152" Shortname="Segeln" Duration="0" FunctionTypeIndexCS2="204" FunctionTypeCS2="Segeln" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>153</v>
       </c>
-      <c r="B156" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Segeln</v>
+      <c r="B156" s="11" t="s">
+        <v>484</v>
       </c>
       <c r="C156" s="4">
         <v>0</v>
       </c>
-      <c r="D156" s="10">
-        <v>204</v>
+      <c r="D156" s="9">
+        <v>205</v>
       </c>
       <c r="E156" t="str">
         <f>VLOOKUP(D156,'CS2'!A:B,2)</f>
-        <v>Segeln</v>
-      </c>
-      <c r="F156" s="4"/>
+        <v>Zug_Infoansage</v>
+      </c>
+      <c r="F156" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H156" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="153" Shortname="Segeln" Duration="0" FunctionTypeIndexCS2="204" FunctionTypeCS2="Segeln" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="153" Shortname="Infoansage" Duration="0" FunctionTypeIndexCS2="205" FunctionTypeCS2="Zug_Infoansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zg_Infnsg</v>
+      <c r="B157" s="11" t="s">
+        <v>485</v>
       </c>
       <c r="C157" s="4">
         <v>0</v>
       </c>
-      <c r="D157" s="10">
-        <v>205</v>
+      <c r="D157" s="9">
+        <v>206</v>
       </c>
       <c r="E157" t="str">
         <f>VLOOKUP(D157,'CS2'!A:B,2)</f>
-        <v>Zug_Infoansage</v>
+        <v>Sonderansage</v>
       </c>
       <c r="F157" s="4" t="s">
         <v>315</v>
       </c>
       <c r="H157" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="154" Shortname="Zg_Infnsg" Duration="0" FunctionTypeIndexCS2="205" FunctionTypeCS2="Zug_Infoansage" FunctionTypeZ21="sound1" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="154" Shortname="Sondransag" Duration="0" FunctionTypeIndexCS2="206" FunctionTypeCS2="Sonderansage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>155</v>
       </c>
-      <c r="B158" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Sndrnsg</v>
+      <c r="B158" s="11" t="s">
+        <v>486</v>
       </c>
       <c r="C158" s="4">
         <v>0</v>
       </c>
-      <c r="D158" s="10">
-        <v>206</v>
+      <c r="D158" s="9">
+        <v>207</v>
       </c>
       <c r="E158" t="str">
         <f>VLOOKUP(D158,'CS2'!A:B,2)</f>
-        <v>Sonderansage</v>
-      </c>
-      <c r="F158" s="4"/>
+        <v>Wartende_Passagiere_am_Bahnhof</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="H158" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="155" Shortname="Sndrnsg" Duration="0" FunctionTypeIndexCS2="206" FunctionTypeCS2="Sonderansage" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="155" Shortname="Passagiere" Duration="0" FunctionTypeIndexCS2="207" FunctionTypeCS2="Wartende_Passagiere_am_Bahnhof" FunctionTypeZ21="sound2" /&gt;</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>156</v>
       </c>
-      <c r="B159" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Wrtnd_Pssg</v>
+      <c r="B159" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Bocksprung</v>
       </c>
       <c r="C159" s="4">
         <v>0</v>
       </c>
-      <c r="D159" s="10">
-        <v>207</v>
+      <c r="D159" s="9">
+        <v>208</v>
       </c>
       <c r="E159" t="str">
         <f>VLOOKUP(D159,'CS2'!A:B,2)</f>
-        <v>Wartende_Passagiere_am_Bahnhof</v>
-      </c>
-      <c r="F159" s="4"/>
+        <v>Bocksprung</v>
+      </c>
+      <c r="F159" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H159" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="156" Shortname="Wrtnd_Pssg" Duration="0" FunctionTypeIndexCS2="207" FunctionTypeCS2="Wartende_Passagiere_am_Bahnhof" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="156" Shortname="Bocksprung" Duration="0" FunctionTypeIndexCS2="208" FunctionTypeCS2="Bocksprung" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>157</v>
       </c>
-      <c r="B160" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Bocksprung</v>
+      <c r="B160" s="11" t="s">
+        <v>474</v>
       </c>
       <c r="C160" s="4">
         <v>0</v>
       </c>
-      <c r="D160" s="10">
-        <v>208</v>
+      <c r="D160" s="9">
+        <v>209</v>
       </c>
       <c r="E160" t="str">
         <f>VLOOKUP(D160,'CS2'!A:B,2)</f>
-        <v>Bocksprung</v>
-      </c>
-      <c r="F160" s="4"/>
+        <v>Durchsage_Tueren_schlissen_links</v>
+      </c>
+      <c r="F160" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H160" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="157" Shortname="Bocksprung" Duration="0" FunctionTypeIndexCS2="208" FunctionTypeCS2="Bocksprung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="157" Shortname="TürSchlies" Duration="0" FunctionTypeIndexCS2="209" FunctionTypeCS2="Durchsage_Tueren_schlissen_links" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>158</v>
       </c>
-      <c r="B161" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Drchsg_Trn</v>
+      <c r="B161" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Zuggattung</v>
       </c>
       <c r="C161" s="4">
         <v>0</v>
       </c>
-      <c r="D161" s="10">
-        <v>209</v>
+      <c r="D161" s="9">
+        <v>210</v>
       </c>
       <c r="E161" t="str">
         <f>VLOOKUP(D161,'CS2'!A:B,2)</f>
-        <v>Durchsage_Tueren_schlissen_links</v>
-      </c>
-      <c r="F161" s="4"/>
+        <v>Zuggattung</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H161" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="158" Shortname="Drchsg_Trn" Duration="0" FunctionTypeIndexCS2="209" FunctionTypeCS2="Durchsage_Tueren_schlissen_links" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="158" Shortname="Zuggattung" Duration="0" FunctionTypeIndexCS2="210" FunctionTypeCS2="Zuggattung" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
-      <c r="B162" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zuggattung</v>
+      <c r="B162" s="11" t="s">
+        <v>489</v>
       </c>
       <c r="C162" s="4">
         <v>0</v>
       </c>
-      <c r="D162" s="10">
-        <v>210</v>
+      <c r="D162" s="9">
+        <v>211</v>
       </c>
       <c r="E162" t="str">
         <f>VLOOKUP(D162,'CS2'!A:B,2)</f>
-        <v>Zuggattung</v>
-      </c>
-      <c r="F162" s="4"/>
+        <v>Zugdurchsage</v>
+      </c>
+      <c r="F162" s="4" t="s">
+        <v>315</v>
+      </c>
       <c r="H162" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="159" Shortname="Zuggattung" Duration="0" FunctionTypeIndexCS2="210" FunctionTypeCS2="Zuggattung" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="159" Shortname="Durchsage" Duration="0" FunctionTypeIndexCS2="211" FunctionTypeCS2="Zugdurchsage" FunctionTypeZ21="sound1" /&gt;</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>160</v>
       </c>
-      <c r="B163" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zgdrchsg</v>
+      <c r="B163" s="11" t="s">
+        <v>488</v>
       </c>
       <c r="C163" s="4">
         <v>0</v>
       </c>
-      <c r="D163" s="10">
-        <v>211</v>
+      <c r="D163" s="9">
+        <v>212</v>
       </c>
       <c r="E163" t="str">
         <f>VLOOKUP(D163,'CS2'!A:B,2)</f>
-        <v>Zugdurchsage</v>
-      </c>
-      <c r="F163" s="4"/>
+        <v>Warnblinklicht</v>
+      </c>
+      <c r="F163" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="H163" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="160" Shortname="Zgdrchsg" Duration="0" FunctionTypeIndexCS2="211" FunctionTypeCS2="Zugdurchsage" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="160" Shortname="Warnblink" Duration="0" FunctionTypeIndexCS2="212" FunctionTypeCS2="Warnblinklicht" FunctionTypeZ21="all_round_light" /&gt;</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>161</v>
       </c>
-      <c r="B164" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Wrnblnklch</v>
+      <c r="B164" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Play</v>
       </c>
       <c r="C164" s="4">
         <v>0</v>
       </c>
-      <c r="D164" s="10">
-        <v>212</v>
+      <c r="D164" s="9">
+        <v>213</v>
       </c>
       <c r="E164" t="str">
         <f>VLOOKUP(D164,'CS2'!A:B,2)</f>
-        <v>Warnblinklicht</v>
+        <v>Play</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="H164" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="161" Shortname="Wrnblnklch" Duration="0" FunctionTypeIndexCS2="212" FunctionTypeCS2="Warnblinklicht" FunctionTypeZ21="all_round_light" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="161" Shortname="Play" Duration="0" FunctionTypeIndexCS2="213" FunctionTypeCS2="Play" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>162</v>
       </c>
-      <c r="B165" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Play</v>
+      <c r="B165" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Pause</v>
       </c>
       <c r="C165" s="4">
         <v>0</v>
       </c>
-      <c r="D165" s="10">
-        <v>213</v>
+      <c r="D165" s="9">
+        <v>214</v>
       </c>
       <c r="E165" t="str">
         <f>VLOOKUP(D165,'CS2'!A:B,2)</f>
-        <v>Play</v>
-      </c>
-      <c r="F165" s="4"/>
+        <v>Pause</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H165" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="162" Shortname="Play" Duration="0" FunctionTypeIndexCS2="213" FunctionTypeCS2="Play" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="162" Shortname="Pause" Duration="0" FunctionTypeIndexCS2="214" FunctionTypeCS2="Pause" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>163</v>
       </c>
-      <c r="B166" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Pause</v>
+      <c r="B166" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Vor</v>
       </c>
       <c r="C166" s="4">
         <v>0</v>
       </c>
-      <c r="D166" s="10">
-        <v>214</v>
+      <c r="D166" s="9">
+        <v>215</v>
       </c>
       <c r="E166" t="str">
         <f>VLOOKUP(D166,'CS2'!A:B,2)</f>
-        <v>Pause</v>
-      </c>
-      <c r="F166" s="4"/>
+        <v>Vor</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H166" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="163" Shortname="Pause" Duration="0" FunctionTypeIndexCS2="214" FunctionTypeCS2="Pause" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="163" Shortname="Vor" Duration="0" FunctionTypeIndexCS2="215" FunctionTypeCS2="Vor" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>164</v>
       </c>
-      <c r="B167" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Vor</v>
+      <c r="B167" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Zurueck</v>
       </c>
       <c r="C167" s="4">
         <v>0</v>
       </c>
-      <c r="D167" s="10">
-        <v>215</v>
+      <c r="D167" s="9">
+        <v>216</v>
       </c>
       <c r="E167" t="str">
         <f>VLOOKUP(D167,'CS2'!A:B,2)</f>
-        <v>Vor</v>
-      </c>
-      <c r="F167" s="4"/>
+        <v>Zurueck</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H167" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="164" Shortname="Vor" Duration="0" FunctionTypeIndexCS2="215" FunctionTypeCS2="Vor" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="164" Shortname="Zurueck" Duration="0" FunctionTypeIndexCS2="216" FunctionTypeCS2="Zurueck" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>165</v>
       </c>
-      <c r="B168" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zurueck</v>
+      <c r="B168" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Laut</v>
       </c>
       <c r="C168" s="4">
         <v>0</v>
       </c>
-      <c r="D168" s="10">
-        <v>216</v>
+      <c r="D168" s="9">
+        <v>217</v>
       </c>
       <c r="E168" t="str">
         <f>VLOOKUP(D168,'CS2'!A:B,2)</f>
-        <v>Zurueck</v>
-      </c>
-      <c r="F168" s="4"/>
+        <v>Laut</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>268</v>
+      </c>
       <c r="H168" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="165" Shortname="Zurueck" Duration="0" FunctionTypeIndexCS2="216" FunctionTypeCS2="Zurueck" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="165" Shortname="Laut" Duration="0" FunctionTypeIndexCS2="217" FunctionTypeCS2="Laut" FunctionTypeZ21="louder" /&gt;</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>166</v>
       </c>
-      <c r="B169" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Laut</v>
+      <c r="B169" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Leise</v>
       </c>
       <c r="C169" s="4">
         <v>0</v>
       </c>
-      <c r="D169" s="10">
-        <v>217</v>
+      <c r="D169" s="9">
+        <v>218</v>
       </c>
       <c r="E169" t="str">
         <f>VLOOKUP(D169,'CS2'!A:B,2)</f>
-        <v>Laut</v>
+        <v>Leise</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H169" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="166" Shortname="Laut" Duration="0" FunctionTypeIndexCS2="217" FunctionTypeCS2="Laut" FunctionTypeZ21="louder" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="166" Shortname="Leise" Duration="0" FunctionTypeIndexCS2="218" FunctionTypeCS2="Leise" FunctionTypeZ21="quieter" /&gt;</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>167</v>
       </c>
-      <c r="B170" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Leise</v>
+      <c r="B170" s="11" t="s">
+        <v>422</v>
       </c>
       <c r="C170" s="4">
         <v>0</v>
       </c>
-      <c r="D170" s="10">
-        <v>218</v>
+      <c r="D170" s="9">
+        <v>221</v>
       </c>
       <c r="E170" t="str">
         <f>VLOOKUP(D170,'CS2'!A:B,2)</f>
-        <v>Leise</v>
+        <v>Licht_Abteile</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="H170" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="167" Shortname="Leise" Duration="0" FunctionTypeIndexCS2="218" FunctionTypeCS2="Leise" FunctionTypeZ21="quieter" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="167" Shortname="Licht_Abtl" Duration="0" FunctionTypeIndexCS2="221" FunctionTypeCS2="Licht_Abteile" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>168</v>
       </c>
-      <c r="B171" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Lcht_Abtl</v>
+      <c r="B171" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Licht_Gang</v>
       </c>
       <c r="C171" s="4">
         <v>0</v>
       </c>
-      <c r="D171" s="10">
-        <v>221</v>
+      <c r="D171" s="9">
+        <v>222</v>
       </c>
       <c r="E171" t="str">
         <f>VLOOKUP(D171,'CS2'!A:B,2)</f>
-        <v>Licht_Abteile</v>
-      </c>
-      <c r="F171" s="4"/>
+        <v>Licht_Gang</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H171" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="168" Shortname="Lcht_Abtl" Duration="0" FunctionTypeIndexCS2="221" FunctionTypeCS2="Licht_Abteile" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="168" Shortname="Licht_Gang" Duration="0" FunctionTypeIndexCS2="222" FunctionTypeCS2="Licht_Gang" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>169</v>
       </c>
-      <c r="B172" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Licht_Gang</v>
+      <c r="B172" s="11" t="s">
+        <v>423</v>
       </c>
       <c r="C172" s="4">
         <v>0</v>
       </c>
-      <c r="D172" s="10">
-        <v>222</v>
+      <c r="D172" s="9">
+        <v>223</v>
       </c>
       <c r="E172" t="str">
         <f>VLOOKUP(D172,'CS2'!A:B,2)</f>
-        <v>Licht_Gang</v>
-      </c>
-      <c r="F172" s="4"/>
+        <v>Licht_Kueche</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H172" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="169" Shortname="Licht_Gang" Duration="0" FunctionTypeIndexCS2="222" FunctionTypeCS2="Licht_Gang" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="169" Shortname="Licht_Küch" Duration="0" FunctionTypeIndexCS2="223" FunctionTypeCS2="Licht_Kueche" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>170</v>
       </c>
-      <c r="B173" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Lcht_Kch</v>
+      <c r="B173" s="11" t="s">
+        <v>424</v>
       </c>
       <c r="C173" s="4">
         <v>0</v>
       </c>
-      <c r="D173" s="10">
-        <v>223</v>
+      <c r="D173" s="9">
+        <v>224</v>
       </c>
       <c r="E173" t="str">
         <f>VLOOKUP(D173,'CS2'!A:B,2)</f>
-        <v>Licht_Kueche</v>
-      </c>
-      <c r="F173" s="4"/>
+        <v>Licht_Gepaeck</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H173" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="170" Shortname="Lcht_Kch" Duration="0" FunctionTypeIndexCS2="223" FunctionTypeCS2="Licht_Kueche" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="170" Shortname="Licht_Gpck" Duration="0" FunctionTypeIndexCS2="224" FunctionTypeCS2="Licht_Gepaeck" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>171</v>
       </c>
-      <c r="B174" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Lcht_Gpck</v>
+      <c r="B174" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Licht_Bar</v>
       </c>
       <c r="C174" s="4">
         <v>0</v>
       </c>
-      <c r="D174" s="10">
-        <v>224</v>
+      <c r="D174" s="9">
+        <v>225</v>
       </c>
       <c r="E174" t="str">
         <f>VLOOKUP(D174,'CS2'!A:B,2)</f>
-        <v>Licht_Gepaeck</v>
-      </c>
-      <c r="F174" s="4"/>
+        <v>Licht_Bar</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H174" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="171" Shortname="Lcht_Gpck" Duration="0" FunctionTypeIndexCS2="224" FunctionTypeCS2="Licht_Gepaeck" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="171" Shortname="Licht_Bar" Duration="0" FunctionTypeIndexCS2="225" FunctionTypeCS2="Licht_Bar" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>172</v>
       </c>
-      <c r="B175" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Licht_Bar</v>
+      <c r="B175" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Tanken</v>
       </c>
       <c r="C175" s="4">
         <v>0</v>
       </c>
-      <c r="D175" s="10">
-        <v>225</v>
+      <c r="D175" s="9">
+        <v>226</v>
       </c>
       <c r="E175" t="str">
         <f>VLOOKUP(D175,'CS2'!A:B,2)</f>
-        <v>Licht_Bar</v>
-      </c>
-      <c r="F175" s="4"/>
+        <v>Tanken</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H175" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="172" Shortname="Licht_Bar" Duration="0" FunctionTypeIndexCS2="225" FunctionTypeCS2="Licht_Bar" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="172" Shortname="Tanken" Duration="0" FunctionTypeIndexCS2="226" FunctionTypeCS2="Tanken" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>173</v>
       </c>
-      <c r="B176" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Tanken</v>
+      <c r="B176" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Wasser</v>
       </c>
       <c r="C176" s="4">
         <v>0</v>
       </c>
-      <c r="D176" s="10">
-        <v>226</v>
+      <c r="D176" s="9">
+        <v>227</v>
       </c>
       <c r="E176" t="str">
         <f>VLOOKUP(D176,'CS2'!A:B,2)</f>
-        <v>Tanken</v>
-      </c>
-      <c r="F176" s="4"/>
+        <v>Wasser</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H176" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="173" Shortname="Tanken" Duration="0" FunctionTypeIndexCS2="226" FunctionTypeCS2="Tanken" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="173" Shortname="Wasser" Duration="0" FunctionTypeIndexCS2="227" FunctionTypeCS2="Wasser" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>174</v>
       </c>
-      <c r="B177" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Wasser</v>
+      <c r="B177" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Diesel</v>
       </c>
       <c r="C177" s="4">
         <v>0</v>
       </c>
-      <c r="D177" s="10">
-        <v>227</v>
+      <c r="D177" s="9">
+        <v>228</v>
       </c>
       <c r="E177" t="str">
         <f>VLOOKUP(D177,'CS2'!A:B,2)</f>
-        <v>Wasser</v>
-      </c>
-      <c r="F177" s="4"/>
+        <v>Diesel</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H177" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="174" Shortname="Wasser" Duration="0" FunctionTypeIndexCS2="227" FunctionTypeCS2="Wasser" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="174" Shortname="Diesel" Duration="0" FunctionTypeIndexCS2="228" FunctionTypeCS2="Diesel" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>175</v>
       </c>
-      <c r="B178" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Diesel</v>
+      <c r="B178" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Kohle</v>
       </c>
       <c r="C178" s="4">
         <v>0</v>
       </c>
-      <c r="D178" s="10">
-        <v>228</v>
+      <c r="D178" s="9">
+        <v>229</v>
       </c>
       <c r="E178" t="str">
         <f>VLOOKUP(D178,'CS2'!A:B,2)</f>
-        <v>Diesel</v>
-      </c>
-      <c r="F178" s="4"/>
+        <v>Kohle</v>
+      </c>
+      <c r="F178" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H178" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="175" Shortname="Diesel" Duration="0" FunctionTypeIndexCS2="228" FunctionTypeCS2="Diesel" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="175" Shortname="Kohle" Duration="0" FunctionTypeIndexCS2="229" FunctionTypeCS2="Kohle" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>176</v>
       </c>
-      <c r="B179" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Kohle</v>
+      <c r="B179" s="11" t="s">
+        <v>233</v>
       </c>
       <c r="C179" s="4">
         <v>0</v>
       </c>
-      <c r="D179" s="10">
-        <v>229</v>
+      <c r="D179" s="9">
+        <v>230</v>
       </c>
       <c r="E179" t="str">
         <f>VLOOKUP(D179,'CS2'!A:B,2)</f>
-        <v>Kohle</v>
-      </c>
-      <c r="F179" s="4"/>
+        <v>Kohlestaub_2</v>
+      </c>
+      <c r="F179" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H179" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="176" Shortname="Kohle" Duration="0" FunctionTypeIndexCS2="229" FunctionTypeCS2="Kohle" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="176" Shortname="Kohlestaub" Duration="0" FunctionTypeIndexCS2="230" FunctionTypeCS2="Kohlestaub_2" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>177</v>
       </c>
-      <c r="B180" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Khlstb_2</v>
+      <c r="B180" s="11" t="s">
+        <v>425</v>
       </c>
       <c r="C180" s="4">
         <v>0</v>
       </c>
-      <c r="D180" s="10">
-        <v>230</v>
+      <c r="D180" s="9">
+        <v>231</v>
       </c>
       <c r="E180" t="str">
         <f>VLOOKUP(D180,'CS2'!A:B,2)</f>
-        <v>Kohlestaub_2</v>
-      </c>
-      <c r="F180" s="4"/>
+        <v>Oel</v>
+      </c>
+      <c r="F180" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H180" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="177" Shortname="Khlstb_2" Duration="0" FunctionTypeIndexCS2="230" FunctionTypeCS2="Kohlestaub_2" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="177" Shortname="Öl" Duration="0" FunctionTypeIndexCS2="231" FunctionTypeCS2="Oel" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>178</v>
       </c>
-      <c r="B181" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Oel</v>
+      <c r="B181" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Sand</v>
       </c>
       <c r="C181" s="4">
         <v>0</v>
       </c>
-      <c r="D181" s="10">
-        <v>231</v>
+      <c r="D181" s="9">
+        <v>232</v>
       </c>
       <c r="E181" t="str">
         <f>VLOOKUP(D181,'CS2'!A:B,2)</f>
-        <v>Oel</v>
-      </c>
-      <c r="F181" s="4"/>
+        <v>Sand</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H181" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="178" Shortname="Oel" Duration="0" FunctionTypeIndexCS2="231" FunctionTypeCS2="Oel" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="178" Shortname="Sand" Duration="0" FunctionTypeIndexCS2="232" FunctionTypeCS2="Sand" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>179</v>
       </c>
-      <c r="B182" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Sand</v>
+      <c r="B182" s="11" t="s">
+        <v>426</v>
       </c>
       <c r="C182" s="4">
         <v>0</v>
       </c>
-      <c r="D182" s="10">
-        <v>232</v>
+      <c r="D182" s="9">
+        <v>233</v>
       </c>
       <c r="E182" t="str">
         <f>VLOOKUP(D182,'CS2'!A:B,2)</f>
-        <v>Sand</v>
-      </c>
-      <c r="F182" s="4"/>
+        <v>Schweizer_Lichtwechsel</v>
+      </c>
+      <c r="F182" s="4" t="s">
+        <v>255</v>
+      </c>
       <c r="H182" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="179" Shortname="Sand" Duration="0" FunctionTypeIndexCS2="232" FunctionTypeCS2="Sand" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="179" Shortname="CH_Lichtwl" Duration="0" FunctionTypeIndexCS2="233" FunctionTypeCS2="Schweizer_Lichtwechsel" FunctionTypeZ21="coach_side_light_off" /&gt;</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>180</v>
       </c>
-      <c r="B183" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Schwzr_Lch</v>
+      <c r="B183" s="11" t="s">
+        <v>469</v>
       </c>
       <c r="C183" s="4">
         <v>0</v>
       </c>
-      <c r="D183" s="10">
-        <v>233</v>
+      <c r="D183" s="9">
+        <v>234</v>
       </c>
       <c r="E183" t="str">
         <f>VLOOKUP(D183,'CS2'!A:B,2)</f>
-        <v>Schweizer_Lichtwechsel</v>
+        <v>Ansage_Pfiff_mit_Tuerschliessen</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>255</v>
+        <v>318</v>
       </c>
       <c r="H183" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="180" Shortname="Schwzr_Lch" Duration="0" FunctionTypeIndexCS2="233" FunctionTypeCS2="Schweizer_Lichtwechsel" FunctionTypeZ21="coach_side_light_off" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="180" Shortname="AnsagPfiff" Duration="0" FunctionTypeIndexCS2="234" FunctionTypeCS2="Ansage_Pfiff_mit_Tuerschliessen" FunctionTypeZ21="sound5" /&gt;</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>181</v>
       </c>
-      <c r="B184" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Ansg_Pfff_</v>
+      <c r="B184" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Zufall_Aus</v>
       </c>
       <c r="C184" s="4">
         <v>0</v>
       </c>
-      <c r="D184" s="10">
-        <v>234</v>
+      <c r="D184" s="9">
+        <v>235</v>
       </c>
       <c r="E184" t="str">
         <f>VLOOKUP(D184,'CS2'!A:B,2)</f>
-        <v>Ansage_Pfiff_mit_Tuerschliessen</v>
-      </c>
-      <c r="F184" s="4"/>
+        <v>Zufall_Aus</v>
+      </c>
+      <c r="F184" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H184" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="181" Shortname="Ansg_Pfff_" Duration="0" FunctionTypeIndexCS2="234" FunctionTypeCS2="Ansage_Pfiff_mit_Tuerschliessen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="181" Shortname="Zufall_Aus" Duration="0" FunctionTypeIndexCS2="235" FunctionTypeCS2="Zufall_Aus" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>182</v>
       </c>
-      <c r="B185" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zufall_Aus</v>
+      <c r="B185" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Sifataster</v>
       </c>
       <c r="C185" s="4">
         <v>0</v>
       </c>
-      <c r="D185" s="10">
-        <v>235</v>
+      <c r="D185" s="9">
+        <v>236</v>
       </c>
       <c r="E185" t="str">
         <f>VLOOKUP(D185,'CS2'!A:B,2)</f>
-        <v>Zufall_Aus</v>
-      </c>
-      <c r="F185" s="4"/>
+        <v>Sifataster</v>
+      </c>
+      <c r="F185" s="4" t="s">
+        <v>326</v>
+      </c>
       <c r="H185" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="182" Shortname="Zufall_Aus" Duration="0" FunctionTypeIndexCS2="235" FunctionTypeCS2="Zufall_Aus" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="182" Shortname="Sifataster" Duration="0" FunctionTypeIndexCS2="236" FunctionTypeCS2="Sifataster" FunctionTypeZ21="sifa" /&gt;</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>183</v>
       </c>
-      <c r="B186" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Sifataster</v>
+      <c r="B186" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Not_Aus</v>
       </c>
       <c r="C186" s="4">
         <v>0</v>
       </c>
-      <c r="D186" s="10">
-        <v>236</v>
+      <c r="D186" s="9">
+        <v>237</v>
       </c>
       <c r="E186" t="str">
         <f>VLOOKUP(D186,'CS2'!A:B,2)</f>
-        <v>Sifataster</v>
-      </c>
-      <c r="F186" s="4"/>
+        <v>Not_Aus</v>
+      </c>
+      <c r="F186" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="H186" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="183" Shortname="Sifataster" Duration="0" FunctionTypeIndexCS2="236" FunctionTypeCS2="Sifataster" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="183" Shortname="Not_Aus" Duration="0" FunctionTypeIndexCS2="237" FunctionTypeCS2="Not_Aus" FunctionTypeZ21="warning" /&gt;</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>184</v>
       </c>
-      <c r="B187" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Not_Aus</v>
+      <c r="B187" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Schalter</v>
       </c>
       <c r="C187" s="4">
         <v>0</v>
       </c>
-      <c r="D187" s="10">
-        <v>237</v>
+      <c r="D187" s="9">
+        <v>238</v>
       </c>
       <c r="E187" t="str">
         <f>VLOOKUP(D187,'CS2'!A:B,2)</f>
-        <v>Not_Aus</v>
-      </c>
-      <c r="F187" s="4"/>
+        <v>Schalter</v>
+      </c>
+      <c r="F187" s="4" t="s">
+        <v>243</v>
+      </c>
       <c r="H187" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="184" Shortname="Not_Aus" Duration="0" FunctionTypeIndexCS2="237" FunctionTypeCS2="Not_Aus" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="184" Shortname="Schalter" Duration="0" FunctionTypeIndexCS2="238" FunctionTypeCS2="Schalter" FunctionTypeZ21="main" /&gt;</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>185</v>
       </c>
-      <c r="B188" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Schalter</v>
+      <c r="B188" s="11" t="s">
+        <v>444</v>
       </c>
       <c r="C188" s="4">
         <v>0</v>
       </c>
-      <c r="D188" s="10">
-        <v>238</v>
+      <c r="D188" s="9">
+        <v>239</v>
       </c>
       <c r="E188" t="str">
         <f>VLOOKUP(D188,'CS2'!A:B,2)</f>
-        <v>Schalter</v>
-      </c>
-      <c r="F188" s="4"/>
+        <v>Kippschlater</v>
+      </c>
+      <c r="F188" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H188" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="185" Shortname="Schalter" Duration="0" FunctionTypeIndexCS2="238" FunctionTypeCS2="Schalter" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="185" Shortname="Kippschalt" Duration="0" FunctionTypeIndexCS2="239" FunctionTypeCS2="Kippschlater" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>186</v>
       </c>
-      <c r="B189" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Kppschltr</v>
+      <c r="B189" s="11" t="s">
+        <v>443</v>
       </c>
       <c r="C189" s="4">
         <v>0</v>
       </c>
-      <c r="D189" s="10">
-        <v>239</v>
+      <c r="D189" s="9">
+        <v>240</v>
       </c>
       <c r="E189" t="str">
         <f>VLOOKUP(D189,'CS2'!A:B,2)</f>
-        <v>Kippschlater</v>
-      </c>
-      <c r="F189" s="4"/>
+        <v>Drehschalter</v>
+      </c>
+      <c r="F189" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H189" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="186" Shortname="Kppschltr" Duration="0" FunctionTypeIndexCS2="239" FunctionTypeCS2="Kippschlater" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="186" Shortname="Drehschalt" Duration="0" FunctionTypeIndexCS2="240" FunctionTypeCS2="Drehschalter" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>187</v>
       </c>
-      <c r="B190" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Drhschltr</v>
+      <c r="B190" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Not_Halt</v>
       </c>
       <c r="C190" s="4">
         <v>0</v>
       </c>
-      <c r="D190" s="10">
-        <v>240</v>
+      <c r="D190" s="9">
+        <v>241</v>
       </c>
       <c r="E190" t="str">
         <f>VLOOKUP(D190,'CS2'!A:B,2)</f>
-        <v>Drehschalter</v>
-      </c>
-      <c r="F190" s="4"/>
+        <v>Not_Halt</v>
+      </c>
+      <c r="F190" s="4" t="s">
+        <v>386</v>
+      </c>
       <c r="H190" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="187" Shortname="Drhschltr" Duration="0" FunctionTypeIndexCS2="240" FunctionTypeCS2="Drehschalter" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="187" Shortname="Not_Halt" Duration="0" FunctionTypeIndexCS2="241" FunctionTypeCS2="Not_Halt" FunctionTypeZ21="warning" /&gt;</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>188</v>
       </c>
-      <c r="B191" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Not_Halt</v>
+      <c r="B191" s="11" t="s">
+        <v>442</v>
       </c>
       <c r="C191" s="4">
         <v>0</v>
       </c>
-      <c r="D191" s="10">
-        <v>241</v>
+      <c r="D191" s="9">
+        <v>242</v>
       </c>
       <c r="E191" t="str">
         <f>VLOOKUP(D191,'CS2'!A:B,2)</f>
-        <v>Not_Halt</v>
-      </c>
-      <c r="F191" s="4"/>
+        <v>Sound_Zahnrad</v>
+      </c>
+      <c r="F191" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H191" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="188" Shortname="Not_Halt" Duration="0" FunctionTypeIndexCS2="241" FunctionTypeCS2="Not_Halt" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="188" Shortname="Zahnrd_Snd" Duration="0" FunctionTypeIndexCS2="242" FunctionTypeCS2="Sound_Zahnrad" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>189</v>
       </c>
-      <c r="B192" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Snd_Zhnrd</v>
+      <c r="B192" s="11" t="s">
+        <v>441</v>
       </c>
       <c r="C192" s="4">
         <v>0</v>
       </c>
-      <c r="D192" s="10">
-        <v>242</v>
+      <c r="D192" s="9">
+        <v>243</v>
       </c>
       <c r="E192" t="str">
         <f>VLOOKUP(D192,'CS2'!A:B,2)</f>
-        <v>Sound_Zahnrad</v>
-      </c>
-      <c r="F192" s="4"/>
+        <v>Klackern_Tacho</v>
+      </c>
+      <c r="F192" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H192" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="189" Shortname="Snd_Zhnrd" Duration="0" FunctionTypeIndexCS2="242" FunctionTypeCS2="Sound_Zahnrad" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="189" Shortname="Tachoklckn" Duration="0" FunctionTypeIndexCS2="243" FunctionTypeCS2="Klackern_Tacho" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>190</v>
       </c>
-      <c r="B193" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Klckrn_Tch</v>
+      <c r="B193" s="11" t="s">
+        <v>440</v>
       </c>
       <c r="C193" s="4">
         <v>0</v>
       </c>
-      <c r="D193" s="10">
-        <v>243</v>
+      <c r="D193" s="9">
+        <v>244</v>
       </c>
       <c r="E193" t="str">
         <f>VLOOKUP(D193,'CS2'!A:B,2)</f>
-        <v>Klackern_Tacho</v>
-      </c>
-      <c r="F193" s="4"/>
+        <v>Sound_Wischer</v>
+      </c>
+      <c r="F193" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H193" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="190" Shortname="Klckrn_Tch" Duration="0" FunctionTypeIndexCS2="243" FunctionTypeCS2="Klackern_Tacho" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="190" Shortname="WischerSnd" Duration="0" FunctionTypeIndexCS2="244" FunctionTypeCS2="Sound_Wischer" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>191</v>
       </c>
-      <c r="B194" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Snd_Wschr</v>
+      <c r="B194" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Zhnrd_Antr</v>
       </c>
       <c r="C194" s="4">
         <v>0</v>
       </c>
-      <c r="D194" s="10">
-        <v>244</v>
+      <c r="D194" s="9">
+        <v>245</v>
       </c>
       <c r="E194" t="str">
         <f>VLOOKUP(D194,'CS2'!A:B,2)</f>
-        <v>Sound_Wischer</v>
-      </c>
-      <c r="F194" s="4"/>
+        <v>Zahnrad_Antrieb</v>
+      </c>
+      <c r="F194" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H194" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="191" Shortname="Snd_Wschr" Duration="0" FunctionTypeIndexCS2="244" FunctionTypeCS2="Sound_Wischer" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="191" Shortname="Zhnrd_Antr" Duration="0" FunctionTypeIndexCS2="245" FunctionTypeCS2="Zahnrad_Antrieb" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>192</v>
       </c>
-      <c r="B195" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Zhnrd_Antr</v>
+      <c r="B195" s="11" t="str">
+        <f t="shared" si="5"/>
+        <v>Wischer</v>
       </c>
       <c r="C195" s="4">
         <v>0</v>
       </c>
-      <c r="D195" s="10">
-        <v>245</v>
+      <c r="D195" s="9">
+        <v>246</v>
       </c>
       <c r="E195" t="str">
         <f>VLOOKUP(D195,'CS2'!A:B,2)</f>
-        <v>Zahnrad_Antrieb</v>
-      </c>
-      <c r="F195" s="4"/>
+        <v>Wischer</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H195" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="192" Shortname="Zhnrd_Antr" Duration="0" FunctionTypeIndexCS2="245" FunctionTypeCS2="Zahnrad_Antrieb" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="4"/>
+        <v>&lt;mapping Id="192" Shortname="Wischer" Duration="0" FunctionTypeIndexCS2="246" FunctionTypeCS2="Wischer" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>193</v>
       </c>
-      <c r="B196" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v>Wischer</v>
+      <c r="B196" s="11" t="s">
+        <v>439</v>
       </c>
       <c r="C196" s="4">
         <v>0</v>
       </c>
-      <c r="D196" s="10">
-        <v>246</v>
+      <c r="D196" s="9">
+        <v>247</v>
       </c>
       <c r="E196" t="str">
         <f>VLOOKUP(D196,'CS2'!A:B,2)</f>
-        <v>Wischer</v>
-      </c>
-      <c r="F196" s="4"/>
+        <v>Abschlammen_Schlaemmen</v>
+      </c>
+      <c r="F196" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H196" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>&lt;mapping Id="193" Shortname="Wischer" Duration="0" FunctionTypeIndexCS2="246" FunctionTypeCS2="Wischer" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" ref="H196:H233" si="6">"&lt;mapping Id="""&amp;A196&amp;""" Shortname="""&amp;B196&amp;""" Duration="""&amp;C196&amp;""" FunctionTypeIndexCS2="""&amp;D196&amp;""" FunctionTypeCS2="""&amp;E196&amp;""" FunctionTypeZ21="""&amp;F196&amp;""" /&gt;"</f>
+        <v>&lt;mapping Id="193" Shortname="Abschlammn" Duration="0" FunctionTypeIndexCS2="247" FunctionTypeCS2="Abschlammen_Schlaemmen" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>194</v>
       </c>
-      <c r="B197" s="4" t="str">
-        <f t="shared" ref="B197:B234" si="6">IF(LEN(E197)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E197,"a",""),"e",""),"i",""),"o",""),"u",""),10),E197)</f>
-        <v>Abschlmmn_</v>
+      <c r="B197" s="11" t="s">
+        <v>468</v>
       </c>
       <c r="C197" s="4">
         <v>0</v>
       </c>
-      <c r="D197" s="10">
-        <v>247</v>
+      <c r="D197" s="9">
+        <v>249</v>
       </c>
       <c r="E197" t="str">
         <f>VLOOKUP(D197,'CS2'!A:B,2)</f>
-        <v>Abschlammen_Schlaemmen</v>
-      </c>
-      <c r="F197" s="4"/>
+        <v>Glocke_lang</v>
+      </c>
+      <c r="F197" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="H197" s="5" t="str">
-        <f t="shared" ref="H197:H234" si="7">"&lt;mapping Id="""&amp;A197&amp;""" Shortname="""&amp;B197&amp;""" Duration="""&amp;C197&amp;""" FunctionTypeIndexCS2="""&amp;D197&amp;""" FunctionTypeCS2="""&amp;E197&amp;""" FunctionTypeZ21="""&amp;F197&amp;""" /&gt;"</f>
-        <v>&lt;mapping Id="194" Shortname="Abschlmmn_" Duration="0" FunctionTypeIndexCS2="247" FunctionTypeCS2="Abschlammen_Schlaemmen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="194" Shortname="GlockeLang" Duration="0" FunctionTypeIndexCS2="249" FunctionTypeCS2="Glocke_lang" FunctionTypeZ21="bell" /&gt;</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>195</v>
       </c>
-      <c r="B198" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Glck_lng</v>
+      <c r="B198" s="11" t="str">
+        <f t="shared" ref="B198:B226" si="7">IF(LEN(E198)&gt;10,LEFT(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(SUBSTITUTE(E198,"a",""),"e",""),"i",""),"o",""),"u",""),10),E198)</f>
+        <v>Horn_kurz</v>
       </c>
       <c r="C198" s="4">
         <v>0</v>
       </c>
-      <c r="D198" s="10">
-        <v>249</v>
+      <c r="D198" s="9">
+        <v>250</v>
       </c>
       <c r="E198" t="str">
         <f>VLOOKUP(D198,'CS2'!A:B,2)</f>
-        <v>Glocke_lang</v>
-      </c>
-      <c r="F198" s="4"/>
+        <v>Horn_kurz</v>
+      </c>
+      <c r="F198" s="4" t="s">
+        <v>244</v>
+      </c>
       <c r="H198" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="195" Shortname="Glck_lng" Duration="0" FunctionTypeIndexCS2="249" FunctionTypeCS2="Glocke_lang" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="195" Shortname="Horn_kurz" Duration="0" FunctionTypeIndexCS2="250" FunctionTypeCS2="Horn_kurz" FunctionTypeZ21="horn_high" /&gt;</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>196</v>
       </c>
-      <c r="B199" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Horn_kurz</v>
+      <c r="B199" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Horn_lang</v>
       </c>
       <c r="C199" s="4">
         <v>0</v>
       </c>
-      <c r="D199" s="10">
-        <v>250</v>
+      <c r="D199" s="9">
+        <v>251</v>
       </c>
       <c r="E199" t="str">
         <f>VLOOKUP(D199,'CS2'!A:B,2)</f>
-        <v>Horn_kurz</v>
+        <v>Horn_lang</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H199" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="196" Shortname="Horn_kurz" Duration="0" FunctionTypeIndexCS2="250" FunctionTypeCS2="Horn_kurz" FunctionTypeZ21="horn_high" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="196" Shortname="Horn_lang" Duration="0" FunctionTypeIndexCS2="251" FunctionTypeCS2="Horn_lang" FunctionTypeZ21="horn_low" /&gt;</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>197</v>
       </c>
-      <c r="B200" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Horn_lang</v>
+      <c r="B200" s="11" t="s">
+        <v>384</v>
       </c>
       <c r="C200" s="4">
         <v>0</v>
       </c>
-      <c r="D200" s="10">
-        <v>251</v>
+      <c r="D200" s="9">
+        <v>252</v>
       </c>
       <c r="E200" t="str">
         <f>VLOOKUP(D200,'CS2'!A:B,2)</f>
-        <v>Horn_lang</v>
+        <v>Pfeife_kurz</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="H200" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="197" Shortname="Horn_lang" Duration="0" FunctionTypeIndexCS2="251" FunctionTypeCS2="Horn_lang" FunctionTypeZ21="horn_low" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="197" Shortname="Pfiff_kurz" Duration="0" FunctionTypeIndexCS2="252" FunctionTypeCS2="Pfeife_kurz" FunctionTypeZ21="whistle_short" /&gt;</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>198</v>
       </c>
-      <c r="B201" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Pff_krz</v>
+      <c r="B201" s="11" t="s">
+        <v>385</v>
       </c>
       <c r="C201" s="4">
         <v>0</v>
       </c>
-      <c r="D201" s="10">
-        <v>252</v>
+      <c r="D201" s="9">
+        <v>253</v>
       </c>
       <c r="E201" t="str">
         <f>VLOOKUP(D201,'CS2'!A:B,2)</f>
-        <v>Pfeife_kurz</v>
+        <v>Pfeife_lang</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>248</v>
+        <v>8</v>
       </c>
       <c r="H201" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="198" Shortname="Pff_krz" Duration="0" FunctionTypeIndexCS2="252" FunctionTypeCS2="Pfeife_kurz" FunctionTypeZ21="whistle_short" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="198" Shortname="Pfiff_lang" Duration="0" FunctionTypeIndexCS2="253" FunctionTypeCS2="Pfeife_lang" FunctionTypeZ21="whistle_long" /&gt;</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>199</v>
       </c>
-      <c r="B202" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Pff_lng</v>
+      <c r="B202" s="11" t="s">
+        <v>398</v>
       </c>
       <c r="C202" s="4">
         <v>0</v>
       </c>
-      <c r="D202" s="10">
-        <v>253</v>
+      <c r="D202" s="9">
+        <v>254</v>
       </c>
       <c r="E202" t="str">
         <f>VLOOKUP(D202,'CS2'!A:B,2)</f>
-        <v>Pfeife_lang</v>
+        <v>Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>8</v>
+        <v>302</v>
       </c>
       <c r="H202" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="199" Shortname="Pff_lng" Duration="0" FunctionTypeIndexCS2="253" FunctionTypeCS2="Pfeife_lang" FunctionTypeZ21="whistle_long" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="199" Shortname="Kran_FktON" Duration="0" FunctionTypeIndexCS2="254" FunctionTypeCS2="Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb" FunctionTypeZ21="rotate_upper_assembly" /&gt;</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>200</v>
       </c>
-      <c r="B203" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Krn_En_Ums</v>
+      <c r="B203" s="11" t="s">
+        <v>399</v>
       </c>
       <c r="C203" s="4">
         <v>0</v>
       </c>
-      <c r="D203" s="10">
-        <v>254</v>
+      <c r="D203" s="9">
+        <v>255</v>
       </c>
       <c r="E203" t="str">
         <f>VLOOKUP(D203,'CS2'!A:B,2)</f>
-        <v>Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb</v>
-      </c>
-      <c r="F203" s="4"/>
+        <v>Kran_Aus_Grundstellung_anfahren</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>302</v>
+      </c>
       <c r="H203" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="200" Shortname="Krn_En_Ums" Duration="0" FunctionTypeIndexCS2="254" FunctionTypeCS2="Kran_Ein_Umschalten_Fahrbetrieb_Funktionsbetrieb" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="200" Shortname="Kran_0_Pos" Duration="0" FunctionTypeIndexCS2="255" FunctionTypeCS2="Kran_Aus_Grundstellung_anfahren" FunctionTypeZ21="rotate_upper_assembly" /&gt;</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>201</v>
       </c>
-      <c r="B204" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Krn_As_Grn</v>
+      <c r="B204" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Kran_Haken</v>
       </c>
       <c r="C204" s="4">
         <v>0</v>
       </c>
-      <c r="D204" s="10">
-        <v>255</v>
+      <c r="D204" s="9">
+        <v>256</v>
       </c>
       <c r="E204" t="str">
         <f>VLOOKUP(D204,'CS2'!A:B,2)</f>
-        <v>Kran_Aus_Grundstellung_anfahren</v>
-      </c>
-      <c r="F204" s="4"/>
+        <v>Kran_Haken</v>
+      </c>
+      <c r="F204" s="4" t="s">
+        <v>297</v>
+      </c>
       <c r="H204" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="201" Shortname="Krn_As_Grn" Duration="0" FunctionTypeIndexCS2="255" FunctionTypeCS2="Kran_Aus_Grundstellung_anfahren" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="201" Shortname="Kran_Haken" Duration="0" FunctionTypeIndexCS2="256" FunctionTypeCS2="Kran_Haken" FunctionTypeZ21="pick_up" /&gt;</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>202</v>
       </c>
-      <c r="B205" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Kran_Haken</v>
+      <c r="B205" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Hammer</v>
       </c>
       <c r="C205" s="4">
         <v>0</v>
       </c>
-      <c r="D205" s="10">
-        <v>256</v>
+      <c r="D205" s="9">
+        <v>257</v>
       </c>
       <c r="E205" t="str">
         <f>VLOOKUP(D205,'CS2'!A:B,2)</f>
-        <v>Kran_Haken</v>
-      </c>
-      <c r="F205" s="4"/>
+        <v>Hammer</v>
+      </c>
+      <c r="F205" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H205" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="202" Shortname="Kran_Haken" Duration="0" FunctionTypeIndexCS2="256" FunctionTypeCS2="Kran_Haken" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="202" Shortname="Hammer" Duration="0" FunctionTypeIndexCS2="257" FunctionTypeCS2="Hammer" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>203</v>
       </c>
-      <c r="B206" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Hammer</v>
+      <c r="B206" s="11" t="s">
+        <v>427</v>
       </c>
       <c r="C206" s="4">
         <v>0</v>
       </c>
-      <c r="D206" s="10">
-        <v>257</v>
+      <c r="D206" s="9">
+        <v>258</v>
       </c>
       <c r="E206" t="str">
         <f>VLOOKUP(D206,'CS2'!A:B,2)</f>
-        <v>Hammer</v>
-      </c>
-      <c r="F206" s="4"/>
+        <v>Saege</v>
+      </c>
+      <c r="F206" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H206" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="203" Shortname="Hammer" Duration="0" FunctionTypeIndexCS2="257" FunctionTypeCS2="Hammer" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="203" Shortname="Säge" Duration="0" FunctionTypeIndexCS2="258" FunctionTypeCS2="Saege" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>204</v>
       </c>
-      <c r="B207" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Saege</v>
+      <c r="B207" s="11" t="s">
+        <v>459</v>
       </c>
       <c r="C207" s="4">
         <v>0</v>
       </c>
-      <c r="D207" s="10">
-        <v>258</v>
+      <c r="D207" s="9">
+        <v>259</v>
       </c>
       <c r="E207" t="str">
         <f>VLOOKUP(D207,'CS2'!A:B,2)</f>
-        <v>Saege</v>
-      </c>
-      <c r="F207" s="4"/>
+        <v>Bohrmaschine_Bohrer</v>
+      </c>
+      <c r="F207" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H207" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="204" Shortname="Saege" Duration="0" FunctionTypeIndexCS2="258" FunctionTypeCS2="Saege" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="204" Shortname="Bohrer" Duration="0" FunctionTypeIndexCS2="259" FunctionTypeCS2="Bohrmaschine_Bohrer" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>205</v>
       </c>
-      <c r="B208" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Bhrmschn_B</v>
+      <c r="B208" s="11" t="s">
+        <v>460</v>
       </c>
       <c r="C208" s="4">
         <v>0</v>
       </c>
-      <c r="D208" s="10">
-        <v>259</v>
+      <c r="D208" s="9">
+        <v>260</v>
       </c>
       <c r="E208" t="str">
         <f>VLOOKUP(D208,'CS2'!A:B,2)</f>
-        <v>Bohrmaschine_Bohrer</v>
-      </c>
-      <c r="F208" s="4"/>
+        <v>Schweissgeraet_Schweissen</v>
+      </c>
+      <c r="F208" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H208" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="205" Shortname="Bhrmschn_B" Duration="0" FunctionTypeIndexCS2="259" FunctionTypeCS2="Bohrmaschine_Bohrer" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="205" Shortname="Schweissen" Duration="0" FunctionTypeIndexCS2="260" FunctionTypeCS2="Schweissgeraet_Schweissen" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>206</v>
       </c>
-      <c r="B209" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Schwssgrt_</v>
+      <c r="B209" s="11" t="s">
+        <v>461</v>
       </c>
       <c r="C209" s="4">
         <v>0</v>
       </c>
-      <c r="D209" s="10">
-        <v>260</v>
+      <c r="D209" s="9">
+        <v>261</v>
       </c>
       <c r="E209" t="str">
         <f>VLOOKUP(D209,'CS2'!A:B,2)</f>
-        <v>Schweissgeraet_Schweissen</v>
-      </c>
-      <c r="F209" s="4"/>
+        <v>Schleifblock_Schleifen</v>
+      </c>
+      <c r="F209" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H209" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="206" Shortname="Schwssgrt_" Duration="0" FunctionTypeIndexCS2="260" FunctionTypeCS2="Schweissgeraet_Schweissen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="206" Shortname="Schleifen" Duration="0" FunctionTypeIndexCS2="261" FunctionTypeCS2="Schleifblock_Schleifen" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>207</v>
       </c>
-      <c r="B210" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Schlfblck_</v>
+      <c r="B210" s="11" t="s">
+        <v>462</v>
       </c>
       <c r="C210" s="4">
         <v>0</v>
       </c>
-      <c r="D210" s="10">
-        <v>261</v>
+      <c r="D210" s="9">
+        <v>262</v>
       </c>
       <c r="E210" t="str">
         <f>VLOOKUP(D210,'CS2'!A:B,2)</f>
-        <v>Schleifblock_Schleifen</v>
-      </c>
-      <c r="F210" s="4"/>
+        <v>Drahtbuerste_Buersten</v>
+      </c>
+      <c r="F210" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H210" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="207" Shortname="Schlfblck_" Duration="0" FunctionTypeIndexCS2="261" FunctionTypeCS2="Schleifblock_Schleifen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="207" Shortname="Bürsten" Duration="0" FunctionTypeIndexCS2="262" FunctionTypeCS2="Drahtbuerste_Buersten" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>208</v>
       </c>
-      <c r="B211" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Drhtbrst_B</v>
+      <c r="B211" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Kettenzug</v>
       </c>
       <c r="C211" s="4">
         <v>0</v>
       </c>
-      <c r="D211" s="10">
-        <v>262</v>
+      <c r="D211" s="9">
+        <v>263</v>
       </c>
       <c r="E211" t="str">
         <f>VLOOKUP(D211,'CS2'!A:B,2)</f>
-        <v>Drahtbuerste_Buersten</v>
-      </c>
-      <c r="F211" s="4"/>
+        <v>Kettenzug</v>
+      </c>
+      <c r="F211" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H211" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="208" Shortname="Drhtbrst_B" Duration="0" FunctionTypeIndexCS2="262" FunctionTypeCS2="Drahtbuerste_Buersten" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="208" Shortname="Kettenzug" Duration="0" FunctionTypeIndexCS2="263" FunctionTypeCS2="Kettenzug" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>209</v>
       </c>
-      <c r="B212" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Kettenzug</v>
+      <c r="B212" s="11" t="s">
+        <v>463</v>
       </c>
       <c r="C212" s="4">
         <v>0</v>
       </c>
-      <c r="D212" s="10">
-        <v>263</v>
+      <c r="D212" s="9">
+        <v>264</v>
       </c>
       <c r="E212" t="str">
         <f>VLOOKUP(D212,'CS2'!A:B,2)</f>
-        <v>Kettenzug</v>
-      </c>
-      <c r="F212" s="4"/>
+        <v>Trennschleifer_Flex</v>
+      </c>
+      <c r="F212" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H212" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="209" Shortname="Kettenzug" Duration="0" FunctionTypeIndexCS2="263" FunctionTypeCS2="Kettenzug" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="209" Shortname="Flexen" Duration="0" FunctionTypeIndexCS2="264" FunctionTypeCS2="Trennschleifer_Flex" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>210</v>
       </c>
-      <c r="B213" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Trnnschlfr</v>
+      <c r="B213" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Schaufel</v>
       </c>
       <c r="C213" s="4">
         <v>0</v>
       </c>
-      <c r="D213" s="10">
-        <v>264</v>
+      <c r="D213" s="9">
+        <v>265</v>
       </c>
       <c r="E213" t="str">
         <f>VLOOKUP(D213,'CS2'!A:B,2)</f>
-        <v>Trennschleifer_Flex</v>
-      </c>
-      <c r="F213" s="4"/>
+        <v>Schaufel</v>
+      </c>
+      <c r="F213" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H213" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="210" Shortname="Trnnschlfr" Duration="0" FunctionTypeIndexCS2="264" FunctionTypeCS2="Trennschleifer_Flex" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="210" Shortname="Schaufel" Duration="0" FunctionTypeIndexCS2="265" FunctionTypeCS2="Schaufel" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>211</v>
       </c>
-      <c r="B214" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Schaufel</v>
+      <c r="B214" s="11" t="s">
+        <v>464</v>
       </c>
       <c r="C214" s="4">
         <v>0</v>
       </c>
-      <c r="D214" s="10">
-        <v>265</v>
+      <c r="D214" s="9">
+        <v>266</v>
       </c>
       <c r="E214" t="str">
         <f>VLOOKUP(D214,'CS2'!A:B,2)</f>
-        <v>Schaufel</v>
-      </c>
-      <c r="F214" s="4"/>
+        <v>Laden_Einladen_Ausladen</v>
+      </c>
+      <c r="F214" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H214" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="211" Shortname="Schaufel" Duration="0" FunctionTypeIndexCS2="265" FunctionTypeCS2="Schaufel" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="211" Shortname="Beladen" Duration="0" FunctionTypeIndexCS2="266" FunctionTypeCS2="Laden_Einladen_Ausladen" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>212</v>
       </c>
-      <c r="B215" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Ldn_Enldn_</v>
+      <c r="B215" s="11" t="s">
+        <v>465</v>
       </c>
       <c r="C215" s="4">
         <v>0</v>
       </c>
-      <c r="D215" s="10">
-        <v>266</v>
+      <c r="D215" s="9">
+        <v>267</v>
       </c>
       <c r="E215" t="str">
         <f>VLOOKUP(D215,'CS2'!A:B,2)</f>
-        <v>Laden_Einladen_Ausladen</v>
-      </c>
-      <c r="F215" s="4"/>
+        <v>Presslufthammer_Hämmern</v>
+      </c>
+      <c r="F215" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H215" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="212" Shortname="Ldn_Enldn_" Duration="0" FunctionTypeIndexCS2="266" FunctionTypeCS2="Laden_Einladen_Ausladen" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="212" Shortname="Hämmern" Duration="0" FunctionTypeIndexCS2="267" FunctionTypeCS2="Presslufthammer_Hämmern" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>213</v>
       </c>
-      <c r="B216" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Prsslfthmm</v>
+      <c r="B216" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Stop</v>
       </c>
       <c r="C216" s="4">
         <v>0</v>
       </c>
-      <c r="D216" s="10">
-        <v>267</v>
+      <c r="D216" s="9">
+        <v>268</v>
       </c>
       <c r="E216" t="str">
         <f>VLOOKUP(D216,'CS2'!A:B,2)</f>
-        <v>Presslufthammer_Hämmern</v>
-      </c>
-      <c r="F216" s="4"/>
+        <v>Stop</v>
+      </c>
+      <c r="F216" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H216" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="213" Shortname="Prsslfthmm" Duration="0" FunctionTypeIndexCS2="267" FunctionTypeCS2="Presslufthammer_Hämmern" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="213" Shortname="Stop" Duration="0" FunctionTypeIndexCS2="268" FunctionTypeCS2="Stop" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>214</v>
       </c>
-      <c r="B217" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Stop</v>
+      <c r="B217" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="C217" s="4">
         <v>0</v>
       </c>
-      <c r="D217" s="10">
-        <v>268</v>
+      <c r="D217" s="9">
+        <v>269</v>
       </c>
       <c r="E217" t="str">
         <f>VLOOKUP(D217,'CS2'!A:B,2)</f>
-        <v>Stop</v>
-      </c>
-      <c r="F217" s="4"/>
+        <v>Naechstes</v>
+      </c>
+      <c r="F217" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H217" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="214" Shortname="Stop" Duration="0" FunctionTypeIndexCS2="268" FunctionTypeCS2="Stop" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="214" Shortname="Nächstes" Duration="0" FunctionTypeIndexCS2="269" FunctionTypeCS2="Naechstes" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>215</v>
       </c>
-      <c r="B218" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Naechstes</v>
+      <c r="B218" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Letztes</v>
       </c>
       <c r="C218" s="4">
         <v>0</v>
       </c>
-      <c r="D218" s="10">
-        <v>269</v>
+      <c r="D218" s="9">
+        <v>270</v>
       </c>
       <c r="E218" t="str">
         <f>VLOOKUP(D218,'CS2'!A:B,2)</f>
-        <v>Naechstes</v>
-      </c>
-      <c r="F218" s="4"/>
+        <v>Letztes</v>
+      </c>
+      <c r="F218" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H218" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="215" Shortname="Naechstes" Duration="0" FunctionTypeIndexCS2="269" FunctionTypeCS2="Naechstes" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="215" Shortname="Letztes" Duration="0" FunctionTypeIndexCS2="270" FunctionTypeCS2="Letztes" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>216</v>
       </c>
-      <c r="B219" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Letztes</v>
+      <c r="B219" s="11" t="s">
+        <v>467</v>
       </c>
       <c r="C219" s="4">
         <v>0</v>
       </c>
-      <c r="D219" s="10">
-        <v>270</v>
+      <c r="D219" s="9">
+        <v>271</v>
       </c>
       <c r="E219" t="str">
         <f>VLOOKUP(D219,'CS2'!A:B,2)</f>
-        <v>Letztes</v>
-      </c>
-      <c r="F219" s="4"/>
+        <v>Bahnuebergang</v>
+      </c>
+      <c r="F219" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H219" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="216" Shortname="Letztes" Duration="0" FunctionTypeIndexCS2="270" FunctionTypeCS2="Letztes" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="216" Shortname="Bahnübgng" Duration="0" FunctionTypeIndexCS2="271" FunctionTypeCS2="Bahnuebergang" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>217</v>
       </c>
-      <c r="B220" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Bhnbrgng</v>
+      <c r="B220" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="C220" s="4">
         <v>0</v>
       </c>
-      <c r="D220" s="10">
-        <v>271</v>
+      <c r="D220" s="9">
+        <v>272</v>
       </c>
       <c r="E220" t="str">
         <f>VLOOKUP(D220,'CS2'!A:B,2)</f>
-        <v>Bahnuebergang</v>
-      </c>
-      <c r="F220" s="4"/>
+        <v>Glocke_Bahnuebergang</v>
+      </c>
+      <c r="F220" s="4" t="s">
+        <v>312</v>
+      </c>
       <c r="H220" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="217" Shortname="Bhnbrgng" Duration="0" FunctionTypeIndexCS2="271" FunctionTypeCS2="Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="217" Shortname="Glocke_BÜ" Duration="0" FunctionTypeIndexCS2="272" FunctionTypeCS2="Glocke_Bahnuebergang" FunctionTypeZ21="bell" /&gt;</v>
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>218</v>
       </c>
-      <c r="B221" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Glck_Bhnbr</v>
+      <c r="B221" s="11" t="s">
+        <v>438</v>
       </c>
       <c r="C221" s="4">
         <v>0</v>
       </c>
-      <c r="D221" s="10">
-        <v>272</v>
+      <c r="D221" s="9">
+        <v>273</v>
       </c>
       <c r="E221" t="str">
         <f>VLOOKUP(D221,'CS2'!A:B,2)</f>
-        <v>Glocke_Bahnuebergang</v>
-      </c>
-      <c r="F221" s="4"/>
+        <v>Starklueften</v>
+      </c>
+      <c r="F221" s="4" t="s">
+        <v>322</v>
+      </c>
       <c r="H221" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="218" Shortname="Glck_Bhnbr" Duration="0" FunctionTypeIndexCS2="272" FunctionTypeCS2="Glocke_Bahnuebergang" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="218" Shortname="Starklüftn" Duration="0" FunctionTypeIndexCS2="273" FunctionTypeCS2="Starklueften" FunctionTypeZ21="fan_strong" /&gt;</v>
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>219</v>
       </c>
-      <c r="B222" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Strklftn</v>
+      <c r="B222" s="11" t="s">
+        <v>437</v>
       </c>
       <c r="C222" s="4">
         <v>0</v>
       </c>
-      <c r="D222" s="10">
-        <v>273</v>
+      <c r="D222" s="9">
+        <v>274</v>
       </c>
       <c r="E222" t="str">
         <f>VLOOKUP(D222,'CS2'!A:B,2)</f>
-        <v>Starklueften</v>
+        <v>Schwachlueften</v>
       </c>
       <c r="F222" s="4" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="H222" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="219" Shortname="Strklftn" Duration="0" FunctionTypeIndexCS2="273" FunctionTypeCS2="Starklueften" FunctionTypeZ21="fan_strong" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="219" Shortname="Schwachlft" Duration="0" FunctionTypeIndexCS2="274" FunctionTypeCS2="Schwachlueften" FunctionTypeZ21="fan" /&gt;</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>220</v>
       </c>
-      <c r="B223" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Schwchlftn</v>
+      <c r="B223" s="11" t="s">
+        <v>436</v>
       </c>
       <c r="C223" s="4">
         <v>0</v>
       </c>
-      <c r="D223" s="10">
-        <v>274</v>
+      <c r="D223" s="9">
+        <v>277</v>
       </c>
       <c r="E223" t="str">
         <f>VLOOKUP(D223,'CS2'!A:B,2)</f>
-        <v>Schwachlueften</v>
+        <v>Telex_Walzer</v>
       </c>
       <c r="F223" s="4" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="H223" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="220" Shortname="Schwchlftn" Duration="0" FunctionTypeIndexCS2="274" FunctionTypeCS2="Schwachlueften" FunctionTypeZ21="fan" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="220" Shortname="TelexWalz" Duration="0" FunctionTypeIndexCS2="277" FunctionTypeCS2="Telex_Walzer" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>221</v>
       </c>
-      <c r="B224" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Tlx_Wlzr</v>
+      <c r="B224" s="11" t="s">
+        <v>429</v>
       </c>
       <c r="C224" s="4">
         <v>0</v>
       </c>
-      <c r="D224" s="10">
-        <v>277</v>
+      <c r="D224" s="9">
+        <v>278</v>
       </c>
       <c r="E224" t="str">
         <f>VLOOKUP(D224,'CS2'!A:B,2)</f>
-        <v>Telex_Walzer</v>
+        <v>Licht_Generator_Sound</v>
       </c>
       <c r="F224" s="4" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="H224" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="221" Shortname="Tlx_Wlzr" Duration="0" FunctionTypeIndexCS2="277" FunctionTypeCS2="Telex_Walzer" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="221" Shortname="Lichtgen" Duration="0" FunctionTypeIndexCS2="278" FunctionTypeCS2="Licht_Generator_Sound" FunctionTypeZ21="alternator" /&gt;</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>222</v>
       </c>
-      <c r="B225" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Lcht_Gnrtr</v>
+      <c r="B225" s="11" t="s">
+        <v>483</v>
       </c>
       <c r="C225" s="4">
         <v>0</v>
       </c>
-      <c r="D225" s="10">
-        <v>278</v>
+      <c r="D225" s="9">
+        <v>279</v>
       </c>
       <c r="E225" t="str">
         <f>VLOOKUP(D225,'CS2'!A:B,2)</f>
-        <v>Licht_Generator_Sound</v>
+        <v>Rauchkammer</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="H225" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="222" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeIndexCS2="278" FunctionTypeCS2="Licht_Generator_Sound" FunctionTypeZ21="alternator" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="222" Shortname="Rauchkamm" Duration="0" FunctionTypeIndexCS2="279" FunctionTypeCS2="Rauchkammer" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>223</v>
       </c>
-      <c r="B226" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Rchkmmr</v>
+      <c r="B226" s="11" t="str">
+        <f t="shared" si="7"/>
+        <v>Kohlestaub</v>
       </c>
       <c r="C226" s="4">
         <v>0</v>
       </c>
-      <c r="D226" s="10">
-        <v>279</v>
+      <c r="D226" s="9">
+        <v>280</v>
       </c>
       <c r="E226" t="str">
         <f>VLOOKUP(D226,'CS2'!A:B,2)</f>
-        <v>Rauchkammer</v>
-      </c>
-      <c r="F226" s="4"/>
+        <v>Kohlestaub</v>
+      </c>
+      <c r="F226" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H226" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="223" Shortname="Rchkmmr" Duration="0" FunctionTypeIndexCS2="279" FunctionTypeCS2="Rauchkammer" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="223" Shortname="Kohlestaub" Duration="0" FunctionTypeIndexCS2="280" FunctionTypeCS2="Kohlestaub" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>224</v>
       </c>
-      <c r="B227" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Kohlestaub</v>
+      <c r="B227" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="C227" s="4">
         <v>0</v>
       </c>
-      <c r="D227" s="10">
-        <v>280</v>
+      <c r="D227" s="9">
+        <v>281</v>
       </c>
       <c r="E227" t="str">
         <f>VLOOKUP(D227,'CS2'!A:B,2)</f>
-        <v>Kohlestaub</v>
-      </c>
-      <c r="F227" s="4"/>
+        <v>Fernlicht_vorne_hinten</v>
+      </c>
+      <c r="F227" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H227" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="224" Shortname="Kohlestaub" Duration="0" FunctionTypeIndexCS2="280" FunctionTypeCS2="Kohlestaub" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="224" Shortname="Fernlicht" Duration="0" FunctionTypeIndexCS2="281" FunctionTypeCS2="Fernlicht_vorne_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>225</v>
       </c>
-      <c r="B228" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Frnlcht_vr</v>
+      <c r="B228" s="11" t="s">
+        <v>435</v>
       </c>
       <c r="C228" s="4">
         <v>0</v>
       </c>
-      <c r="D228" s="10">
-        <v>281</v>
+      <c r="D228" s="9">
+        <v>282</v>
       </c>
       <c r="E228" t="str">
         <f>VLOOKUP(D228,'CS2'!A:B,2)</f>
-        <v>Fernlicht_vorne_hinten</v>
-      </c>
-      <c r="F228" s="4"/>
+        <v>Stirnlicht_vorne_hinten</v>
+      </c>
+      <c r="F228" s="4" t="s">
+        <v>251</v>
+      </c>
       <c r="H228" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="225" Shortname="Frnlcht_vr" Duration="0" FunctionTypeIndexCS2="281" FunctionTypeCS2="Fernlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="225" Shortname="Stirnlicht" Duration="0" FunctionTypeIndexCS2="282" FunctionTypeCS2="Stirnlicht_vorne_hinten" FunctionTypeZ21="main_beam" /&gt;</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>226</v>
       </c>
-      <c r="B229" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Strnlcht_v</v>
+      <c r="B229" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="C229" s="4">
         <v>0</v>
       </c>
-      <c r="D229" s="10">
-        <v>282</v>
+      <c r="D229" s="9">
+        <v>291</v>
       </c>
       <c r="E229" t="str">
         <f>VLOOKUP(D229,'CS2'!A:B,2)</f>
-        <v>Stirnlicht_vorne_hinten</v>
-      </c>
-      <c r="F229" s="4"/>
+        <v>Licht_Generator_Sound_hinten</v>
+      </c>
+      <c r="F229" s="4" t="s">
+        <v>284</v>
+      </c>
       <c r="H229" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="226" Shortname="Strnlcht_v" Duration="0" FunctionTypeIndexCS2="282" FunctionTypeCS2="Stirnlicht_vorne_hinten" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="226" Shortname="Lichtgen_h" Duration="0" FunctionTypeIndexCS2="291" FunctionTypeCS2="Licht_Generator_Sound_hinten" FunctionTypeZ21="alternator" /&gt;</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>227</v>
       </c>
-      <c r="B230" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Lcht_Gnrtr</v>
+      <c r="B230" s="11" t="s">
+        <v>432</v>
       </c>
       <c r="C230" s="4">
         <v>0</v>
       </c>
-      <c r="D230" s="10">
-        <v>291</v>
+      <c r="D230" s="9">
+        <v>292</v>
       </c>
       <c r="E230" t="str">
         <f>VLOOKUP(D230,'CS2'!A:B,2)</f>
-        <v>Licht_Generator_Sound_hinten</v>
-      </c>
-      <c r="F230" s="4"/>
+        <v>Telex_Walzer_vorne</v>
+      </c>
+      <c r="F230" s="4" t="s">
+        <v>263</v>
+      </c>
       <c r="H230" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="227" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeIndexCS2="291" FunctionTypeCS2="Licht_Generator_Sound_hinten" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="227" Shortname="Telex_vorn" Duration="0" FunctionTypeIndexCS2="292" FunctionTypeCS2="Telex_Walzer_vorne" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>228</v>
       </c>
-      <c r="B231" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Tlx_Wlzr_v</v>
+      <c r="B231" s="11" t="s">
+        <v>433</v>
       </c>
       <c r="C231" s="4">
         <v>0</v>
       </c>
-      <c r="D231" s="10">
-        <v>292</v>
+      <c r="D231" s="9">
+        <v>293</v>
       </c>
       <c r="E231" t="str">
         <f>VLOOKUP(D231,'CS2'!A:B,2)</f>
-        <v>Telex_Walzer_vorne</v>
+        <v>Telex_Walzer_hinten</v>
       </c>
       <c r="F231" s="4" t="s">
         <v>263</v>
       </c>
       <c r="H231" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="228" Shortname="Tlx_Wlzr_v" Duration="0" FunctionTypeIndexCS2="292" FunctionTypeCS2="Telex_Walzer_vorne" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="228" Shortname="Telex_hint" Duration="0" FunctionTypeIndexCS2="293" FunctionTypeCS2="Telex_Walzer_hinten" FunctionTypeZ21="decouple" /&gt;</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>229</v>
       </c>
-      <c r="B232" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Tlx_Wlzr_h</v>
+      <c r="B232" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="C232" s="4">
         <v>0</v>
       </c>
-      <c r="D232" s="10">
-        <v>293</v>
+      <c r="D232" s="9">
+        <v>294</v>
       </c>
       <c r="E232" t="str">
         <f>VLOOKUP(D232,'CS2'!A:B,2)</f>
-        <v>Telex_Walzer_hinten</v>
+        <v>Licht_Generator_Sound_vorne</v>
       </c>
       <c r="F232" s="4" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="H232" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="229" Shortname="Tlx_Wlzr_h" Duration="0" FunctionTypeIndexCS2="293" FunctionTypeCS2="Telex_Walzer_hinten" FunctionTypeZ21="decouple" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="229" Shortname="Lichtgen_v" Duration="0" FunctionTypeIndexCS2="294" FunctionTypeCS2="Licht_Generator_Sound_vorne" FunctionTypeZ21="alternator" /&gt;</v>
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>230</v>
       </c>
-      <c r="B233" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Lcht_Gnrtr</v>
+      <c r="B233" s="11" t="s">
+        <v>434</v>
       </c>
       <c r="C233" s="4">
         <v>0</v>
       </c>
-      <c r="D233" s="10">
-        <v>294</v>
+      <c r="D233" s="9">
+        <v>295</v>
       </c>
       <c r="E233" t="str">
         <f>VLOOKUP(D233,'CS2'!A:B,2)</f>
-        <v>Licht_Generator_Sound_vorne</v>
-      </c>
-      <c r="F233" s="4"/>
+        <v>Kurbeln_Sound</v>
+      </c>
+      <c r="F233" s="4" t="s">
+        <v>241</v>
+      </c>
       <c r="H233" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="230" Shortname="Lcht_Gnrtr" Duration="0" FunctionTypeIndexCS2="294" FunctionTypeCS2="Licht_Generator_Sound_vorne" FunctionTypeZ21="" /&gt;</v>
+        <f t="shared" si="6"/>
+        <v>&lt;mapping Id="230" Shortname="KurbelnSnd" Duration="0" FunctionTypeIndexCS2="295" FunctionTypeCS2="Kurbeln_Sound" FunctionTypeZ21="none" /&gt;</v>
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A234">
-        <v>231</v>
-      </c>
-      <c r="B234" s="4" t="str">
-        <f t="shared" si="6"/>
-        <v>Krbln_Snd</v>
-      </c>
-      <c r="C234" s="4">
-        <v>0</v>
-      </c>
-      <c r="D234" s="10">
-        <v>295</v>
-      </c>
-      <c r="E234" t="str">
-        <f>VLOOKUP(D234,'CS2'!A:B,2)</f>
-        <v>Kurbeln_Sound</v>
-      </c>
-      <c r="F234" s="4"/>
-      <c r="H234" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>&lt;mapping Id="231" Shortname="Krbln_Snd" Duration="0" FunctionTypeIndexCS2="295" FunctionTypeCS2="Kurbeln_Sound" FunctionTypeZ21="" /&gt;</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="H235" s="5" t="s">
+      <c r="H234" s="5" t="s">
         <v>332</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
-  <autoFilter ref="A3:F3" xr:uid="{6998C7BB-3F10-8F46-AE0B-DDB5392E341E}"/>
+  <sheetProtection selectLockedCells="1" sort="0" autoFilter="0"/>
+  <autoFilter ref="A3:F233" xr:uid="{6998C7BB-3F10-8F46-AE0B-DDB5392E341E}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B2:B1048576">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>LEN(B2)&gt;10</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4:F233">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
+      <formula>LEN(TRIM(F4))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>"none"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="containsText" priority="1" operator="containsText" id="{8622B8C7-71ED-9A44-BF85-072C01FF9E04}">
+            <xm:f>NOT(ISERROR(SEARCH("=",B1)))</xm:f>
+            <xm:f>"="</xm:f>
+            <x14:dxf>
+              <fill>
+                <patternFill>
+                  <bgColor theme="6" tint="0.59996337778862885"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>B1:B1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2F515ABC-3C23-E04F-A326-41683731710A}">
           <x14:formula1>
             <xm:f>'z21'!$A:$A</xm:f>
           </x14:formula1>
-          <xm:sqref>F4:F234</xm:sqref>
+          <xm:sqref>F4:F233</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7444,10 +8052,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19EF95F3-5055-FE4F-B580-847E6789E084}">
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7922,6 +8530,11 @@
     <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
